--- a/data/haver_pivoted.xlsx
+++ b/data/haver_pivoted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -868,6 +868,9 @@
   <si>
     <t xml:space="preserve">jgsi_growth</t>
   </si>
+  <si>
+    <t xml:space="preserve">gftfbdx</t>
+  </si>
 </sst>
 </file>
 
@@ -2435,7 +2438,7 @@
         <v>21494.7</v>
       </c>
       <c r="GX2" t="n">
-        <v>22061</v>
+        <v>22061.5</v>
       </c>
     </row>
     <row r="3">
@@ -3055,7 +3058,7 @@
         <v>18794.4</v>
       </c>
       <c r="GX3" t="n">
-        <v>19088.1</v>
+        <v>19086.4</v>
       </c>
     </row>
     <row r="4">
@@ -3675,7 +3678,7 @@
         <v>114.415</v>
       </c>
       <c r="GX4" t="n">
-        <v>115.613</v>
+        <v>115.63</v>
       </c>
     </row>
     <row r="5">
@@ -4295,7 +4298,7 @@
         <v>14537</v>
       </c>
       <c r="GX5" t="n">
-        <v>15069.2</v>
+        <v>15070.1</v>
       </c>
     </row>
     <row r="6">
@@ -4915,7 +4918,7 @@
         <v>12999.1</v>
       </c>
       <c r="GX6" t="n">
-        <v>13352.2</v>
+        <v>13353.3</v>
       </c>
     </row>
     <row r="7">
@@ -5535,7 +5538,7 @@
         <v>111.835</v>
       </c>
       <c r="GX7" t="n">
-        <v>112.864</v>
+        <v>112.861</v>
       </c>
     </row>
     <row r="8">
@@ -6155,7 +6158,7 @@
         <v>112.102</v>
       </c>
       <c r="GX8" t="n">
-        <v>113.15</v>
+        <v>113.165</v>
       </c>
     </row>
     <row r="9">
@@ -6775,7 +6778,7 @@
         <v>117.727</v>
       </c>
       <c r="GX9" t="n">
-        <v>119.875</v>
+        <v>119.885</v>
       </c>
     </row>
     <row r="10">
@@ -7395,7 +7398,7 @@
         <v>117.647</v>
       </c>
       <c r="GX10" t="n">
-        <v>119.906</v>
+        <v>119.911</v>
       </c>
     </row>
     <row r="11">
@@ -8015,7 +8018,7 @@
         <v>118.093</v>
       </c>
       <c r="GX11" t="n">
-        <v>119.773</v>
+        <v>119.809</v>
       </c>
     </row>
     <row r="12">
@@ -9255,7 +9258,7 @@
         <v>682.4</v>
       </c>
       <c r="GX13" t="n">
-        <v>694.4</v>
+        <v>700.1</v>
       </c>
     </row>
     <row r="14">
@@ -10495,7 +10498,7 @@
         <v>3745.8</v>
       </c>
       <c r="GX15" t="n">
-        <v>6003.5</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="16">
@@ -11115,7 +11118,7 @@
         <v>113.6</v>
       </c>
       <c r="GX16" t="n">
-        <v>114.3</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="17">
@@ -11735,7 +11738,7 @@
         <v>2270.2</v>
       </c>
       <c r="GX17" t="n">
-        <v>2312.7</v>
+        <v>2314.1</v>
       </c>
     </row>
     <row r="18">
@@ -12355,7 +12358,7 @@
         <v>1511.6</v>
       </c>
       <c r="GX18" t="n">
-        <v>1546</v>
+        <v>1532.1</v>
       </c>
     </row>
     <row r="19">
@@ -12975,7 +12978,7 @@
         <v>332.7</v>
       </c>
       <c r="GX19" t="n">
-        <v>347.5</v>
+        <v>355.4</v>
       </c>
     </row>
     <row r="20">
@@ -13595,7 +13598,7 @@
         <v>3835.2</v>
       </c>
       <c r="GX20" t="n">
-        <v>3946.5</v>
+        <v>3946.7</v>
       </c>
     </row>
     <row r="21">
@@ -14215,7 +14218,7 @@
         <v>1488.4</v>
       </c>
       <c r="GX21" t="n">
-        <v>1528.1</v>
+        <v>1528.4</v>
       </c>
     </row>
     <row r="22">
@@ -14835,7 +14838,7 @@
         <v>111.831</v>
       </c>
       <c r="GX22" t="n">
-        <v>112.86</v>
+        <v>112.857</v>
       </c>
     </row>
     <row r="23">
@@ -15455,7 +15458,7 @@
         <v>1493.4</v>
       </c>
       <c r="GX23" t="n">
-        <v>1557.2</v>
+        <v>1557.1</v>
       </c>
     </row>
     <row r="24">
@@ -16075,7 +16078,7 @@
         <v>2341.7</v>
       </c>
       <c r="GX24" t="n">
-        <v>2389.4</v>
+        <v>2389.6</v>
       </c>
     </row>
     <row r="25">
@@ -16695,7 +16698,7 @@
         <v>1332.2</v>
       </c>
       <c r="GX25" t="n">
-        <v>1376.2</v>
+        <v>1375.9</v>
       </c>
     </row>
     <row r="26">
@@ -17935,7 +17938,7 @@
         <v>1745.6</v>
       </c>
       <c r="GX27" t="n">
-        <v>1757.8</v>
+        <v>1758.2</v>
       </c>
     </row>
     <row r="28">
@@ -18555,7 +18558,7 @@
         <v>150.8</v>
       </c>
       <c r="GX28" t="n">
-        <v>159.8</v>
+        <v>159.9</v>
       </c>
     </row>
     <row r="29">
@@ -19175,7 +19178,7 @@
         <v>236.9</v>
       </c>
       <c r="GX29" t="n">
-        <v>250.9</v>
+        <v>254.1</v>
       </c>
     </row>
     <row r="30">
@@ -19795,7 +19798,7 @@
         <v>1466.6</v>
       </c>
       <c r="GX30" t="n">
-        <v>1504.1</v>
+        <v>1504.4</v>
       </c>
     </row>
     <row r="31">
@@ -20415,7 +20418,7 @@
         <v>2918.2</v>
       </c>
       <c r="GX31" t="n">
-        <v>5163.2</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="32">
@@ -21035,7 +21038,7 @@
         <v>738.1</v>
       </c>
       <c r="GX32" t="n">
-        <v>785.6</v>
+        <v>786.5</v>
       </c>
     </row>
     <row r="33">
@@ -21655,7 +21658,7 @@
         <v>524.5</v>
       </c>
       <c r="GX33" t="n">
-        <v>555</v>
+        <v>555.9</v>
       </c>
     </row>
     <row r="34">
@@ -22275,7 +22278,7 @@
         <v>1360.8</v>
       </c>
       <c r="GX34" t="n">
-        <v>1386.2</v>
+        <v>1372.1</v>
       </c>
     </row>
     <row r="35">
@@ -22895,7 +22898,7 @@
         <v>95.9</v>
       </c>
       <c r="GX35" t="n">
-        <v>96.6</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="36">
@@ -24135,7 +24138,7 @@
         <v>827.6</v>
       </c>
       <c r="GX37" t="n">
-        <v>840.3</v>
+        <v>846</v>
       </c>
     </row>
     <row r="38">
@@ -24755,7 +24758,7 @@
         <v>3165.4</v>
       </c>
       <c r="GX38" t="n">
-        <v>3219.3</v>
+        <v>3225.2</v>
       </c>
     </row>
     <row r="39">
@@ -25191,7 +25194,7 @@
         <v>547.131</v>
       </c>
       <c r="GX39" t="n">
-        <v>561.511</v>
+        <v>562.104</v>
       </c>
     </row>
     <row r="40">
@@ -33080,10 +33083,10 @@
         <v>87.9</v>
       </c>
       <c r="GW65" t="n">
-        <v>87</v>
+        <v>86.2</v>
       </c>
       <c r="GX65" t="n">
-        <v>295.1</v>
+        <v>290.7</v>
       </c>
     </row>
     <row r="66">
@@ -33703,7 +33706,7 @@
         <v>133.139</v>
       </c>
       <c r="GX66" t="n">
-        <v>148.855</v>
+        <v>148.813</v>
       </c>
     </row>
     <row r="67">
@@ -39283,7 +39286,7 @@
         <v>0.00506860626504335</v>
       </c>
       <c r="GX75" t="n">
-        <v>0.0104706550714504</v>
+        <v>0.010619236988157</v>
       </c>
     </row>
     <row r="76">
@@ -39903,7 +39906,7 @@
         <v>0.00362556200698183</v>
       </c>
       <c r="GX76" t="n">
-        <v>0.00920105512585523</v>
+        <v>0.00917422989225214</v>
       </c>
     </row>
     <row r="77">
@@ -40523,7 +40526,7 @@
         <v>0.0065455720865919</v>
       </c>
       <c r="GX77" t="n">
-        <v>0.0093486289272271</v>
+        <v>0.00948243563897178</v>
       </c>
     </row>
     <row r="78">
@@ -41143,7 +41146,7 @@
         <v>0.00716919470608879</v>
       </c>
       <c r="GX78" t="n">
-        <v>0.0182456021133639</v>
+        <v>0.0183305443950836</v>
       </c>
     </row>
     <row r="79">
@@ -41763,7 +41766,7 @@
         <v>0.00824441873419901</v>
       </c>
       <c r="GX79" t="n">
-        <v>0.0192015096007547</v>
+        <v>0.0192440096220048</v>
       </c>
     </row>
     <row r="80">
@@ -42383,7 +42386,627 @@
         <v>0.00270006368074727</v>
       </c>
       <c r="GX80" t="n">
-        <v>0.0142260760586994</v>
+        <v>0.0145309205456716</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>285</v>
+      </c>
+      <c r="B81" t="n">
+        <v>27.088</v>
+      </c>
+      <c r="C81" t="n">
+        <v>34.148</v>
+      </c>
+      <c r="D81" t="n">
+        <v>31.952</v>
+      </c>
+      <c r="E81" t="n">
+        <v>32.332</v>
+      </c>
+      <c r="F81" t="n">
+        <v>32.82</v>
+      </c>
+      <c r="G81" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="H81" t="n">
+        <v>37.216</v>
+      </c>
+      <c r="I81" t="n">
+        <v>37.732</v>
+      </c>
+      <c r="J81" t="n">
+        <v>38.284</v>
+      </c>
+      <c r="K81" t="n">
+        <v>38.748</v>
+      </c>
+      <c r="L81" t="n">
+        <v>39.284</v>
+      </c>
+      <c r="M81" t="n">
+        <v>47.476</v>
+      </c>
+      <c r="N81" t="n">
+        <v>49.096</v>
+      </c>
+      <c r="O81" t="n">
+        <v>50.332</v>
+      </c>
+      <c r="P81" t="n">
+        <v>51.216</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>52.016</v>
+      </c>
+      <c r="R81" t="n">
+        <v>52.464</v>
+      </c>
+      <c r="S81" t="n">
+        <v>56.916</v>
+      </c>
+      <c r="T81" t="n">
+        <v>59.804</v>
+      </c>
+      <c r="U81" t="n">
+        <v>61.244</v>
+      </c>
+      <c r="V81" t="n">
+        <v>62</v>
+      </c>
+      <c r="W81" t="n">
+        <v>62.888</v>
+      </c>
+      <c r="X81" t="n">
+        <v>69.012</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>69.68</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>70.96</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>71.416</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>76.996</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>78.632</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>79.228</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>80.364</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>86.256</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>87.108</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>87.776</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>87.912</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>94.276</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>95.556</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>96.528</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>97.848</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>107.624</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>108.324</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>109.348</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>109.988</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>126.932</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>128.076</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>130.716</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>131.096</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>146.284</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>146.48</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>146.772</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>147.528</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>157.636</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>162.896</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>162.144</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>164.008</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>163.98</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>167.572</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>170.936</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>172.68</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>172.444</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>176.048</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>181.54</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>181.976</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>185.252</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>184.332</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>192.104</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>195.88</v>
+      </c>
+      <c r="BQ81" t="n">
+        <v>195.44</v>
+      </c>
+      <c r="BR81" t="n">
+        <v>198.912</v>
+      </c>
+      <c r="BS81" t="n">
+        <v>201.652</v>
+      </c>
+      <c r="BT81" t="n">
+        <v>201.436</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>201.98</v>
+      </c>
+      <c r="BV81" t="n">
+        <v>213.484</v>
+      </c>
+      <c r="BW81" t="n">
+        <v>213.536</v>
+      </c>
+      <c r="BX81" t="n">
+        <v>214.156</v>
+      </c>
+      <c r="BY81" t="n">
+        <v>214.488</v>
+      </c>
+      <c r="BZ81" t="n">
+        <v>225.904</v>
+      </c>
+      <c r="CA81" t="n">
+        <v>226.768</v>
+      </c>
+      <c r="CB81" t="n">
+        <v>227.804</v>
+      </c>
+      <c r="CC81" t="n">
+        <v>229.044</v>
+      </c>
+      <c r="CD81" t="n">
+        <v>241.024</v>
+      </c>
+      <c r="CE81" t="n">
+        <v>243.792</v>
+      </c>
+      <c r="CF81" t="n">
+        <v>244.712</v>
+      </c>
+      <c r="CG81" t="n">
+        <v>247.012</v>
+      </c>
+      <c r="CH81" t="n">
+        <v>261.292</v>
+      </c>
+      <c r="CI81" t="n">
+        <v>263.62</v>
+      </c>
+      <c r="CJ81" t="n">
+        <v>265.076</v>
+      </c>
+      <c r="CK81" t="n">
+        <v>266.828</v>
+      </c>
+      <c r="CL81" t="n">
+        <v>278.568</v>
+      </c>
+      <c r="CM81" t="n">
+        <v>281.744</v>
+      </c>
+      <c r="CN81" t="n">
+        <v>282.848</v>
+      </c>
+      <c r="CO81" t="n">
+        <v>283.944</v>
+      </c>
+      <c r="CP81" t="n">
+        <v>295.568</v>
+      </c>
+      <c r="CQ81" t="n">
+        <v>297.064</v>
+      </c>
+      <c r="CR81" t="n">
+        <v>298.552</v>
+      </c>
+      <c r="CS81" t="n">
+        <v>300.556</v>
+      </c>
+      <c r="CT81" t="n">
+        <v>308.8</v>
+      </c>
+      <c r="CU81" t="n">
+        <v>311.776</v>
+      </c>
+      <c r="CV81" t="n">
+        <v>312.956</v>
+      </c>
+      <c r="CW81" t="n">
+        <v>315.112</v>
+      </c>
+      <c r="CX81" t="n">
+        <v>324.784</v>
+      </c>
+      <c r="CY81" t="n">
+        <v>327.504</v>
+      </c>
+      <c r="CZ81" t="n">
+        <v>328.632</v>
+      </c>
+      <c r="DA81" t="n">
+        <v>329.78</v>
+      </c>
+      <c r="DB81" t="n">
+        <v>339.1</v>
+      </c>
+      <c r="DC81" t="n">
+        <v>341.412</v>
+      </c>
+      <c r="DD81" t="n">
+        <v>342.632</v>
+      </c>
+      <c r="DE81" t="n">
+        <v>344.876</v>
+      </c>
+      <c r="DF81" t="n">
+        <v>353.92</v>
+      </c>
+      <c r="DG81" t="n">
+        <v>355.872</v>
+      </c>
+      <c r="DH81" t="n">
+        <v>357.524</v>
+      </c>
+      <c r="DI81" t="n">
+        <v>359.052</v>
+      </c>
+      <c r="DJ81" t="n">
+        <v>366.632</v>
+      </c>
+      <c r="DK81" t="n">
+        <v>368.208</v>
+      </c>
+      <c r="DL81" t="n">
+        <v>370.704</v>
+      </c>
+      <c r="DM81" t="n">
+        <v>371.184</v>
+      </c>
+      <c r="DN81" t="n">
+        <v>376.964</v>
+      </c>
+      <c r="DO81" t="n">
+        <v>378.944</v>
+      </c>
+      <c r="DP81" t="n">
+        <v>380.8</v>
+      </c>
+      <c r="DQ81" t="n">
+        <v>382.748</v>
+      </c>
+      <c r="DR81" t="n">
+        <v>392.512</v>
+      </c>
+      <c r="DS81" t="n">
+        <v>404.664</v>
+      </c>
+      <c r="DT81" t="n">
+        <v>403.872</v>
+      </c>
+      <c r="DU81" t="n">
+        <v>404.524</v>
+      </c>
+      <c r="DV81" t="n">
+        <v>420.812</v>
+      </c>
+      <c r="DW81" t="n">
+        <v>422.668</v>
+      </c>
+      <c r="DX81" t="n">
+        <v>428.384</v>
+      </c>
+      <c r="DY81" t="n">
+        <v>428.472</v>
+      </c>
+      <c r="DZ81" t="n">
+        <v>442.872</v>
+      </c>
+      <c r="EA81" t="n">
+        <v>445.487</v>
+      </c>
+      <c r="EB81" t="n">
+        <v>448.08</v>
+      </c>
+      <c r="EC81" t="n">
+        <v>451.196</v>
+      </c>
+      <c r="ED81" t="n">
+        <v>458.142</v>
+      </c>
+      <c r="EE81" t="n">
+        <v>463.083</v>
+      </c>
+      <c r="EF81" t="n">
+        <v>464.765</v>
+      </c>
+      <c r="EG81" t="n">
+        <v>468.133</v>
+      </c>
+      <c r="EH81" t="n">
+        <v>479.685</v>
+      </c>
+      <c r="EI81" t="n">
+        <v>484.798</v>
+      </c>
+      <c r="EJ81" t="n">
+        <v>486.184</v>
+      </c>
+      <c r="EK81" t="n">
+        <v>491.38</v>
+      </c>
+      <c r="EL81" t="n">
+        <v>506.486</v>
+      </c>
+      <c r="EM81" t="n">
+        <v>512.872</v>
+      </c>
+      <c r="EN81" t="n">
+        <v>514.043</v>
+      </c>
+      <c r="EO81" t="n">
+        <v>517.512</v>
+      </c>
+      <c r="EP81" t="n">
+        <v>538.042</v>
+      </c>
+      <c r="EQ81" t="n">
+        <v>543.66</v>
+      </c>
+      <c r="ER81" t="n">
+        <v>546.105</v>
+      </c>
+      <c r="ES81" t="n">
+        <v>548.576</v>
+      </c>
+      <c r="ET81" t="n">
+        <v>568.277</v>
+      </c>
+      <c r="EU81" t="n">
+        <v>575.021</v>
+      </c>
+      <c r="EV81" t="n">
+        <v>578.227</v>
+      </c>
+      <c r="EW81" t="n">
+        <v>581.089</v>
+      </c>
+      <c r="EX81" t="n">
+        <v>597.326</v>
+      </c>
+      <c r="EY81" t="n">
+        <v>602.859</v>
+      </c>
+      <c r="EZ81" t="n">
+        <v>608.868</v>
+      </c>
+      <c r="FA81" t="n">
+        <v>613.115</v>
+      </c>
+      <c r="FB81" t="n">
+        <v>651.871</v>
+      </c>
+      <c r="FC81" t="n">
+        <v>662.422</v>
+      </c>
+      <c r="FD81" t="n">
+        <v>667.932</v>
+      </c>
+      <c r="FE81" t="n">
+        <v>675.654</v>
+      </c>
+      <c r="FF81" t="n">
+        <v>678.854</v>
+      </c>
+      <c r="FG81" t="n">
+        <v>689.251</v>
+      </c>
+      <c r="FH81" t="n">
+        <v>693.594</v>
+      </c>
+      <c r="FI81" t="n">
+        <v>698.996</v>
+      </c>
+      <c r="FJ81" t="n">
+        <v>703.143</v>
+      </c>
+      <c r="FK81" t="n">
+        <v>712.039</v>
+      </c>
+      <c r="FL81" t="n">
+        <v>716.021</v>
+      </c>
+      <c r="FM81" t="n">
+        <v>721.84</v>
+      </c>
+      <c r="FN81" t="n">
+        <v>753.212</v>
+      </c>
+      <c r="FO81" t="n">
+        <v>759.41</v>
+      </c>
+      <c r="FP81" t="n">
+        <v>765.124</v>
+      </c>
+      <c r="FQ81" t="n">
+        <v>770.811</v>
+      </c>
+      <c r="FR81" t="n">
+        <v>789.992</v>
+      </c>
+      <c r="FS81" t="n">
+        <v>795.24</v>
+      </c>
+      <c r="FT81" t="n">
+        <v>802.336</v>
+      </c>
+      <c r="FU81" t="n">
+        <v>808.608</v>
+      </c>
+      <c r="FV81" t="n">
+        <v>824.825</v>
+      </c>
+      <c r="FW81" t="n">
+        <v>831.664</v>
+      </c>
+      <c r="FX81" t="n">
+        <v>836.478</v>
+      </c>
+      <c r="FY81" t="n">
+        <v>845.592</v>
+      </c>
+      <c r="FZ81" t="n">
+        <v>861.827</v>
+      </c>
+      <c r="GA81" t="n">
+        <v>868.501</v>
+      </c>
+      <c r="GB81" t="n">
+        <v>873.921</v>
+      </c>
+      <c r="GC81" t="n">
+        <v>882.925</v>
+      </c>
+      <c r="GD81" t="n">
+        <v>885.911</v>
+      </c>
+      <c r="GE81" t="n">
+        <v>893.335</v>
+      </c>
+      <c r="GF81" t="n">
+        <v>899.375</v>
+      </c>
+      <c r="GG81" t="n">
+        <v>907.264</v>
+      </c>
+      <c r="GH81" t="n">
+        <v>916.451</v>
+      </c>
+      <c r="GI81" t="n">
+        <v>922.024</v>
+      </c>
+      <c r="GJ81" t="n">
+        <v>929.049</v>
+      </c>
+      <c r="GK81" t="n">
+        <v>936.762</v>
+      </c>
+      <c r="GL81" t="n">
+        <v>960.699</v>
+      </c>
+      <c r="GM81" t="n">
+        <v>968.29</v>
+      </c>
+      <c r="GN81" t="n">
+        <v>976.531</v>
+      </c>
+      <c r="GO81" t="n">
+        <v>984.128</v>
+      </c>
+      <c r="GP81" t="n">
+        <v>1018.942</v>
+      </c>
+      <c r="GQ81" t="n">
+        <v>1026.708</v>
+      </c>
+      <c r="GR81" t="n">
+        <v>1034.273</v>
+      </c>
+      <c r="GS81" t="n">
+        <v>1043.049</v>
+      </c>
+      <c r="GT81" t="n">
+        <v>1068.472</v>
+      </c>
+      <c r="GU81" t="n">
+        <v>1075.42</v>
+      </c>
+      <c r="GV81" t="n">
+        <v>1080.666</v>
+      </c>
+      <c r="GW81" t="n">
+        <v>1089.577</v>
+      </c>
+      <c r="GX81" t="n">
+        <v>1107.533</v>
       </c>
     </row>
   </sheetData>

--- a/data/haver_pivoted.xlsx
+++ b/data/haver_pivoted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -868,9 +868,6 @@
   <si>
     <t xml:space="preserve">jgsi_growth</t>
   </si>
-  <si>
-    <t xml:space="preserve">gftfbdx</t>
-  </si>
 </sst>
 </file>
 
@@ -42389,626 +42386,6 @@
         <v>0.0145309205456716</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>285</v>
-      </c>
-      <c r="B81" t="n">
-        <v>27.088</v>
-      </c>
-      <c r="C81" t="n">
-        <v>34.148</v>
-      </c>
-      <c r="D81" t="n">
-        <v>31.952</v>
-      </c>
-      <c r="E81" t="n">
-        <v>32.332</v>
-      </c>
-      <c r="F81" t="n">
-        <v>32.82</v>
-      </c>
-      <c r="G81" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="H81" t="n">
-        <v>37.216</v>
-      </c>
-      <c r="I81" t="n">
-        <v>37.732</v>
-      </c>
-      <c r="J81" t="n">
-        <v>38.284</v>
-      </c>
-      <c r="K81" t="n">
-        <v>38.748</v>
-      </c>
-      <c r="L81" t="n">
-        <v>39.284</v>
-      </c>
-      <c r="M81" t="n">
-        <v>47.476</v>
-      </c>
-      <c r="N81" t="n">
-        <v>49.096</v>
-      </c>
-      <c r="O81" t="n">
-        <v>50.332</v>
-      </c>
-      <c r="P81" t="n">
-        <v>51.216</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>52.016</v>
-      </c>
-      <c r="R81" t="n">
-        <v>52.464</v>
-      </c>
-      <c r="S81" t="n">
-        <v>56.916</v>
-      </c>
-      <c r="T81" t="n">
-        <v>59.804</v>
-      </c>
-      <c r="U81" t="n">
-        <v>61.244</v>
-      </c>
-      <c r="V81" t="n">
-        <v>62</v>
-      </c>
-      <c r="W81" t="n">
-        <v>62.888</v>
-      </c>
-      <c r="X81" t="n">
-        <v>69.012</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>69.68</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>70.96</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>71.416</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>76.996</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>78.632</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>79.228</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>80.364</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>86.256</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>87.108</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>87.776</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>87.912</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>94.276</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>95.556</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>96.528</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>97.848</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>107.624</v>
-      </c>
-      <c r="AO81" t="n">
-        <v>108.324</v>
-      </c>
-      <c r="AP81" t="n">
-        <v>109.348</v>
-      </c>
-      <c r="AQ81" t="n">
-        <v>109.988</v>
-      </c>
-      <c r="AR81" t="n">
-        <v>126.932</v>
-      </c>
-      <c r="AS81" t="n">
-        <v>128.076</v>
-      </c>
-      <c r="AT81" t="n">
-        <v>130.716</v>
-      </c>
-      <c r="AU81" t="n">
-        <v>131.096</v>
-      </c>
-      <c r="AV81" t="n">
-        <v>146.284</v>
-      </c>
-      <c r="AW81" t="n">
-        <v>146.48</v>
-      </c>
-      <c r="AX81" t="n">
-        <v>146.772</v>
-      </c>
-      <c r="AY81" t="n">
-        <v>147.528</v>
-      </c>
-      <c r="AZ81" t="n">
-        <v>157.636</v>
-      </c>
-      <c r="BA81" t="n">
-        <v>162.896</v>
-      </c>
-      <c r="BB81" t="n">
-        <v>162.144</v>
-      </c>
-      <c r="BC81" t="n">
-        <v>164.008</v>
-      </c>
-      <c r="BD81" t="n">
-        <v>163.98</v>
-      </c>
-      <c r="BE81" t="n">
-        <v>167.572</v>
-      </c>
-      <c r="BF81" t="n">
-        <v>170.936</v>
-      </c>
-      <c r="BG81" t="n">
-        <v>172.68</v>
-      </c>
-      <c r="BH81" t="n">
-        <v>172.444</v>
-      </c>
-      <c r="BI81" t="n">
-        <v>176.048</v>
-      </c>
-      <c r="BJ81" t="n">
-        <v>181.54</v>
-      </c>
-      <c r="BK81" t="n">
-        <v>181.976</v>
-      </c>
-      <c r="BL81" t="n">
-        <v>185.252</v>
-      </c>
-      <c r="BM81" t="n">
-        <v>184.332</v>
-      </c>
-      <c r="BN81" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="BO81" t="n">
-        <v>192.104</v>
-      </c>
-      <c r="BP81" t="n">
-        <v>195.88</v>
-      </c>
-      <c r="BQ81" t="n">
-        <v>195.44</v>
-      </c>
-      <c r="BR81" t="n">
-        <v>198.912</v>
-      </c>
-      <c r="BS81" t="n">
-        <v>201.652</v>
-      </c>
-      <c r="BT81" t="n">
-        <v>201.436</v>
-      </c>
-      <c r="BU81" t="n">
-        <v>201.98</v>
-      </c>
-      <c r="BV81" t="n">
-        <v>213.484</v>
-      </c>
-      <c r="BW81" t="n">
-        <v>213.536</v>
-      </c>
-      <c r="BX81" t="n">
-        <v>214.156</v>
-      </c>
-      <c r="BY81" t="n">
-        <v>214.488</v>
-      </c>
-      <c r="BZ81" t="n">
-        <v>225.904</v>
-      </c>
-      <c r="CA81" t="n">
-        <v>226.768</v>
-      </c>
-      <c r="CB81" t="n">
-        <v>227.804</v>
-      </c>
-      <c r="CC81" t="n">
-        <v>229.044</v>
-      </c>
-      <c r="CD81" t="n">
-        <v>241.024</v>
-      </c>
-      <c r="CE81" t="n">
-        <v>243.792</v>
-      </c>
-      <c r="CF81" t="n">
-        <v>244.712</v>
-      </c>
-      <c r="CG81" t="n">
-        <v>247.012</v>
-      </c>
-      <c r="CH81" t="n">
-        <v>261.292</v>
-      </c>
-      <c r="CI81" t="n">
-        <v>263.62</v>
-      </c>
-      <c r="CJ81" t="n">
-        <v>265.076</v>
-      </c>
-      <c r="CK81" t="n">
-        <v>266.828</v>
-      </c>
-      <c r="CL81" t="n">
-        <v>278.568</v>
-      </c>
-      <c r="CM81" t="n">
-        <v>281.744</v>
-      </c>
-      <c r="CN81" t="n">
-        <v>282.848</v>
-      </c>
-      <c r="CO81" t="n">
-        <v>283.944</v>
-      </c>
-      <c r="CP81" t="n">
-        <v>295.568</v>
-      </c>
-      <c r="CQ81" t="n">
-        <v>297.064</v>
-      </c>
-      <c r="CR81" t="n">
-        <v>298.552</v>
-      </c>
-      <c r="CS81" t="n">
-        <v>300.556</v>
-      </c>
-      <c r="CT81" t="n">
-        <v>308.8</v>
-      </c>
-      <c r="CU81" t="n">
-        <v>311.776</v>
-      </c>
-      <c r="CV81" t="n">
-        <v>312.956</v>
-      </c>
-      <c r="CW81" t="n">
-        <v>315.112</v>
-      </c>
-      <c r="CX81" t="n">
-        <v>324.784</v>
-      </c>
-      <c r="CY81" t="n">
-        <v>327.504</v>
-      </c>
-      <c r="CZ81" t="n">
-        <v>328.632</v>
-      </c>
-      <c r="DA81" t="n">
-        <v>329.78</v>
-      </c>
-      <c r="DB81" t="n">
-        <v>339.1</v>
-      </c>
-      <c r="DC81" t="n">
-        <v>341.412</v>
-      </c>
-      <c r="DD81" t="n">
-        <v>342.632</v>
-      </c>
-      <c r="DE81" t="n">
-        <v>344.876</v>
-      </c>
-      <c r="DF81" t="n">
-        <v>353.92</v>
-      </c>
-      <c r="DG81" t="n">
-        <v>355.872</v>
-      </c>
-      <c r="DH81" t="n">
-        <v>357.524</v>
-      </c>
-      <c r="DI81" t="n">
-        <v>359.052</v>
-      </c>
-      <c r="DJ81" t="n">
-        <v>366.632</v>
-      </c>
-      <c r="DK81" t="n">
-        <v>368.208</v>
-      </c>
-      <c r="DL81" t="n">
-        <v>370.704</v>
-      </c>
-      <c r="DM81" t="n">
-        <v>371.184</v>
-      </c>
-      <c r="DN81" t="n">
-        <v>376.964</v>
-      </c>
-      <c r="DO81" t="n">
-        <v>378.944</v>
-      </c>
-      <c r="DP81" t="n">
-        <v>380.8</v>
-      </c>
-      <c r="DQ81" t="n">
-        <v>382.748</v>
-      </c>
-      <c r="DR81" t="n">
-        <v>392.512</v>
-      </c>
-      <c r="DS81" t="n">
-        <v>404.664</v>
-      </c>
-      <c r="DT81" t="n">
-        <v>403.872</v>
-      </c>
-      <c r="DU81" t="n">
-        <v>404.524</v>
-      </c>
-      <c r="DV81" t="n">
-        <v>420.812</v>
-      </c>
-      <c r="DW81" t="n">
-        <v>422.668</v>
-      </c>
-      <c r="DX81" t="n">
-        <v>428.384</v>
-      </c>
-      <c r="DY81" t="n">
-        <v>428.472</v>
-      </c>
-      <c r="DZ81" t="n">
-        <v>442.872</v>
-      </c>
-      <c r="EA81" t="n">
-        <v>445.487</v>
-      </c>
-      <c r="EB81" t="n">
-        <v>448.08</v>
-      </c>
-      <c r="EC81" t="n">
-        <v>451.196</v>
-      </c>
-      <c r="ED81" t="n">
-        <v>458.142</v>
-      </c>
-      <c r="EE81" t="n">
-        <v>463.083</v>
-      </c>
-      <c r="EF81" t="n">
-        <v>464.765</v>
-      </c>
-      <c r="EG81" t="n">
-        <v>468.133</v>
-      </c>
-      <c r="EH81" t="n">
-        <v>479.685</v>
-      </c>
-      <c r="EI81" t="n">
-        <v>484.798</v>
-      </c>
-      <c r="EJ81" t="n">
-        <v>486.184</v>
-      </c>
-      <c r="EK81" t="n">
-        <v>491.38</v>
-      </c>
-      <c r="EL81" t="n">
-        <v>506.486</v>
-      </c>
-      <c r="EM81" t="n">
-        <v>512.872</v>
-      </c>
-      <c r="EN81" t="n">
-        <v>514.043</v>
-      </c>
-      <c r="EO81" t="n">
-        <v>517.512</v>
-      </c>
-      <c r="EP81" t="n">
-        <v>538.042</v>
-      </c>
-      <c r="EQ81" t="n">
-        <v>543.66</v>
-      </c>
-      <c r="ER81" t="n">
-        <v>546.105</v>
-      </c>
-      <c r="ES81" t="n">
-        <v>548.576</v>
-      </c>
-      <c r="ET81" t="n">
-        <v>568.277</v>
-      </c>
-      <c r="EU81" t="n">
-        <v>575.021</v>
-      </c>
-      <c r="EV81" t="n">
-        <v>578.227</v>
-      </c>
-      <c r="EW81" t="n">
-        <v>581.089</v>
-      </c>
-      <c r="EX81" t="n">
-        <v>597.326</v>
-      </c>
-      <c r="EY81" t="n">
-        <v>602.859</v>
-      </c>
-      <c r="EZ81" t="n">
-        <v>608.868</v>
-      </c>
-      <c r="FA81" t="n">
-        <v>613.115</v>
-      </c>
-      <c r="FB81" t="n">
-        <v>651.871</v>
-      </c>
-      <c r="FC81" t="n">
-        <v>662.422</v>
-      </c>
-      <c r="FD81" t="n">
-        <v>667.932</v>
-      </c>
-      <c r="FE81" t="n">
-        <v>675.654</v>
-      </c>
-      <c r="FF81" t="n">
-        <v>678.854</v>
-      </c>
-      <c r="FG81" t="n">
-        <v>689.251</v>
-      </c>
-      <c r="FH81" t="n">
-        <v>693.594</v>
-      </c>
-      <c r="FI81" t="n">
-        <v>698.996</v>
-      </c>
-      <c r="FJ81" t="n">
-        <v>703.143</v>
-      </c>
-      <c r="FK81" t="n">
-        <v>712.039</v>
-      </c>
-      <c r="FL81" t="n">
-        <v>716.021</v>
-      </c>
-      <c r="FM81" t="n">
-        <v>721.84</v>
-      </c>
-      <c r="FN81" t="n">
-        <v>753.212</v>
-      </c>
-      <c r="FO81" t="n">
-        <v>759.41</v>
-      </c>
-      <c r="FP81" t="n">
-        <v>765.124</v>
-      </c>
-      <c r="FQ81" t="n">
-        <v>770.811</v>
-      </c>
-      <c r="FR81" t="n">
-        <v>789.992</v>
-      </c>
-      <c r="FS81" t="n">
-        <v>795.24</v>
-      </c>
-      <c r="FT81" t="n">
-        <v>802.336</v>
-      </c>
-      <c r="FU81" t="n">
-        <v>808.608</v>
-      </c>
-      <c r="FV81" t="n">
-        <v>824.825</v>
-      </c>
-      <c r="FW81" t="n">
-        <v>831.664</v>
-      </c>
-      <c r="FX81" t="n">
-        <v>836.478</v>
-      </c>
-      <c r="FY81" t="n">
-        <v>845.592</v>
-      </c>
-      <c r="FZ81" t="n">
-        <v>861.827</v>
-      </c>
-      <c r="GA81" t="n">
-        <v>868.501</v>
-      </c>
-      <c r="GB81" t="n">
-        <v>873.921</v>
-      </c>
-      <c r="GC81" t="n">
-        <v>882.925</v>
-      </c>
-      <c r="GD81" t="n">
-        <v>885.911</v>
-      </c>
-      <c r="GE81" t="n">
-        <v>893.335</v>
-      </c>
-      <c r="GF81" t="n">
-        <v>899.375</v>
-      </c>
-      <c r="GG81" t="n">
-        <v>907.264</v>
-      </c>
-      <c r="GH81" t="n">
-        <v>916.451</v>
-      </c>
-      <c r="GI81" t="n">
-        <v>922.024</v>
-      </c>
-      <c r="GJ81" t="n">
-        <v>929.049</v>
-      </c>
-      <c r="GK81" t="n">
-        <v>936.762</v>
-      </c>
-      <c r="GL81" t="n">
-        <v>960.699</v>
-      </c>
-      <c r="GM81" t="n">
-        <v>968.29</v>
-      </c>
-      <c r="GN81" t="n">
-        <v>976.531</v>
-      </c>
-      <c r="GO81" t="n">
-        <v>984.128</v>
-      </c>
-      <c r="GP81" t="n">
-        <v>1018.942</v>
-      </c>
-      <c r="GQ81" t="n">
-        <v>1026.708</v>
-      </c>
-      <c r="GR81" t="n">
-        <v>1034.273</v>
-      </c>
-      <c r="GS81" t="n">
-        <v>1043.049</v>
-      </c>
-      <c r="GT81" t="n">
-        <v>1068.472</v>
-      </c>
-      <c r="GU81" t="n">
-        <v>1075.42</v>
-      </c>
-      <c r="GV81" t="n">
-        <v>1080.666</v>
-      </c>
-      <c r="GW81" t="n">
-        <v>1089.577</v>
-      </c>
-      <c r="GX81" t="n">
-        <v>1107.533</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/haver_pivoted.xlsx
+++ b/data/haver_pivoted.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -875,7 +875,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -1194,10 +1194,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>

--- a/data/haver_pivoted.xlsx
+++ b/data/haver_pivoted.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -875,7 +875,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -1194,10 +1194,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2444,7 +2444,7 @@
         <v>22038.2</v>
       </c>
       <c r="GY2" t="n">
-        <v>22722.6</v>
+        <v>22731.4</v>
       </c>
     </row>
     <row r="3">
@@ -3067,7 +3067,7 @@
         <v>19055.7</v>
       </c>
       <c r="GY3" t="n">
-        <v>19358.2</v>
+        <v>19360.6</v>
       </c>
     </row>
     <row r="4">
@@ -3690,7 +3690,7 @@
         <v>115.826</v>
       </c>
       <c r="GY4" t="n">
-        <v>117.519</v>
+        <v>117.547</v>
       </c>
     </row>
     <row r="5">
@@ -4313,7 +4313,7 @@
         <v>15005.4</v>
       </c>
       <c r="GY5" t="n">
-        <v>15672.6</v>
+        <v>15675.9</v>
       </c>
     </row>
     <row r="6">
@@ -4936,7 +4936,7 @@
         <v>13282.7</v>
       </c>
       <c r="GY6" t="n">
-        <v>13659.3</v>
+        <v>13660.2</v>
       </c>
     </row>
     <row r="7">
@@ -5559,7 +5559,7 @@
         <v>112.989</v>
       </c>
       <c r="GY7" t="n">
-        <v>114.758</v>
+        <v>114.775</v>
       </c>
     </row>
     <row r="8">
@@ -6182,7 +6182,7 @@
         <v>114.065</v>
       </c>
       <c r="GY8" t="n">
-        <v>115.176</v>
+        <v>115.19</v>
       </c>
     </row>
     <row r="9">
@@ -6805,7 +6805,7 @@
         <v>119.416</v>
       </c>
       <c r="GY9" t="n">
-        <v>121.48</v>
+        <v>121.509</v>
       </c>
     </row>
     <row r="10">
@@ -7428,7 +7428,7 @@
         <v>119.419</v>
       </c>
       <c r="GY10" t="n">
-        <v>121.38</v>
+        <v>121.397</v>
       </c>
     </row>
     <row r="11">
@@ -8051,7 +8051,7 @@
         <v>119.416</v>
       </c>
       <c r="GY11" t="n">
-        <v>121.95</v>
+        <v>122.035</v>
       </c>
     </row>
     <row r="12">
@@ -9297,7 +9297,7 @@
         <v>695.9</v>
       </c>
       <c r="GY13" t="n">
-        <v>712.9</v>
+        <v>735.5</v>
       </c>
     </row>
     <row r="14">
@@ -9920,7 +9920,7 @@
         <v>565.8</v>
       </c>
       <c r="GY14" t="n">
-        <v>482.1</v>
+        <v>480.5</v>
       </c>
     </row>
     <row r="15">
@@ -10543,7 +10543,7 @@
         <v>5920.6</v>
       </c>
       <c r="GY15" t="n">
-        <v>4237.1</v>
+        <v>4257.9</v>
       </c>
     </row>
     <row r="16">
@@ -11166,7 +11166,7 @@
         <v>115.3</v>
       </c>
       <c r="GY16" t="n">
-        <v>115.8</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17">
@@ -11786,10 +11786,10 @@
         <v>2259.8</v>
       </c>
       <c r="GX17" t="n">
-        <v>2318.7</v>
+        <v>2412.1</v>
       </c>
       <c r="GY17" t="n">
-        <v>2427.5</v>
+        <v>2550.4</v>
       </c>
     </row>
     <row r="18">
@@ -12412,7 +12412,7 @@
         <v>1580.1</v>
       </c>
       <c r="GY18" t="n">
-        <v>1640.6</v>
+        <v>1640.2</v>
       </c>
     </row>
     <row r="19">
@@ -13035,7 +13035,7 @@
         <v>331.9</v>
       </c>
       <c r="GY19" t="n">
-        <v>308.133333333333</v>
+        <v>351.7</v>
       </c>
     </row>
     <row r="20">
@@ -13658,7 +13658,7 @@
         <v>3977.3</v>
       </c>
       <c r="GY20" t="n">
-        <v>4018.9</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="21">
@@ -14281,7 +14281,7 @@
         <v>1539.2</v>
       </c>
       <c r="GY21" t="n">
-        <v>1562.7</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="22">
@@ -14904,7 +14904,7 @@
         <v>112.97</v>
       </c>
       <c r="GY22" t="n">
-        <v>114.739</v>
+        <v>114.756</v>
       </c>
     </row>
     <row r="23">
@@ -15527,7 +15527,7 @@
         <v>1568.6</v>
       </c>
       <c r="GY23" t="n">
-        <v>1563.6</v>
+        <v>1563.3</v>
       </c>
     </row>
     <row r="24">
@@ -16150,7 +16150,7 @@
         <v>2408.7</v>
       </c>
       <c r="GY24" t="n">
-        <v>2455.4</v>
+        <v>2452.7</v>
       </c>
     </row>
     <row r="25">
@@ -16773,7 +16773,7 @@
         <v>1375.2</v>
       </c>
       <c r="GY25" t="n">
-        <v>1357.6</v>
+        <v>1357.1</v>
       </c>
     </row>
     <row r="26">
@@ -17396,7 +17396,7 @@
         <v>2017.1</v>
       </c>
       <c r="GY26" t="n">
-        <v>2021.2</v>
+        <v>2018.5</v>
       </c>
     </row>
     <row r="27">
@@ -18016,10 +18016,10 @@
         <v>1736.9</v>
       </c>
       <c r="GX27" t="n">
-        <v>1758.6</v>
+        <v>1851.9</v>
       </c>
       <c r="GY27" t="n">
-        <v>1808.6</v>
+        <v>1927.2</v>
       </c>
     </row>
     <row r="28">
@@ -18642,7 +18642,7 @@
         <v>166.2</v>
       </c>
       <c r="GY28" t="n">
-        <v>177.2</v>
+        <v>177.6</v>
       </c>
     </row>
     <row r="29">
@@ -19265,7 +19265,7 @@
         <v>246.4</v>
       </c>
       <c r="GY29" t="n">
-        <v>227.733333333333</v>
+        <v>261.2</v>
       </c>
     </row>
     <row r="30">
@@ -19888,7 +19888,7 @@
         <v>1517.9</v>
       </c>
       <c r="GY30" t="n">
-        <v>1540.8</v>
+        <v>1542.1</v>
       </c>
     </row>
     <row r="31">
@@ -20511,7 +20511,7 @@
         <v>5070.6</v>
       </c>
       <c r="GY31" t="n">
-        <v>3369.2</v>
+        <v>3367.3</v>
       </c>
     </row>
     <row r="32">
@@ -21757,7 +21757,7 @@
         <v>560.2</v>
       </c>
       <c r="GY33" t="n">
-        <v>618.8</v>
+        <v>623.3</v>
       </c>
     </row>
     <row r="34">
@@ -22380,7 +22380,7 @@
         <v>1413.9</v>
       </c>
       <c r="GY34" t="n">
-        <v>1463.5</v>
+        <v>1462.6</v>
       </c>
     </row>
     <row r="35">
@@ -23003,7 +23003,7 @@
         <v>85.5</v>
       </c>
       <c r="GY35" t="n">
-        <v>80.3666666666667</v>
+        <v>90.6</v>
       </c>
     </row>
     <row r="36">
@@ -24249,7 +24249,7 @@
         <v>850</v>
       </c>
       <c r="GY37" t="n">
-        <v>867.9</v>
+        <v>890.5</v>
       </c>
     </row>
     <row r="38">
@@ -24872,7 +24872,7 @@
         <v>3260.6</v>
       </c>
       <c r="GY38" t="n">
-        <v>3323.2</v>
+        <v>3342.9</v>
       </c>
     </row>
     <row r="39">
@@ -26996,7 +26996,7 @@
         <v>403.8</v>
       </c>
       <c r="GY42" t="n">
-        <v>683.7</v>
+        <v>683.6</v>
       </c>
     </row>
     <row r="43">
@@ -28242,7 +28242,7 @@
         <v>406.3</v>
       </c>
       <c r="GY44" t="n">
-        <v>692.3</v>
+        <v>692.2</v>
       </c>
     </row>
     <row r="45">
@@ -31559,7 +31559,7 @@
         <v>97.8</v>
       </c>
       <c r="GY59" t="n">
-        <v>105.1</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="60">
@@ -31780,7 +31780,7 @@
         <v>95.3</v>
       </c>
       <c r="GY60" t="n">
-        <v>82.4</v>
+        <v>82.1</v>
       </c>
     </row>
     <row r="61">
@@ -32001,7 +32001,7 @@
         <v>286.9</v>
       </c>
       <c r="GY61" t="n">
-        <v>238</v>
+        <v>237.2</v>
       </c>
     </row>
     <row r="62">
@@ -32222,7 +32222,7 @@
         <v>505</v>
       </c>
       <c r="GY62" t="n">
-        <v>431.3</v>
+        <v>429.7</v>
       </c>
     </row>
     <row r="63">
@@ -33908,7 +33908,7 @@
         <v>109.653</v>
       </c>
       <c r="GY66" t="n">
-        <v>124.27</v>
+        <v>124.335</v>
       </c>
     </row>
     <row r="67">
@@ -37646,7 +37646,7 @@
         <v>4976.66666666667</v>
       </c>
       <c r="GY72" t="n">
-        <v>5031.33333333333</v>
+        <v>5025.66666666667</v>
       </c>
     </row>
     <row r="73">
@@ -38269,7 +38269,7 @@
         <v>13671.3333333333</v>
       </c>
       <c r="GY73" t="n">
-        <v>13778.3333333333</v>
+        <v>13773.6666666667</v>
       </c>
     </row>
     <row r="74">
@@ -38892,7 +38892,7 @@
         <v>322875.333333333</v>
       </c>
       <c r="GY74" t="n">
-        <v>324766.555555556</v>
+        <v>317911</v>
       </c>
     </row>
     <row r="75">
@@ -39515,7 +39515,7 @@
         <v>0.0106010766854838</v>
       </c>
       <c r="GY75" t="n">
-        <v>0.0146167527152798</v>
+        <v>0.0148584946385095</v>
       </c>
     </row>
     <row r="76">
@@ -40138,7 +40138,7 @@
         <v>0.00947930812665287</v>
       </c>
       <c r="GY76" t="n">
-        <v>0.0156563913301293</v>
+        <v>0.0158068484542744</v>
       </c>
     </row>
     <row r="77">
@@ -40761,7 +40761,7 @@
         <v>0.00979116316539619</v>
       </c>
       <c r="GY77" t="n">
-        <v>0.00974006049182496</v>
+        <v>0.00986279752772545</v>
       </c>
     </row>
     <row r="78">
@@ -41384,7 +41384,7 @@
         <v>0.0153472039180007</v>
       </c>
       <c r="GY78" t="n">
-        <v>0.0172841160313526</v>
+        <v>0.0175269645608629</v>
       </c>
     </row>
     <row r="79">
@@ -42007,7 +42007,7 @@
         <v>0.0155281351781142</v>
       </c>
       <c r="GY79" t="n">
-        <v>0.016421172510237</v>
+        <v>0.0165635284167511</v>
       </c>
     </row>
     <row r="80">
@@ -42630,7 +42630,7 @@
         <v>0.0145277216114725</v>
       </c>
       <c r="GY80" t="n">
-        <v>0.0212199370268642</v>
+        <v>0.021931734440946</v>
       </c>
     </row>
   </sheetData>

--- a/data/haver_pivoted.xlsx
+++ b/data/haver_pivoted.xlsx
@@ -2444,7 +2444,7 @@
         <v>22038.2</v>
       </c>
       <c r="GY2" t="n">
-        <v>22731.4</v>
+        <v>22741</v>
       </c>
     </row>
     <row r="3">
@@ -3067,7 +3067,7 @@
         <v>19055.7</v>
       </c>
       <c r="GY3" t="n">
-        <v>19360.6</v>
+        <v>19368.3</v>
       </c>
     </row>
     <row r="4">
@@ -3690,7 +3690,7 @@
         <v>115.826</v>
       </c>
       <c r="GY4" t="n">
-        <v>117.547</v>
+        <v>117.546</v>
       </c>
     </row>
     <row r="5">
@@ -4313,7 +4313,7 @@
         <v>15005.4</v>
       </c>
       <c r="GY5" t="n">
-        <v>15675.9</v>
+        <v>15681.7</v>
       </c>
     </row>
     <row r="6">
@@ -4936,7 +4936,7 @@
         <v>13282.7</v>
       </c>
       <c r="GY6" t="n">
-        <v>13660.2</v>
+        <v>13665.6</v>
       </c>
     </row>
     <row r="7">
@@ -5559,7 +5559,7 @@
         <v>112.989</v>
       </c>
       <c r="GY7" t="n">
-        <v>114.775</v>
+        <v>114.772</v>
       </c>
     </row>
     <row r="8">
@@ -6182,7 +6182,7 @@
         <v>114.065</v>
       </c>
       <c r="GY8" t="n">
-        <v>115.19</v>
+        <v>115.228</v>
       </c>
     </row>
     <row r="9">
@@ -6805,7 +6805,7 @@
         <v>119.416</v>
       </c>
       <c r="GY9" t="n">
-        <v>121.509</v>
+        <v>121.544</v>
       </c>
     </row>
     <row r="10">
@@ -7428,7 +7428,7 @@
         <v>119.419</v>
       </c>
       <c r="GY10" t="n">
-        <v>121.397</v>
+        <v>121.425</v>
       </c>
     </row>
     <row r="11">
@@ -8051,7 +8051,7 @@
         <v>119.416</v>
       </c>
       <c r="GY11" t="n">
-        <v>122.035</v>
+        <v>122.101</v>
       </c>
     </row>
     <row r="12">
@@ -9297,7 +9297,7 @@
         <v>695.9</v>
       </c>
       <c r="GY13" t="n">
-        <v>735.5</v>
+        <v>730.5</v>
       </c>
     </row>
     <row r="14">
@@ -9920,7 +9920,7 @@
         <v>565.8</v>
       </c>
       <c r="GY14" t="n">
-        <v>480.5</v>
+        <v>480.4</v>
       </c>
     </row>
     <row r="15">
@@ -10543,7 +10543,7 @@
         <v>5920.6</v>
       </c>
       <c r="GY15" t="n">
-        <v>4257.9</v>
+        <v>4257.8</v>
       </c>
     </row>
     <row r="16">
@@ -11789,7 +11789,7 @@
         <v>2412.1</v>
       </c>
       <c r="GY17" t="n">
-        <v>2550.4</v>
+        <v>2514.8</v>
       </c>
     </row>
     <row r="18">
@@ -12412,7 +12412,7 @@
         <v>1580.1</v>
       </c>
       <c r="GY18" t="n">
-        <v>1640.2</v>
+        <v>1636.3</v>
       </c>
     </row>
     <row r="19">
@@ -13035,7 +13035,7 @@
         <v>331.9</v>
       </c>
       <c r="GY19" t="n">
-        <v>351.7</v>
+        <v>366.9</v>
       </c>
     </row>
     <row r="20">
@@ -13658,7 +13658,7 @@
         <v>3977.3</v>
       </c>
       <c r="GY20" t="n">
-        <v>4016</v>
+        <v>4015.9</v>
       </c>
     </row>
     <row r="21">
@@ -14281,7 +14281,7 @@
         <v>1539.2</v>
       </c>
       <c r="GY21" t="n">
-        <v>1564</v>
+        <v>1564.2</v>
       </c>
     </row>
     <row r="22">
@@ -14904,7 +14904,7 @@
         <v>112.97</v>
       </c>
       <c r="GY22" t="n">
-        <v>114.756</v>
+        <v>114.753</v>
       </c>
     </row>
     <row r="23">
@@ -16150,7 +16150,7 @@
         <v>2408.7</v>
       </c>
       <c r="GY24" t="n">
-        <v>2452.7</v>
+        <v>2452.6</v>
       </c>
     </row>
     <row r="25">
@@ -16773,7 +16773,7 @@
         <v>1375.2</v>
       </c>
       <c r="GY25" t="n">
-        <v>1357.1</v>
+        <v>1356.7</v>
       </c>
     </row>
     <row r="26">
@@ -17396,7 +17396,7 @@
         <v>2017.1</v>
       </c>
       <c r="GY26" t="n">
-        <v>2018.5</v>
+        <v>2017.9</v>
       </c>
     </row>
     <row r="27">
@@ -18019,7 +18019,7 @@
         <v>1851.9</v>
       </c>
       <c r="GY27" t="n">
-        <v>1927.2</v>
+        <v>1928.3</v>
       </c>
     </row>
     <row r="28">
@@ -18642,7 +18642,7 @@
         <v>166.2</v>
       </c>
       <c r="GY28" t="n">
-        <v>177.6</v>
+        <v>177.8</v>
       </c>
     </row>
     <row r="29">
@@ -19265,7 +19265,7 @@
         <v>246.4</v>
       </c>
       <c r="GY29" t="n">
-        <v>261.2</v>
+        <v>275.1</v>
       </c>
     </row>
     <row r="30">
@@ -19888,7 +19888,7 @@
         <v>1517.9</v>
       </c>
       <c r="GY30" t="n">
-        <v>1542.1</v>
+        <v>1542.2</v>
       </c>
     </row>
     <row r="31">
@@ -20511,7 +20511,7 @@
         <v>5070.6</v>
       </c>
       <c r="GY31" t="n">
-        <v>3367.3</v>
+        <v>3372.3</v>
       </c>
     </row>
     <row r="32">
@@ -21757,7 +21757,7 @@
         <v>560.2</v>
       </c>
       <c r="GY33" t="n">
-        <v>623.3</v>
+        <v>586.4</v>
       </c>
     </row>
     <row r="34">
@@ -22380,7 +22380,7 @@
         <v>1413.9</v>
       </c>
       <c r="GY34" t="n">
-        <v>1462.6</v>
+        <v>1458.5</v>
       </c>
     </row>
     <row r="35">
@@ -23003,7 +23003,7 @@
         <v>85.5</v>
       </c>
       <c r="GY35" t="n">
-        <v>90.6</v>
+        <v>91.9</v>
       </c>
     </row>
     <row r="36">
@@ -24249,7 +24249,7 @@
         <v>850</v>
       </c>
       <c r="GY37" t="n">
-        <v>890.5</v>
+        <v>885.5</v>
       </c>
     </row>
     <row r="38">
@@ -24872,7 +24872,7 @@
         <v>3260.6</v>
       </c>
       <c r="GY38" t="n">
-        <v>3342.9</v>
+        <v>3337.6</v>
       </c>
     </row>
     <row r="39">
@@ -26373,7 +26373,7 @@
         <v>75.03</v>
       </c>
       <c r="GY41" t="n">
-        <v>76.702</v>
+        <v>77.704</v>
       </c>
     </row>
     <row r="42">
@@ -26996,7 +26996,7 @@
         <v>403.8</v>
       </c>
       <c r="GY42" t="n">
-        <v>683.6</v>
+        <v>697</v>
       </c>
     </row>
     <row r="43">
@@ -28242,7 +28242,7 @@
         <v>406.3</v>
       </c>
       <c r="GY44" t="n">
-        <v>692.2</v>
+        <v>705.6</v>
       </c>
     </row>
     <row r="45">
@@ -30233,7 +30233,7 @@
         <v>0.9</v>
       </c>
       <c r="GY53" t="n">
-        <v>1.8</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="54">
@@ -33285,7 +33285,7 @@
         <v>297.7</v>
       </c>
       <c r="GY65" t="n">
-        <v>88.8</v>
+        <v>89.9</v>
       </c>
     </row>
     <row r="66">
@@ -33908,7 +33908,7 @@
         <v>109.653</v>
       </c>
       <c r="GY66" t="n">
-        <v>124.335</v>
+        <v>128.939</v>
       </c>
     </row>
     <row r="67">
@@ -37646,7 +37646,7 @@
         <v>4976.66666666667</v>
       </c>
       <c r="GY72" t="n">
-        <v>5025.66666666667</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="73">
@@ -38269,7 +38269,7 @@
         <v>13671.3333333333</v>
       </c>
       <c r="GY73" t="n">
-        <v>13773.6666666667</v>
+        <v>13769.3333333333</v>
       </c>
     </row>
     <row r="74">
@@ -38892,7 +38892,7 @@
         <v>322875.333333333</v>
       </c>
       <c r="GY74" t="n">
-        <v>317911</v>
+        <v>317506.666666667</v>
       </c>
     </row>
     <row r="75">
@@ -39515,7 +39515,7 @@
         <v>0.0106010766854838</v>
       </c>
       <c r="GY75" t="n">
-        <v>0.0148584946385095</v>
+        <v>0.0148498609983942</v>
       </c>
     </row>
     <row r="76">
@@ -40138,7 +40138,7 @@
         <v>0.00947930812665287</v>
       </c>
       <c r="GY76" t="n">
-        <v>0.0158068484542744</v>
+        <v>0.0157802971970722</v>
       </c>
     </row>
     <row r="77">
@@ -40761,7 +40761,7 @@
         <v>0.00979116316539619</v>
       </c>
       <c r="GY77" t="n">
-        <v>0.00986279752772545</v>
+        <v>0.010195940910884</v>
       </c>
     </row>
     <row r="78">
@@ -41384,7 +41384,7 @@
         <v>0.0153472039180007</v>
       </c>
       <c r="GY78" t="n">
-        <v>0.0175269645608629</v>
+        <v>0.0178200576137202</v>
       </c>
     </row>
     <row r="79">
@@ -42007,7 +42007,7 @@
         <v>0.0155281351781142</v>
       </c>
       <c r="GY79" t="n">
-        <v>0.0165635284167511</v>
+        <v>0.0167979969686567</v>
       </c>
     </row>
     <row r="80">
@@ -42630,7 +42630,7 @@
         <v>0.0145277216114725</v>
       </c>
       <c r="GY80" t="n">
-        <v>0.021931734440946</v>
+        <v>0.0224844241977624</v>
       </c>
     </row>
   </sheetData>

--- a/data/haver_pivoted.xlsx
+++ b/data/haver_pivoted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -635,6 +635,9 @@
     <t xml:space="preserve">2021 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">2021 Q3</t>
+  </si>
+  <si>
     <t xml:space="preserve">gdp</t>
   </si>
   <si>
@@ -1823,10 +1826,13 @@
       <c r="GY1" t="s">
         <v>206</v>
       </c>
+      <c r="GZ1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B2" t="n">
         <v>1051.2</v>
@@ -2445,11 +2451,14 @@
       </c>
       <c r="GY2" t="n">
         <v>22741</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>23173.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B3" t="n">
         <v>4939.8</v>
@@ -3068,11 +3077,14 @@
       </c>
       <c r="GY3" t="n">
         <v>19368.3</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>19465.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B4" t="n">
         <v>21.272</v>
@@ -3691,11 +3703,14 @@
       </c>
       <c r="GY4" t="n">
         <v>117.546</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>119.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B5" t="n">
         <v>631.7</v>
@@ -4314,11 +4329,14 @@
       </c>
       <c r="GY5" t="n">
         <v>15681.7</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>15946.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B6" t="n">
         <v>3071.1</v>
@@ -4937,11 +4955,14 @@
       </c>
       <c r="GY6" t="n">
         <v>13665.6</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>13719.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B7" t="n">
         <v>20.57</v>
@@ -5560,11 +5581,14 @@
       </c>
       <c r="GY7" t="n">
         <v>114.772</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>116.252</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B8" t="n">
         <v>18.704</v>
@@ -6183,11 +6207,14 @@
       </c>
       <c r="GY8" t="n">
         <v>115.228</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>116.539</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B9" t="n">
         <v>13.706</v>
@@ -6806,11 +6833,14 @@
       </c>
       <c r="GY9" t="n">
         <v>121.544</v>
+      </c>
+      <c r="GZ9" t="n">
+        <v>123.305</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B10" t="n">
         <v>13.107</v>
@@ -7429,11 +7459,14 @@
       </c>
       <c r="GY10" t="n">
         <v>121.425</v>
+      </c>
+      <c r="GZ10" t="n">
+        <v>122.996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B11" t="n">
         <v>16.825</v>
@@ -8052,11 +8085,14 @@
       </c>
       <c r="GY11" t="n">
         <v>122.101</v>
+      </c>
+      <c r="GZ11" t="n">
+        <v>124.76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B12" t="n">
         <v>7</v>
@@ -8675,11 +8711,14 @@
       </c>
       <c r="GY12" t="n">
         <v>815.3</v>
+      </c>
+      <c r="GZ12" t="n">
+        <v>826.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B13" t="n">
         <v>5</v>
@@ -9298,11 +9337,14 @@
       </c>
       <c r="GY13" t="n">
         <v>730.5</v>
+      </c>
+      <c r="GZ13" t="n">
+        <v>740</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B14" t="n">
         <v>2.9</v>
@@ -9921,11 +9963,14 @@
       </c>
       <c r="GY14" t="n">
         <v>480.4</v>
+      </c>
+      <c r="GZ14" t="n">
+        <v>272.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B15" t="n">
         <v>63</v>
@@ -10544,11 +10589,14 @@
       </c>
       <c r="GY15" t="n">
         <v>4257.8</v>
+      </c>
+      <c r="GZ15" t="n">
+        <v>4038.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B16" t="n">
         <v>1.2</v>
@@ -11167,11 +11215,14 @@
       </c>
       <c r="GY16" t="n">
         <v>116</v>
+      </c>
+      <c r="GZ16" t="n">
+        <v>116.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B17" t="n">
         <v>104.6</v>
@@ -11790,11 +11841,14 @@
       </c>
       <c r="GY17" t="n">
         <v>2514.8</v>
+      </c>
+      <c r="GZ17" t="n">
+        <v>2592.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B18" t="n">
         <v>88.5</v>
@@ -12413,11 +12467,14 @@
       </c>
       <c r="GY18" t="n">
         <v>1636.3</v>
+      </c>
+      <c r="GZ18" t="n">
+        <v>1658.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B19" t="n">
         <v>30.7</v>
@@ -13036,11 +13093,14 @@
       </c>
       <c r="GY19" t="n">
         <v>366.9</v>
+      </c>
+      <c r="GZ19" t="n">
+        <v>334.266666666667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B20" t="n">
         <v>247.9</v>
@@ -13659,11 +13719,14 @@
       </c>
       <c r="GY20" t="n">
         <v>4015.9</v>
+      </c>
+      <c r="GZ20" t="n">
+        <v>4077</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B21" t="n">
         <v>46.2</v>
@@ -14282,11 +14345,14 @@
       </c>
       <c r="GY21" t="n">
         <v>1564.2</v>
+      </c>
+      <c r="GZ21" t="n">
+        <v>1594.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" t="n">
         <v>20.569</v>
@@ -14905,11 +14971,14 @@
       </c>
       <c r="GY22" t="n">
         <v>114.753</v>
+      </c>
+      <c r="GZ22" t="n">
+        <v>116.232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B23" t="n">
         <v>133.6</v>
@@ -15528,11 +15597,14 @@
       </c>
       <c r="GY23" t="n">
         <v>1563.3</v>
+      </c>
+      <c r="GZ23" t="n">
+        <v>1562.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" t="n">
         <v>114.3</v>
@@ -16151,11 +16223,14 @@
       </c>
       <c r="GY24" t="n">
         <v>2452.6</v>
+      </c>
+      <c r="GZ24" t="n">
+        <v>2514.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" t="n">
         <v>714</v>
@@ -16774,11 +16849,14 @@
       </c>
       <c r="GY25" t="n">
         <v>1356.7</v>
+      </c>
+      <c r="GZ25" t="n">
+        <v>1340.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" t="n">
         <v>834.4</v>
@@ -17397,11 +17475,14 @@
       </c>
       <c r="GY26" t="n">
         <v>2017.9</v>
+      </c>
+      <c r="GZ26" t="n">
+        <v>2039.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B27" t="n">
         <v>90.6</v>
@@ -18020,11 +18101,14 @@
       </c>
       <c r="GY27" t="n">
         <v>1928.3</v>
+      </c>
+      <c r="GZ27" t="n">
+        <v>1994.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B28" t="n">
         <v>17.9</v>
@@ -18643,11 +18727,14 @@
       </c>
       <c r="GY28" t="n">
         <v>177.8</v>
+      </c>
+      <c r="GZ28" t="n">
+        <v>173.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B29" t="n">
         <v>27</v>
@@ -19266,11 +19353,14 @@
       </c>
       <c r="GY29" t="n">
         <v>275.1</v>
+      </c>
+      <c r="GZ29" t="n">
+        <v>248.866666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B30" t="n">
         <v>45.1</v>
@@ -19889,11 +19979,14 @@
       </c>
       <c r="GY30" t="n">
         <v>1542.2</v>
+      </c>
+      <c r="GZ30" t="n">
+        <v>1572.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B31" t="n">
         <v>48.3</v>
@@ -20512,11 +20605,14 @@
       </c>
       <c r="GY31" t="n">
         <v>3372.3</v>
+      </c>
+      <c r="GZ31" t="n">
+        <v>3141.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B32" t="n">
         <v>16.6</v>
@@ -21135,11 +21231,14 @@
       </c>
       <c r="GY32" t="n">
         <v>1632.2</v>
+      </c>
+      <c r="GZ32" t="n">
+        <v>1057.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B33" t="n">
         <v>14</v>
@@ -21758,11 +21857,14 @@
       </c>
       <c r="GY33" t="n">
         <v>586.4</v>
+      </c>
+      <c r="GZ33" t="n">
+        <v>597.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B34" t="n">
         <v>70.6</v>
@@ -22381,11 +22483,14 @@
       </c>
       <c r="GY34" t="n">
         <v>1458.5</v>
+      </c>
+      <c r="GZ34" t="n">
+        <v>1485.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B35" t="n">
         <v>3.8</v>
@@ -23004,11 +23109,14 @@
       </c>
       <c r="GY35" t="n">
         <v>91.9</v>
+      </c>
+      <c r="GZ35" t="n">
+        <v>85.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B36" t="n">
         <v>1.1</v>
@@ -23627,11 +23735,14 @@
       </c>
       <c r="GY36" t="n">
         <v>21.9</v>
+      </c>
+      <c r="GZ36" t="n">
+        <v>22.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B37" t="n">
         <v>14.7</v>
@@ -24250,11 +24361,14 @@
       </c>
       <c r="GY37" t="n">
         <v>885.5</v>
+      </c>
+      <c r="GZ37" t="n">
+        <v>897.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B38" t="n">
         <v>129.9</v>
@@ -24873,11 +24987,14 @@
       </c>
       <c r="GY38" t="n">
         <v>3337.6</v>
+      </c>
+      <c r="GZ38" t="n">
+        <v>3394.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
@@ -25313,10 +25430,13 @@
       <c r="GY39" t="n">
         <v>553.564</v>
       </c>
+      <c r="GZ39" t="n">
+        <v>569.606</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B40"/>
       <c r="C40"/>
@@ -25752,10 +25872,13 @@
       <c r="GY40" t="n">
         <v>520.729</v>
       </c>
+      <c r="GZ40" t="n">
+        <v>530.821</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B41" t="n">
         <v>5.576</v>
@@ -26374,11 +26497,14 @@
       </c>
       <c r="GY41" t="n">
         <v>77.704</v>
+      </c>
+      <c r="GZ41" t="n">
+        <v>72.767</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B42" t="n">
         <v>4.7</v>
@@ -26997,11 +27123,14 @@
       </c>
       <c r="GY42" t="n">
         <v>697</v>
+      </c>
+      <c r="GZ42" t="n">
+        <v>554.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -27620,11 +27749,14 @@
       </c>
       <c r="GY43" t="n">
         <v>8.6</v>
+      </c>
+      <c r="GZ43" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B44" t="n">
         <v>4.7</v>
@@ -28243,11 +28375,14 @@
       </c>
       <c r="GY44" t="n">
         <v>705.6</v>
+      </c>
+      <c r="GZ44" t="n">
+        <v>555.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
@@ -28465,10 +28600,13 @@
       <c r="GY45" t="n">
         <v>290.1</v>
       </c>
+      <c r="GZ45" t="n">
+        <v>38.9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B46"/>
       <c r="C46"/>
@@ -28686,10 +28824,13 @@
       <c r="GY46" t="n">
         <v>14.1</v>
       </c>
+      <c r="GZ46" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -28907,10 +29048,13 @@
       <c r="GY47" t="n">
         <v>24.7</v>
       </c>
+      <c r="GZ47" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
@@ -29130,10 +29274,13 @@
       <c r="GY48" t="n">
         <v>26.6</v>
       </c>
+      <c r="GZ48" t="n">
+        <v>37.4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B49"/>
       <c r="C49"/>
@@ -29351,10 +29498,13 @@
       <c r="GY49" t="n">
         <v>427.2</v>
       </c>
+      <c r="GZ49" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B50"/>
       <c r="C50"/>
@@ -29572,10 +29722,13 @@
       <c r="GY50" t="n">
         <v>47.3</v>
       </c>
+      <c r="GZ50" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
@@ -29793,10 +29946,13 @@
       <c r="GY51" t="n">
         <v>62.9</v>
       </c>
+      <c r="GZ51" t="n">
+        <v>62.9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B52"/>
       <c r="C52"/>
@@ -30014,10 +30170,13 @@
       <c r="GY52" t="n">
         <v>12.3</v>
       </c>
+      <c r="GZ52" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B53"/>
       <c r="C53"/>
@@ -30235,10 +30394,13 @@
       <c r="GY53" t="n">
         <v>14.3</v>
       </c>
+      <c r="GZ53" t="n">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B54"/>
       <c r="C54"/>
@@ -30456,10 +30618,13 @@
       <c r="GY54" t="n">
         <v>16</v>
       </c>
+      <c r="GZ54" t="n">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
@@ -30677,10 +30842,13 @@
       <c r="GY55" t="n">
         <v>8</v>
       </c>
+      <c r="GZ55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B56"/>
       <c r="C56"/>
@@ -30898,10 +31066,13 @@
       <c r="GY56" t="n">
         <v>785.9</v>
       </c>
+      <c r="GZ56" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B57"/>
       <c r="C57"/>
@@ -31119,10 +31290,13 @@
       <c r="GY57" t="n">
         <v>67.6</v>
       </c>
+      <c r="GZ57" t="n">
+        <v>80.7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B58"/>
       <c r="C58"/>
@@ -31340,10 +31514,13 @@
       <c r="GY58" t="n">
         <v>10.6</v>
       </c>
+      <c r="GZ58" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
@@ -31561,10 +31738,13 @@
       <c r="GY59" t="n">
         <v>104.5</v>
       </c>
+      <c r="GZ59" t="n">
+        <v>61.6</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B60"/>
       <c r="C60"/>
@@ -31782,10 +31962,13 @@
       <c r="GY60" t="n">
         <v>82.1</v>
       </c>
+      <c r="GZ60" t="n">
+        <v>50.1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
@@ -32003,10 +32186,13 @@
       <c r="GY61" t="n">
         <v>237.2</v>
       </c>
+      <c r="GZ61" t="n">
+        <v>113.2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
@@ -32224,10 +32410,13 @@
       <c r="GY62" t="n">
         <v>429.7</v>
       </c>
+      <c r="GZ62" t="n">
+        <v>230.6</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
@@ -32445,10 +32634,13 @@
       <c r="GY63" t="n">
         <v>5.8</v>
       </c>
+      <c r="GZ63" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
@@ -32664,10 +32856,13 @@
       <c r="GY64" t="n">
         <v>0.6</v>
       </c>
+      <c r="GZ64" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B65" t="n">
         <v>5.7</v>
@@ -33286,11 +33481,14 @@
       </c>
       <c r="GY65" t="n">
         <v>89.9</v>
+      </c>
+      <c r="GZ65" t="n">
+        <v>100.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B66" t="n">
         <v>0.584</v>
@@ -33909,11 +34107,14 @@
       </c>
       <c r="GY66" t="n">
         <v>128.939</v>
+      </c>
+      <c r="GZ66" t="n">
+        <v>140.094</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B67" t="n">
         <v>38.1</v>
@@ -34532,11 +34733,14 @@
       </c>
       <c r="GY67" t="n">
         <v>268.788</v>
+      </c>
+      <c r="GZ67" t="n">
+        <v>273.138333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B68" t="n">
         <v>38.3</v>
@@ -35155,11 +35359,14 @@
       </c>
       <c r="GY68" t="n">
         <v>263.125333333333</v>
+      </c>
+      <c r="GZ68" t="n">
+        <v>267.855333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B69" t="n">
         <v>4942.2</v>
@@ -35778,11 +35985,14 @@
       </c>
       <c r="GY69" t="n">
         <v>19697.4</v>
+      </c>
+      <c r="GZ69" t="n">
+        <v>19795.8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B70" t="n">
         <v>1052.4</v>
@@ -36401,11 +36611,14 @@
       </c>
       <c r="GY70" t="n">
         <v>22983.3</v>
+      </c>
+      <c r="GZ70" t="n">
+        <v>23233.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -37023,12 +37236,15 @@
         <v>-1</v>
       </c>
       <c r="GY71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GZ71" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B72" t="n">
         <v>2613.33333333333</v>
@@ -37647,11 +37863,14 @@
       </c>
       <c r="GY72" t="n">
         <v>5023</v>
+      </c>
+      <c r="GZ72" t="n">
+        <v>5062.66666666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B73" t="n">
         <v>7048.66666666667</v>
@@ -38270,11 +38489,14 @@
       </c>
       <c r="GY73" t="n">
         <v>13769.3333333333</v>
+      </c>
+      <c r="GZ73" t="n">
+        <v>14107</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B74" t="n">
         <v>23545.6666666667</v>
@@ -38892,12 +39114,15 @@
         <v>322875.333333333</v>
       </c>
       <c r="GY74" t="n">
-        <v>317506.666666667</v>
+        <v>318491.333333333</v>
+      </c>
+      <c r="GZ74" t="n">
+        <v>323230.555555556</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B75" t="n">
         <v>0.014432117337345</v>
@@ -39516,11 +39741,14 @@
       </c>
       <c r="GY75" t="n">
         <v>0.0148498609983942</v>
+      </c>
+      <c r="GZ75" t="n">
+        <v>0.013986013986014</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B76" t="n">
         <v>0.0110841030627127</v>
@@ -40139,11 +40367,14 @@
       </c>
       <c r="GY76" t="n">
         <v>0.0157802971970722</v>
+      </c>
+      <c r="GZ76" t="n">
+        <v>0.012895131216673</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B77" t="n">
         <v>0.0132057313943541</v>
@@ -40762,11 +40993,14 @@
       </c>
       <c r="GY77" t="n">
         <v>0.010195940910884</v>
+      </c>
+      <c r="GZ77" t="n">
+        <v>0.0113774429826086</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B78" t="n">
         <v>0.0212315774113527</v>
@@ -41385,11 +41619,14 @@
       </c>
       <c r="GY78" t="n">
         <v>0.0178200576137202</v>
+      </c>
+      <c r="GZ78" t="n">
+        <v>0.0144885802672283</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B79" t="n">
         <v>0.019913023575189</v>
@@ -42008,11 +42245,14 @@
       </c>
       <c r="GY79" t="n">
         <v>0.0167979969686567</v>
+      </c>
+      <c r="GZ79" t="n">
+        <v>0.0129380275890467</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B80" t="n">
         <v>0.0251411589895989</v>
@@ -42631,6 +42871,9 @@
       </c>
       <c r="GY80" t="n">
         <v>0.0224844241977624</v>
+      </c>
+      <c r="GZ80" t="n">
+        <v>0.021777053422986</v>
       </c>
     </row>
   </sheetData>

--- a/data/haver_pivoted.xlsx
+++ b/data/haver_pivoted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -874,6 +874,27 @@
   <si>
     <t xml:space="preserve">jgsi_growth</t>
   </si>
+  <si>
+    <t xml:space="preserve">ylwsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ypiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ycpd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gfsubr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gfsubd</t>
+  </si>
 </sst>
 </file>
 
@@ -42876,6 +42897,3576 @@
         <v>0.021777053422986</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>287</v>
+      </c>
+      <c r="B81" t="n">
+        <v>545.1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>549</v>
+      </c>
+      <c r="D81" t="n">
+        <v>555.7</v>
+      </c>
+      <c r="E81" t="n">
+        <v>556.3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>570.5</v>
+      </c>
+      <c r="G81" t="n">
+        <v>580.4</v>
+      </c>
+      <c r="H81" t="n">
+        <v>588.8</v>
+      </c>
+      <c r="I81" t="n">
+        <v>598.4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>618.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>630.4</v>
+      </c>
+      <c r="L81" t="n">
+        <v>642.3</v>
+      </c>
+      <c r="M81" t="n">
+        <v>664</v>
+      </c>
+      <c r="N81" t="n">
+        <v>683.4</v>
+      </c>
+      <c r="O81" t="n">
+        <v>700.2</v>
+      </c>
+      <c r="P81" t="n">
+        <v>716.2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>735.4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>748.2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>765.3</v>
+      </c>
+      <c r="T81" t="n">
+        <v>783.2</v>
+      </c>
+      <c r="U81" t="n">
+        <v>792.5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>792</v>
+      </c>
+      <c r="W81" t="n">
+        <v>800.4</v>
+      </c>
+      <c r="X81" t="n">
+        <v>821.3</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>845.8</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>871.3</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>889.4</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>908.5</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>930</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>950.1</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>981</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1007.6</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>1038.2</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1063.9</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>1106.1</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1138.1</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1174.5</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1208.6</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1234.5</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1269.5</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1301</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1333.9</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>1354</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1377.4</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1428.8</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>1467.8</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1496.8</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1530.7</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>1550.7</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>1567.7</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>1581.9</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>1596.6</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>1604.5</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1622.6</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>1654.8</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1691.6</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>1741.7</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>1784.2</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1828.4</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>1867.3</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>1900.7</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>1932.4</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>1963.8</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>1997.6</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>2037.2</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>2065.5</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>2083.6</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>2113.1</v>
+      </c>
+      <c r="BQ81" t="n">
+        <v>2154.2</v>
+      </c>
+      <c r="BR81" t="n">
+        <v>2194.3</v>
+      </c>
+      <c r="BS81" t="n">
+        <v>2231.4</v>
+      </c>
+      <c r="BT81" t="n">
+        <v>2272</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>2332.8</v>
+      </c>
+      <c r="BV81" t="n">
+        <v>2367.1</v>
+      </c>
+      <c r="BW81" t="n">
+        <v>2422.5</v>
+      </c>
+      <c r="BX81" t="n">
+        <v>2463.6</v>
+      </c>
+      <c r="BY81" t="n">
+        <v>2509.5</v>
+      </c>
+      <c r="BZ81" t="n">
+        <v>2541.9</v>
+      </c>
+      <c r="CA81" t="n">
+        <v>2564.7</v>
+      </c>
+      <c r="CB81" t="n">
+        <v>2593.5</v>
+      </c>
+      <c r="CC81" t="n">
+        <v>2637.3</v>
+      </c>
+      <c r="CD81" t="n">
+        <v>2686.6</v>
+      </c>
+      <c r="CE81" t="n">
+        <v>2741</v>
+      </c>
+      <c r="CF81" t="n">
+        <v>2771.6</v>
+      </c>
+      <c r="CG81" t="n">
+        <v>2774.8</v>
+      </c>
+      <c r="CH81" t="n">
+        <v>2774.1</v>
+      </c>
+      <c r="CI81" t="n">
+        <v>2802.8</v>
+      </c>
+      <c r="CJ81" t="n">
+        <v>2830.9</v>
+      </c>
+      <c r="CK81" t="n">
+        <v>2861.2</v>
+      </c>
+      <c r="CL81" t="n">
+        <v>2915.9</v>
+      </c>
+      <c r="CM81" t="n">
+        <v>2955</v>
+      </c>
+      <c r="CN81" t="n">
+        <v>2979.4</v>
+      </c>
+      <c r="CO81" t="n">
+        <v>3023.8</v>
+      </c>
+      <c r="CP81" t="n">
+        <v>3019</v>
+      </c>
+      <c r="CQ81" t="n">
+        <v>3069.8</v>
+      </c>
+      <c r="CR81" t="n">
+        <v>3096.9</v>
+      </c>
+      <c r="CS81" t="n">
+        <v>3144.9</v>
+      </c>
+      <c r="CT81" t="n">
+        <v>3156.6</v>
+      </c>
+      <c r="CU81" t="n">
+        <v>3227.4</v>
+      </c>
+      <c r="CV81" t="n">
+        <v>3262.7</v>
+      </c>
+      <c r="CW81" t="n">
+        <v>3315.7</v>
+      </c>
+      <c r="CX81" t="n">
+        <v>3362.1</v>
+      </c>
+      <c r="CY81" t="n">
+        <v>3399.3</v>
+      </c>
+      <c r="CZ81" t="n">
+        <v>3443</v>
+      </c>
+      <c r="DA81" t="n">
+        <v>3484.1</v>
+      </c>
+      <c r="DB81" t="n">
+        <v>3528.3</v>
+      </c>
+      <c r="DC81" t="n">
+        <v>3594</v>
+      </c>
+      <c r="DD81" t="n">
+        <v>3651.3</v>
+      </c>
+      <c r="DE81" t="n">
+        <v>3708.7</v>
+      </c>
+      <c r="DF81" t="n">
+        <v>3780.5</v>
+      </c>
+      <c r="DG81" t="n">
+        <v>3840</v>
+      </c>
+      <c r="DH81" t="n">
+        <v>3907.4</v>
+      </c>
+      <c r="DI81" t="n">
+        <v>3997.1</v>
+      </c>
+      <c r="DJ81" t="n">
+        <v>4079.3</v>
+      </c>
+      <c r="DK81" t="n">
+        <v>4149.9</v>
+      </c>
+      <c r="DL81" t="n">
+        <v>4222</v>
+      </c>
+      <c r="DM81" t="n">
+        <v>4293.5</v>
+      </c>
+      <c r="DN81" t="n">
+        <v>4372.7</v>
+      </c>
+      <c r="DO81" t="n">
+        <v>4416.9</v>
+      </c>
+      <c r="DP81" t="n">
+        <v>4480.2</v>
+      </c>
+      <c r="DQ81" t="n">
+        <v>4591</v>
+      </c>
+      <c r="DR81" t="n">
+        <v>4758.7</v>
+      </c>
+      <c r="DS81" t="n">
+        <v>4786.6</v>
+      </c>
+      <c r="DT81" t="n">
+        <v>4878.8</v>
+      </c>
+      <c r="DU81" t="n">
+        <v>4905.7</v>
+      </c>
+      <c r="DV81" t="n">
+        <v>4987.2</v>
+      </c>
+      <c r="DW81" t="n">
+        <v>4969.3</v>
+      </c>
+      <c r="DX81" t="n">
+        <v>4944.1</v>
+      </c>
+      <c r="DY81" t="n">
+        <v>4946</v>
+      </c>
+      <c r="DZ81" t="n">
+        <v>4953.9</v>
+      </c>
+      <c r="EA81" t="n">
+        <v>5006.4</v>
+      </c>
+      <c r="EB81" t="n">
+        <v>5020.5</v>
+      </c>
+      <c r="EC81" t="n">
+        <v>5035.5</v>
+      </c>
+      <c r="ED81" t="n">
+        <v>5035.7</v>
+      </c>
+      <c r="EE81" t="n">
+        <v>5109.8</v>
+      </c>
+      <c r="EF81" t="n">
+        <v>5177.4</v>
+      </c>
+      <c r="EG81" t="n">
+        <v>5264.9</v>
+      </c>
+      <c r="EH81" t="n">
+        <v>5284</v>
+      </c>
+      <c r="EI81" t="n">
+        <v>5390.8</v>
+      </c>
+      <c r="EJ81" t="n">
+        <v>5502.5</v>
+      </c>
+      <c r="EK81" t="n">
+        <v>5546.1</v>
+      </c>
+      <c r="EL81" t="n">
+        <v>5586.1</v>
+      </c>
+      <c r="EM81" t="n">
+        <v>5649.4</v>
+      </c>
+      <c r="EN81" t="n">
+        <v>5749.8</v>
+      </c>
+      <c r="EO81" t="n">
+        <v>5826.7</v>
+      </c>
+      <c r="EP81" t="n">
+        <v>5983.1</v>
+      </c>
+      <c r="EQ81" t="n">
+        <v>6024.2</v>
+      </c>
+      <c r="ER81" t="n">
+        <v>6073</v>
+      </c>
+      <c r="ES81" t="n">
+        <v>6193</v>
+      </c>
+      <c r="ET81" t="n">
+        <v>6354.7</v>
+      </c>
+      <c r="EU81" t="n">
+        <v>6381.4</v>
+      </c>
+      <c r="EV81" t="n">
+        <v>6407.7</v>
+      </c>
+      <c r="EW81" t="n">
+        <v>6485.3</v>
+      </c>
+      <c r="EX81" t="n">
+        <v>6552.3</v>
+      </c>
+      <c r="EY81" t="n">
+        <v>6544.1</v>
+      </c>
+      <c r="EZ81" t="n">
+        <v>6558</v>
+      </c>
+      <c r="FA81" t="n">
+        <v>6529.4</v>
+      </c>
+      <c r="FB81" t="n">
+        <v>6234.6</v>
+      </c>
+      <c r="FC81" t="n">
+        <v>6262.8</v>
+      </c>
+      <c r="FD81" t="n">
+        <v>6245.2</v>
+      </c>
+      <c r="FE81" t="n">
+        <v>6286.6</v>
+      </c>
+      <c r="FF81" t="n">
+        <v>6240.2</v>
+      </c>
+      <c r="FG81" t="n">
+        <v>6368.2</v>
+      </c>
+      <c r="FH81" t="n">
+        <v>6430.5</v>
+      </c>
+      <c r="FI81" t="n">
+        <v>6481.4</v>
+      </c>
+      <c r="FJ81" t="n">
+        <v>6584.9</v>
+      </c>
+      <c r="FK81" t="n">
+        <v>6615.9</v>
+      </c>
+      <c r="FL81" t="n">
+        <v>6689.7</v>
+      </c>
+      <c r="FM81" t="n">
+        <v>6645.7</v>
+      </c>
+      <c r="FN81" t="n">
+        <v>6844.2</v>
+      </c>
+      <c r="FO81" t="n">
+        <v>6884.3</v>
+      </c>
+      <c r="FP81" t="n">
+        <v>6914.2</v>
+      </c>
+      <c r="FQ81" t="n">
+        <v>7101.8</v>
+      </c>
+      <c r="FR81" t="n">
+        <v>7052.2</v>
+      </c>
+      <c r="FS81" t="n">
+        <v>7111.5</v>
+      </c>
+      <c r="FT81" t="n">
+        <v>7121.5</v>
+      </c>
+      <c r="FU81" t="n">
+        <v>7205.1</v>
+      </c>
+      <c r="FV81" t="n">
+        <v>7367.7</v>
+      </c>
+      <c r="FW81" t="n">
+        <v>7418.9</v>
+      </c>
+      <c r="FX81" t="n">
+        <v>7512.6</v>
+      </c>
+      <c r="FY81" t="n">
+        <v>7643.9</v>
+      </c>
+      <c r="FZ81" t="n">
+        <v>7755.9</v>
+      </c>
+      <c r="GA81" t="n">
+        <v>7840.7</v>
+      </c>
+      <c r="GB81" t="n">
+        <v>7913.3</v>
+      </c>
+      <c r="GC81" t="n">
+        <v>7968.5</v>
+      </c>
+      <c r="GD81" t="n">
+        <v>8003.5</v>
+      </c>
+      <c r="GE81" t="n">
+        <v>8050.2</v>
+      </c>
+      <c r="GF81" t="n">
+        <v>8130.4</v>
+      </c>
+      <c r="GG81" t="n">
+        <v>8224.9</v>
+      </c>
+      <c r="GH81" t="n">
+        <v>8321.6</v>
+      </c>
+      <c r="GI81" t="n">
+        <v>8413.2</v>
+      </c>
+      <c r="GJ81" t="n">
+        <v>8529.4</v>
+      </c>
+      <c r="GK81" t="n">
+        <v>8677</v>
+      </c>
+      <c r="GL81" t="n">
+        <v>8772.5</v>
+      </c>
+      <c r="GM81" t="n">
+        <v>8853.1</v>
+      </c>
+      <c r="GN81" t="n">
+        <v>8980.4</v>
+      </c>
+      <c r="GO81" t="n">
+        <v>9037.2</v>
+      </c>
+      <c r="GP81" t="n">
+        <v>9237.7</v>
+      </c>
+      <c r="GQ81" t="n">
+        <v>9287.2</v>
+      </c>
+      <c r="GR81" t="n">
+        <v>9338.7</v>
+      </c>
+      <c r="GS81" t="n">
+        <v>9477.6</v>
+      </c>
+      <c r="GT81" t="n">
+        <v>9613.3</v>
+      </c>
+      <c r="GU81" t="n">
+        <v>8985.9</v>
+      </c>
+      <c r="GV81" t="n">
+        <v>9417.8</v>
+      </c>
+      <c r="GW81" t="n">
+        <v>9791.1</v>
+      </c>
+      <c r="GX81" t="n">
+        <v>9888.1</v>
+      </c>
+      <c r="GY81" t="n">
+        <v>10087.8</v>
+      </c>
+      <c r="GZ81" t="n">
+        <v>10327.7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>288</v>
+      </c>
+      <c r="B82" t="n">
+        <v>77.1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="D82" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="E82" t="n">
+        <v>78.9</v>
+      </c>
+      <c r="F82" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="G82" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="H82" t="n">
+        <v>84.6</v>
+      </c>
+      <c r="I82" t="n">
+        <v>87.9</v>
+      </c>
+      <c r="J82" t="n">
+        <v>87.9</v>
+      </c>
+      <c r="K82" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="L82" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M82" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="N82" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="O82" t="n">
+        <v>109.9</v>
+      </c>
+      <c r="P82" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>122.2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>115.7</v>
+      </c>
+      <c r="S82" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="T82" t="n">
+        <v>111</v>
+      </c>
+      <c r="U82" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="W82" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="X82" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>125.2</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>126.4</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>132.7</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>168.3</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>170.9</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>173.4</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>185</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>176.4</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>182.3</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>171.8</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>165.2</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>169.4</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>170.7</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>182.6</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>195.3</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>232.4</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>226.9</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>240.7</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>238.5</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>240.7</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>244.3</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="BQ82" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="BR82" t="n">
+        <v>275.4</v>
+      </c>
+      <c r="BS82" t="n">
+        <v>282.3</v>
+      </c>
+      <c r="BT82" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>298.6</v>
+      </c>
+      <c r="BV82" t="n">
+        <v>319.2</v>
+      </c>
+      <c r="BW82" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="BX82" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="BY82" t="n">
+        <v>326.8</v>
+      </c>
+      <c r="BZ82" t="n">
+        <v>348.1</v>
+      </c>
+      <c r="CA82" t="n">
+        <v>339.5</v>
+      </c>
+      <c r="CB82" t="n">
+        <v>337.2</v>
+      </c>
+      <c r="CC82" t="n">
+        <v>339.7</v>
+      </c>
+      <c r="CD82" t="n">
+        <v>345.6</v>
+      </c>
+      <c r="CE82" t="n">
+        <v>351.1</v>
+      </c>
+      <c r="CF82" t="n">
+        <v>358.9</v>
+      </c>
+      <c r="CG82" t="n">
+        <v>357</v>
+      </c>
+      <c r="CH82" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="CI82" t="n">
+        <v>353</v>
+      </c>
+      <c r="CJ82" t="n">
+        <v>353.6</v>
+      </c>
+      <c r="CK82" t="n">
+        <v>362.6</v>
+      </c>
+      <c r="CL82" t="n">
+        <v>378.7</v>
+      </c>
+      <c r="CM82" t="n">
+        <v>395.2</v>
+      </c>
+      <c r="CN82" t="n">
+        <v>407.9</v>
+      </c>
+      <c r="CO82" t="n">
+        <v>418.8</v>
+      </c>
+      <c r="CP82" t="n">
+        <v>418.9</v>
+      </c>
+      <c r="CQ82" t="n">
+        <v>429.6</v>
+      </c>
+      <c r="CR82" t="n">
+        <v>423.4</v>
+      </c>
+      <c r="CS82" t="n">
+        <v>440</v>
+      </c>
+      <c r="CT82" t="n">
+        <v>450.2</v>
+      </c>
+      <c r="CU82" t="n">
+        <v>454.1</v>
+      </c>
+      <c r="CV82" t="n">
+        <v>456.8</v>
+      </c>
+      <c r="CW82" t="n">
+        <v>465.5</v>
+      </c>
+      <c r="CX82" t="n">
+        <v>467.4</v>
+      </c>
+      <c r="CY82" t="n">
+        <v>472</v>
+      </c>
+      <c r="CZ82" t="n">
+        <v>484.5</v>
+      </c>
+      <c r="DA82" t="n">
+        <v>501</v>
+      </c>
+      <c r="DB82" t="n">
+        <v>523.3</v>
+      </c>
+      <c r="DC82" t="n">
+        <v>547.5</v>
+      </c>
+      <c r="DD82" t="n">
+        <v>547.5</v>
+      </c>
+      <c r="DE82" t="n">
+        <v>556.8</v>
+      </c>
+      <c r="DF82" t="n">
+        <v>575.6</v>
+      </c>
+      <c r="DG82" t="n">
+        <v>575.1</v>
+      </c>
+      <c r="DH82" t="n">
+        <v>588.5</v>
+      </c>
+      <c r="DI82" t="n">
+        <v>596.6</v>
+      </c>
+      <c r="DJ82" t="n">
+        <v>617.4</v>
+      </c>
+      <c r="DK82" t="n">
+        <v>629.6</v>
+      </c>
+      <c r="DL82" t="n">
+        <v>645</v>
+      </c>
+      <c r="DM82" t="n">
+        <v>668.7</v>
+      </c>
+      <c r="DN82" t="n">
+        <v>681.9</v>
+      </c>
+      <c r="DO82" t="n">
+        <v>690.1</v>
+      </c>
+      <c r="DP82" t="n">
+        <v>699.8</v>
+      </c>
+      <c r="DQ82" t="n">
+        <v>713.9</v>
+      </c>
+      <c r="DR82" t="n">
+        <v>720.9</v>
+      </c>
+      <c r="DS82" t="n">
+        <v>751.3</v>
+      </c>
+      <c r="DT82" t="n">
+        <v>760.8</v>
+      </c>
+      <c r="DU82" t="n">
+        <v>782.4</v>
+      </c>
+      <c r="DV82" t="n">
+        <v>809.8</v>
+      </c>
+      <c r="DW82" t="n">
+        <v>827.7</v>
+      </c>
+      <c r="DX82" t="n">
+        <v>845.6</v>
+      </c>
+      <c r="DY82" t="n">
+        <v>840.9</v>
+      </c>
+      <c r="DZ82" t="n">
+        <v>859.5</v>
+      </c>
+      <c r="EA82" t="n">
+        <v>864.5</v>
+      </c>
+      <c r="EB82" t="n">
+        <v>872.9</v>
+      </c>
+      <c r="EC82" t="n">
+        <v>883.3</v>
+      </c>
+      <c r="ED82" t="n">
+        <v>876.3</v>
+      </c>
+      <c r="EE82" t="n">
+        <v>892.4</v>
+      </c>
+      <c r="EF82" t="n">
+        <v>905.3</v>
+      </c>
+      <c r="EG82" t="n">
+        <v>916.1</v>
+      </c>
+      <c r="EH82" t="n">
+        <v>946.5</v>
+      </c>
+      <c r="EI82" t="n">
+        <v>963</v>
+      </c>
+      <c r="EJ82" t="n">
+        <v>964.2</v>
+      </c>
+      <c r="EK82" t="n">
+        <v>977.8</v>
+      </c>
+      <c r="EL82" t="n">
+        <v>957.1</v>
+      </c>
+      <c r="EM82" t="n">
+        <v>964.1</v>
+      </c>
+      <c r="EN82" t="n">
+        <v>988.1</v>
+      </c>
+      <c r="EO82" t="n">
+        <v>1007.2</v>
+      </c>
+      <c r="EP82" t="n">
+        <v>1049.1</v>
+      </c>
+      <c r="EQ82" t="n">
+        <v>1052.1</v>
+      </c>
+      <c r="ER82" t="n">
+        <v>1049</v>
+      </c>
+      <c r="ES82" t="n">
+        <v>1053.3</v>
+      </c>
+      <c r="ET82" t="n">
+        <v>1017.5</v>
+      </c>
+      <c r="EU82" t="n">
+        <v>997.9</v>
+      </c>
+      <c r="EV82" t="n">
+        <v>986.8</v>
+      </c>
+      <c r="EW82" t="n">
+        <v>979.8</v>
+      </c>
+      <c r="EX82" t="n">
+        <v>964.1</v>
+      </c>
+      <c r="EY82" t="n">
+        <v>967.2</v>
+      </c>
+      <c r="EZ82" t="n">
+        <v>956.6</v>
+      </c>
+      <c r="FA82" t="n">
+        <v>950.7</v>
+      </c>
+      <c r="FB82" t="n">
+        <v>913.2</v>
+      </c>
+      <c r="FC82" t="n">
+        <v>901.5</v>
+      </c>
+      <c r="FD82" t="n">
+        <v>934.5</v>
+      </c>
+      <c r="FE82" t="n">
+        <v>1001.3</v>
+      </c>
+      <c r="FF82" t="n">
+        <v>1055.8</v>
+      </c>
+      <c r="FG82" t="n">
+        <v>1102.7</v>
+      </c>
+      <c r="FH82" t="n">
+        <v>1128</v>
+      </c>
+      <c r="FI82" t="n">
+        <v>1142.7</v>
+      </c>
+      <c r="FJ82" t="n">
+        <v>1179</v>
+      </c>
+      <c r="FK82" t="n">
+        <v>1210.2</v>
+      </c>
+      <c r="FL82" t="n">
+        <v>1251.6</v>
+      </c>
+      <c r="FM82" t="n">
+        <v>1268.9</v>
+      </c>
+      <c r="FN82" t="n">
+        <v>1321.8</v>
+      </c>
+      <c r="FO82" t="n">
+        <v>1355.6</v>
+      </c>
+      <c r="FP82" t="n">
+        <v>1344.9</v>
+      </c>
+      <c r="FQ82" t="n">
+        <v>1363.2</v>
+      </c>
+      <c r="FR82" t="n">
+        <v>1387.2</v>
+      </c>
+      <c r="FS82" t="n">
+        <v>1410.6</v>
+      </c>
+      <c r="FT82" t="n">
+        <v>1411</v>
+      </c>
+      <c r="FU82" t="n">
+        <v>1400</v>
+      </c>
+      <c r="FV82" t="n">
+        <v>1411.4</v>
+      </c>
+      <c r="FW82" t="n">
+        <v>1450.6</v>
+      </c>
+      <c r="FX82" t="n">
+        <v>1466.2</v>
+      </c>
+      <c r="FY82" t="n">
+        <v>1454.4</v>
+      </c>
+      <c r="FZ82" t="n">
+        <v>1434.9</v>
+      </c>
+      <c r="GA82" t="n">
+        <v>1411.3</v>
+      </c>
+      <c r="GB82" t="n">
+        <v>1423.2</v>
+      </c>
+      <c r="GC82" t="n">
+        <v>1413.8</v>
+      </c>
+      <c r="GD82" t="n">
+        <v>1410.1</v>
+      </c>
+      <c r="GE82" t="n">
+        <v>1409.6</v>
+      </c>
+      <c r="GF82" t="n">
+        <v>1431</v>
+      </c>
+      <c r="GG82" t="n">
+        <v>1442.5</v>
+      </c>
+      <c r="GH82" t="n">
+        <v>1484.4</v>
+      </c>
+      <c r="GI82" t="n">
+        <v>1498.5</v>
+      </c>
+      <c r="GJ82" t="n">
+        <v>1502.9</v>
+      </c>
+      <c r="GK82" t="n">
+        <v>1537.5</v>
+      </c>
+      <c r="GL82" t="n">
+        <v>1567</v>
+      </c>
+      <c r="GM82" t="n">
+        <v>1572.1</v>
+      </c>
+      <c r="GN82" t="n">
+        <v>1581.3</v>
+      </c>
+      <c r="GO82" t="n">
+        <v>1601.4</v>
+      </c>
+      <c r="GP82" t="n">
+        <v>1585.5</v>
+      </c>
+      <c r="GQ82" t="n">
+        <v>1572.8</v>
+      </c>
+      <c r="GR82" t="n">
+        <v>1610.6</v>
+      </c>
+      <c r="GS82" t="n">
+        <v>1626.8</v>
+      </c>
+      <c r="GT82" t="n">
+        <v>1638.3</v>
+      </c>
+      <c r="GU82" t="n">
+        <v>1471.1</v>
+      </c>
+      <c r="GV82" t="n">
+        <v>1760.7</v>
+      </c>
+      <c r="GW82" t="n">
+        <v>1730</v>
+      </c>
+      <c r="GX82" t="n">
+        <v>1714</v>
+      </c>
+      <c r="GY82" t="n">
+        <v>1848.2</v>
+      </c>
+      <c r="GZ82" t="n">
+        <v>1850.6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>289</v>
+      </c>
+      <c r="B83" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F83" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="H83" t="n">
+        <v>22</v>
+      </c>
+      <c r="I83" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J83" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L83" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="M83" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="N83" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="O83" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="P83" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="T83" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="U83" t="n">
+        <v>23</v>
+      </c>
+      <c r="V83" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="W83" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="X83" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>22</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="BQ83" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="BR83" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BS83" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="BT83" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="BV83" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="BW83" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="BX83" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="BY83" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="BZ83" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="CA83" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="CB83" t="n">
+        <v>20</v>
+      </c>
+      <c r="CC83" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="CD83" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="CE83" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="CF83" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="CG83" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="CH83" t="n">
+        <v>33</v>
+      </c>
+      <c r="CI83" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="CJ83" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="CK83" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="CL83" t="n">
+        <v>50</v>
+      </c>
+      <c r="CM83" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="CN83" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="CO83" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="CP83" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="CQ83" t="n">
+        <v>86.9</v>
+      </c>
+      <c r="CR83" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="CS83" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="CT83" t="n">
+        <v>109</v>
+      </c>
+      <c r="CU83" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="CV83" t="n">
+        <v>116.3</v>
+      </c>
+      <c r="CW83" t="n">
+        <v>115.9</v>
+      </c>
+      <c r="CX83" t="n">
+        <v>118.3</v>
+      </c>
+      <c r="CY83" t="n">
+        <v>121.6</v>
+      </c>
+      <c r="CZ83" t="n">
+        <v>125.7</v>
+      </c>
+      <c r="DA83" t="n">
+        <v>134</v>
+      </c>
+      <c r="DB83" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="DC83" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="DD83" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="DE83" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="DF83" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="DG83" t="n">
+        <v>144.6</v>
+      </c>
+      <c r="DH83" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="DI83" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="DJ83" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="DK83" t="n">
+        <v>162.6</v>
+      </c>
+      <c r="DL83" t="n">
+        <v>168</v>
+      </c>
+      <c r="DM83" t="n">
+        <v>173.4</v>
+      </c>
+      <c r="DN83" t="n">
+        <v>176.1</v>
+      </c>
+      <c r="DO83" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="DP83" t="n">
+        <v>179.4</v>
+      </c>
+      <c r="DQ83" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="DR83" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="DS83" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="DT83" t="n">
+        <v>182.9</v>
+      </c>
+      <c r="DU83" t="n">
+        <v>191</v>
+      </c>
+      <c r="DV83" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="DW83" t="n">
+        <v>202.6</v>
+      </c>
+      <c r="DX83" t="n">
+        <v>204.8</v>
+      </c>
+      <c r="DY83" t="n">
+        <v>205.1</v>
+      </c>
+      <c r="DZ83" t="n">
+        <v>207.3</v>
+      </c>
+      <c r="EA83" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="EB83" t="n">
+        <v>207.7</v>
+      </c>
+      <c r="EC83" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="ED83" t="n">
+        <v>218.7</v>
+      </c>
+      <c r="EE83" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="EF83" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="EG83" t="n">
+        <v>239</v>
+      </c>
+      <c r="EH83" t="n">
+        <v>243</v>
+      </c>
+      <c r="EI83" t="n">
+        <v>243.4</v>
+      </c>
+      <c r="EJ83" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="EK83" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="EL83" t="n">
+        <v>233.7</v>
+      </c>
+      <c r="EM83" t="n">
+        <v>231.2</v>
+      </c>
+      <c r="EN83" t="n">
+        <v>213.6</v>
+      </c>
+      <c r="EO83" t="n">
+        <v>206</v>
+      </c>
+      <c r="EP83" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="EQ83" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="ER83" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="ES83" t="n">
+        <v>168.7</v>
+      </c>
+      <c r="ET83" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="EU83" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="EV83" t="n">
+        <v>193.6</v>
+      </c>
+      <c r="EW83" t="n">
+        <v>208.7</v>
+      </c>
+      <c r="EX83" t="n">
+        <v>249.2</v>
+      </c>
+      <c r="EY83" t="n">
+        <v>280.9</v>
+      </c>
+      <c r="EZ83" t="n">
+        <v>305.3</v>
+      </c>
+      <c r="FA83" t="n">
+        <v>325.7</v>
+      </c>
+      <c r="FB83" t="n">
+        <v>326.6</v>
+      </c>
+      <c r="FC83" t="n">
+        <v>335.9</v>
+      </c>
+      <c r="FD83" t="n">
+        <v>355.8</v>
+      </c>
+      <c r="FE83" t="n">
+        <v>372</v>
+      </c>
+      <c r="FF83" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="FG83" t="n">
+        <v>428.9</v>
+      </c>
+      <c r="FH83" t="n">
+        <v>442.6</v>
+      </c>
+      <c r="FI83" t="n">
+        <v>458.3</v>
+      </c>
+      <c r="FJ83" t="n">
+        <v>489.1</v>
+      </c>
+      <c r="FK83" t="n">
+        <v>501.4</v>
+      </c>
+      <c r="FL83" t="n">
+        <v>510.1</v>
+      </c>
+      <c r="FM83" t="n">
+        <v>525.6</v>
+      </c>
+      <c r="FN83" t="n">
+        <v>526.7</v>
+      </c>
+      <c r="FO83" t="n">
+        <v>532.4</v>
+      </c>
+      <c r="FP83" t="n">
+        <v>536.1</v>
+      </c>
+      <c r="FQ83" t="n">
+        <v>542.8</v>
+      </c>
+      <c r="FR83" t="n">
+        <v>560.8</v>
+      </c>
+      <c r="FS83" t="n">
+        <v>573.1</v>
+      </c>
+      <c r="FT83" t="n">
+        <v>585.1</v>
+      </c>
+      <c r="FU83" t="n">
+        <v>590.7</v>
+      </c>
+      <c r="FV83" t="n">
+        <v>598.1</v>
+      </c>
+      <c r="FW83" t="n">
+        <v>602.6</v>
+      </c>
+      <c r="FX83" t="n">
+        <v>604.6</v>
+      </c>
+      <c r="FY83" t="n">
+        <v>605.5</v>
+      </c>
+      <c r="FZ83" t="n">
+        <v>596.2</v>
+      </c>
+      <c r="GA83" t="n">
+        <v>611.3</v>
+      </c>
+      <c r="GB83" t="n">
+        <v>614.9</v>
+      </c>
+      <c r="GC83" t="n">
+        <v>615.6</v>
+      </c>
+      <c r="GD83" t="n">
+        <v>619.8</v>
+      </c>
+      <c r="GE83" t="n">
+        <v>626.7</v>
+      </c>
+      <c r="GF83" t="n">
+        <v>627.6</v>
+      </c>
+      <c r="GG83" t="n">
+        <v>632.5</v>
+      </c>
+      <c r="GH83" t="n">
+        <v>643.9</v>
+      </c>
+      <c r="GI83" t="n">
+        <v>645.1</v>
+      </c>
+      <c r="GJ83" t="n">
+        <v>654.9</v>
+      </c>
+      <c r="GK83" t="n">
+        <v>667</v>
+      </c>
+      <c r="GL83" t="n">
+        <v>671.8</v>
+      </c>
+      <c r="GM83" t="n">
+        <v>677.3</v>
+      </c>
+      <c r="GN83" t="n">
+        <v>689.8</v>
+      </c>
+      <c r="GO83" t="n">
+        <v>688.6</v>
+      </c>
+      <c r="GP83" t="n">
+        <v>687</v>
+      </c>
+      <c r="GQ83" t="n">
+        <v>691</v>
+      </c>
+      <c r="GR83" t="n">
+        <v>691.5</v>
+      </c>
+      <c r="GS83" t="n">
+        <v>699</v>
+      </c>
+      <c r="GT83" t="n">
+        <v>712.2</v>
+      </c>
+      <c r="GU83" t="n">
+        <v>709.5</v>
+      </c>
+      <c r="GV83" t="n">
+        <v>714.5</v>
+      </c>
+      <c r="GW83" t="n">
+        <v>710</v>
+      </c>
+      <c r="GX83" t="n">
+        <v>716.9</v>
+      </c>
+      <c r="GY83" t="n">
+        <v>716.3</v>
+      </c>
+      <c r="GZ83" t="n">
+        <v>729.3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>290</v>
+      </c>
+      <c r="B84" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>120</v>
+      </c>
+      <c r="F84" t="n">
+        <v>122.8</v>
+      </c>
+      <c r="G84" t="n">
+        <v>124.2</v>
+      </c>
+      <c r="H84" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="J84" t="n">
+        <v>131</v>
+      </c>
+      <c r="K84" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>138.4</v>
+      </c>
+      <c r="M84" t="n">
+        <v>142.8</v>
+      </c>
+      <c r="N84" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="O84" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="P84" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>164.6</v>
+      </c>
+      <c r="R84" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>177.6</v>
+      </c>
+      <c r="T84" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="U84" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>196.4</v>
+      </c>
+      <c r="W84" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="X84" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>217.1</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>229.7</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>238.8</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>246.6</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>255.4</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>273.3</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>281.3</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>289.8</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>298.9</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>308.8</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>318.8</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>330.4</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>350.4</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>377.5</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>391.2</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>397</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>421.9</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>440.5</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>469</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>508.5</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>525.4</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>544.1</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>559.9</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>560.8</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>563.2</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>574.3</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>584.4</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>609.2</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>630.2</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>645.6</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>671.4</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>698.4</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>707.7</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>718.6</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>723.8</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>724.1</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>738.7</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>762.3</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>770.2</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>770.3</v>
+      </c>
+      <c r="BQ84" t="n">
+        <v>769.8</v>
+      </c>
+      <c r="BR84" t="n">
+        <v>771.1</v>
+      </c>
+      <c r="BS84" t="n">
+        <v>781</v>
+      </c>
+      <c r="BT84" t="n">
+        <v>796.9</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>815.4</v>
+      </c>
+      <c r="BV84" t="n">
+        <v>824</v>
+      </c>
+      <c r="BW84" t="n">
+        <v>833.7</v>
+      </c>
+      <c r="BX84" t="n">
+        <v>860.5</v>
+      </c>
+      <c r="BY84" t="n">
+        <v>887.5</v>
+      </c>
+      <c r="BZ84" t="n">
+        <v>933.6</v>
+      </c>
+      <c r="CA84" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="CB84" t="n">
+        <v>975.6</v>
+      </c>
+      <c r="CC84" t="n">
+        <v>986.6</v>
+      </c>
+      <c r="CD84" t="n">
+        <v>999.5</v>
+      </c>
+      <c r="CE84" t="n">
+        <v>1003.1</v>
+      </c>
+      <c r="CF84" t="n">
+        <v>1010</v>
+      </c>
+      <c r="CG84" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="CH84" t="n">
+        <v>1003.9</v>
+      </c>
+      <c r="CI84" t="n">
+        <v>1004.2</v>
+      </c>
+      <c r="CJ84" t="n">
+        <v>1006.8</v>
+      </c>
+      <c r="CK84" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="CL84" t="n">
+        <v>996.8</v>
+      </c>
+      <c r="CM84" t="n">
+        <v>1000.4</v>
+      </c>
+      <c r="CN84" t="n">
+        <v>997.1</v>
+      </c>
+      <c r="CO84" t="n">
+        <v>1000.9</v>
+      </c>
+      <c r="CP84" t="n">
+        <v>1007.7</v>
+      </c>
+      <c r="CQ84" t="n">
+        <v>1007.4</v>
+      </c>
+      <c r="CR84" t="n">
+        <v>1006.4</v>
+      </c>
+      <c r="CS84" t="n">
+        <v>1006.7</v>
+      </c>
+      <c r="CT84" t="n">
+        <v>1015.2</v>
+      </c>
+      <c r="CU84" t="n">
+        <v>1035.9</v>
+      </c>
+      <c r="CV84" t="n">
+        <v>1057.7</v>
+      </c>
+      <c r="CW84" t="n">
+        <v>1090.4</v>
+      </c>
+      <c r="CX84" t="n">
+        <v>1112.7</v>
+      </c>
+      <c r="CY84" t="n">
+        <v>1130.9</v>
+      </c>
+      <c r="CZ84" t="n">
+        <v>1144.3</v>
+      </c>
+      <c r="DA84" t="n">
+        <v>1158.4</v>
+      </c>
+      <c r="DB84" t="n">
+        <v>1170.8</v>
+      </c>
+      <c r="DC84" t="n">
+        <v>1188.5</v>
+      </c>
+      <c r="DD84" t="n">
+        <v>1210.7</v>
+      </c>
+      <c r="DE84" t="n">
+        <v>1234.7</v>
+      </c>
+      <c r="DF84" t="n">
+        <v>1251.4</v>
+      </c>
+      <c r="DG84" t="n">
+        <v>1274.5</v>
+      </c>
+      <c r="DH84" t="n">
+        <v>1294.9</v>
+      </c>
+      <c r="DI84" t="n">
+        <v>1319.4</v>
+      </c>
+      <c r="DJ84" t="n">
+        <v>1353.9</v>
+      </c>
+      <c r="DK84" t="n">
+        <v>1379.1</v>
+      </c>
+      <c r="DL84" t="n">
+        <v>1385.2</v>
+      </c>
+      <c r="DM84" t="n">
+        <v>1365.3</v>
+      </c>
+      <c r="DN84" t="n">
+        <v>1349.7</v>
+      </c>
+      <c r="DO84" t="n">
+        <v>1347.3</v>
+      </c>
+      <c r="DP84" t="n">
+        <v>1367.2</v>
+      </c>
+      <c r="DQ84" t="n">
+        <v>1393</v>
+      </c>
+      <c r="DR84" t="n">
+        <v>1432.6</v>
+      </c>
+      <c r="DS84" t="n">
+        <v>1477.5</v>
+      </c>
+      <c r="DT84" t="n">
+        <v>1512.9</v>
+      </c>
+      <c r="DU84" t="n">
+        <v>1536.8</v>
+      </c>
+      <c r="DV84" t="n">
+        <v>1528.9</v>
+      </c>
+      <c r="DW84" t="n">
+        <v>1507</v>
+      </c>
+      <c r="DX84" t="n">
+        <v>1474.9</v>
+      </c>
+      <c r="DY84" t="n">
+        <v>1416</v>
+      </c>
+      <c r="DZ84" t="n">
+        <v>1397</v>
+      </c>
+      <c r="EA84" t="n">
+        <v>1408.1</v>
+      </c>
+      <c r="EB84" t="n">
+        <v>1413.1</v>
+      </c>
+      <c r="EC84" t="n">
+        <v>1436.3</v>
+      </c>
+      <c r="ED84" t="n">
+        <v>1444.5</v>
+      </c>
+      <c r="EE84" t="n">
+        <v>1436.1</v>
+      </c>
+      <c r="EF84" t="n">
+        <v>1455.3</v>
+      </c>
+      <c r="EG84" t="n">
+        <v>1473.4</v>
+      </c>
+      <c r="EH84" t="n">
+        <v>1473.6</v>
+      </c>
+      <c r="EI84" t="n">
+        <v>1490.5</v>
+      </c>
+      <c r="EJ84" t="n">
+        <v>1507.5</v>
+      </c>
+      <c r="EK84" t="n">
+        <v>1636.7</v>
+      </c>
+      <c r="EL84" t="n">
+        <v>1598.1</v>
+      </c>
+      <c r="EM84" t="n">
+        <v>1669.6</v>
+      </c>
+      <c r="EN84" t="n">
+        <v>1713</v>
+      </c>
+      <c r="EO84" t="n">
+        <v>1800.1</v>
+      </c>
+      <c r="EP84" t="n">
+        <v>1882.7</v>
+      </c>
+      <c r="EQ84" t="n">
+        <v>1988</v>
+      </c>
+      <c r="ER84" t="n">
+        <v>2015.8</v>
+      </c>
+      <c r="ES84" t="n">
+        <v>2040.4</v>
+      </c>
+      <c r="ET84" t="n">
+        <v>2087.1</v>
+      </c>
+      <c r="EU84" t="n">
+        <v>2212.3</v>
+      </c>
+      <c r="EV84" t="n">
+        <v>2231.6</v>
+      </c>
+      <c r="EW84" t="n">
+        <v>2246.9</v>
+      </c>
+      <c r="EX84" t="n">
+        <v>2248.2</v>
+      </c>
+      <c r="EY84" t="n">
+        <v>2204.2</v>
+      </c>
+      <c r="EZ84" t="n">
+        <v>2222.5</v>
+      </c>
+      <c r="FA84" t="n">
+        <v>2141.3</v>
+      </c>
+      <c r="FB84" t="n">
+        <v>2006.9</v>
+      </c>
+      <c r="FC84" t="n">
+        <v>1875.6</v>
+      </c>
+      <c r="FD84" t="n">
+        <v>1783.9</v>
+      </c>
+      <c r="FE84" t="n">
+        <v>1748.4</v>
+      </c>
+      <c r="FF84" t="n">
+        <v>1763.3</v>
+      </c>
+      <c r="FG84" t="n">
+        <v>1775.8</v>
+      </c>
+      <c r="FH84" t="n">
+        <v>1780.5</v>
+      </c>
+      <c r="FI84" t="n">
+        <v>1827.5</v>
+      </c>
+      <c r="FJ84" t="n">
+        <v>1887.8</v>
+      </c>
+      <c r="FK84" t="n">
+        <v>1915.4</v>
+      </c>
+      <c r="FL84" t="n">
+        <v>1935.6</v>
+      </c>
+      <c r="FM84" t="n">
+        <v>2009.8</v>
+      </c>
+      <c r="FN84" t="n">
+        <v>2081.4</v>
+      </c>
+      <c r="FO84" t="n">
+        <v>2136</v>
+      </c>
+      <c r="FP84" t="n">
+        <v>2078.6</v>
+      </c>
+      <c r="FQ84" t="n">
+        <v>2318.7</v>
+      </c>
+      <c r="FR84" t="n">
+        <v>2026.1</v>
+      </c>
+      <c r="FS84" t="n">
+        <v>2036.5</v>
+      </c>
+      <c r="FT84" t="n">
+        <v>2074.2</v>
+      </c>
+      <c r="FU84" t="n">
+        <v>2099</v>
+      </c>
+      <c r="FV84" t="n">
+        <v>2167</v>
+      </c>
+      <c r="FW84" t="n">
+        <v>2266.7</v>
+      </c>
+      <c r="FX84" t="n">
+        <v>2336</v>
+      </c>
+      <c r="FY84" t="n">
+        <v>2390.4</v>
+      </c>
+      <c r="FZ84" t="n">
+        <v>2447.6</v>
+      </c>
+      <c r="GA84" t="n">
+        <v>2469.7</v>
+      </c>
+      <c r="GB84" t="n">
+        <v>2478.9</v>
+      </c>
+      <c r="GC84" t="n">
+        <v>2503.2</v>
+      </c>
+      <c r="GD84" t="n">
+        <v>2517</v>
+      </c>
+      <c r="GE84" t="n">
+        <v>2524.3</v>
+      </c>
+      <c r="GF84" t="n">
+        <v>2549.9</v>
+      </c>
+      <c r="GG84" t="n">
+        <v>2579.4</v>
+      </c>
+      <c r="GH84" t="n">
+        <v>2643.2</v>
+      </c>
+      <c r="GI84" t="n">
+        <v>2708.8</v>
+      </c>
+      <c r="GJ84" t="n">
+        <v>2728.2</v>
+      </c>
+      <c r="GK84" t="n">
+        <v>2751.6</v>
+      </c>
+      <c r="GL84" t="n">
+        <v>2786</v>
+      </c>
+      <c r="GM84" t="n">
+        <v>2842.4</v>
+      </c>
+      <c r="GN84" t="n">
+        <v>2884.4</v>
+      </c>
+      <c r="GO84" t="n">
+        <v>2960.5</v>
+      </c>
+      <c r="GP84" t="n">
+        <v>2944.3</v>
+      </c>
+      <c r="GQ84" t="n">
+        <v>2972.5</v>
+      </c>
+      <c r="GR84" t="n">
+        <v>2973.2</v>
+      </c>
+      <c r="GS84" t="n">
+        <v>2982.1</v>
+      </c>
+      <c r="GT84" t="n">
+        <v>2976.4</v>
+      </c>
+      <c r="GU84" t="n">
+        <v>2910.9</v>
+      </c>
+      <c r="GV84" t="n">
+        <v>2851.7</v>
+      </c>
+      <c r="GW84" t="n">
+        <v>2909.6</v>
+      </c>
+      <c r="GX84" t="n">
+        <v>2898.8</v>
+      </c>
+      <c r="GY84" t="n">
+        <v>2932.1</v>
+      </c>
+      <c r="GZ84" t="n">
+        <v>2949.6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>291</v>
+      </c>
+      <c r="B85" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>81.1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>81.1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>76.9</v>
+      </c>
+      <c r="F85" t="n">
+        <v>89.1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="H85" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="I85" t="n">
+        <v>97.6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="K85" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="L85" t="n">
+        <v>108.2</v>
+      </c>
+      <c r="M85" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="N85" t="n">
+        <v>121</v>
+      </c>
+      <c r="O85" t="n">
+        <v>117.2</v>
+      </c>
+      <c r="P85" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>119.1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="S85" t="n">
+        <v>110.8</v>
+      </c>
+      <c r="T85" t="n">
+        <v>107.3</v>
+      </c>
+      <c r="U85" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="V85" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="W85" t="n">
+        <v>115.6</v>
+      </c>
+      <c r="X85" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>142</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>165</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>185.7</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>219.4</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>211.1</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>205.1</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>197.2</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>170.2</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>205.2</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>214.2</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>202.6</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>211.7</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>240.3</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>302</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>301.8</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>295.7</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>305.7</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>312.3</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>311.6</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>308.5</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>298.8</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>288.1</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>276.2</v>
+      </c>
+      <c r="BQ85" t="n">
+        <v>276.4</v>
+      </c>
+      <c r="BR85" t="n">
+        <v>284.6</v>
+      </c>
+      <c r="BS85" t="n">
+        <v>314.4</v>
+      </c>
+      <c r="BT85" t="n">
+        <v>338.6</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>334.3</v>
+      </c>
+      <c r="BV85" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="BW85" t="n">
+        <v>350.9</v>
+      </c>
+      <c r="BX85" t="n">
+        <v>358.1</v>
+      </c>
+      <c r="BY85" t="n">
+        <v>379.5</v>
+      </c>
+      <c r="BZ85" t="n">
+        <v>359.7</v>
+      </c>
+      <c r="CA85" t="n">
+        <v>351.9</v>
+      </c>
+      <c r="CB85" t="n">
+        <v>350.1</v>
+      </c>
+      <c r="CC85" t="n">
+        <v>327</v>
+      </c>
+      <c r="CD85" t="n">
+        <v>340.5</v>
+      </c>
+      <c r="CE85" t="n">
+        <v>358.8</v>
+      </c>
+      <c r="CF85" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="CG85" t="n">
+        <v>330.6</v>
+      </c>
+      <c r="CH85" t="n">
+        <v>370.8</v>
+      </c>
+      <c r="CI85" t="n">
+        <v>378</v>
+      </c>
+      <c r="CJ85" t="n">
+        <v>380.7</v>
+      </c>
+      <c r="CK85" t="n">
+        <v>375</v>
+      </c>
+      <c r="CL85" t="n">
+        <v>399.7</v>
+      </c>
+      <c r="CM85" t="n">
+        <v>404</v>
+      </c>
+      <c r="CN85" t="n">
+        <v>393.9</v>
+      </c>
+      <c r="CO85" t="n">
+        <v>418.7</v>
+      </c>
+      <c r="CP85" t="n">
+        <v>400.8</v>
+      </c>
+      <c r="CQ85" t="n">
+        <v>439</v>
+      </c>
+      <c r="CR85" t="n">
+        <v>446.2</v>
+      </c>
+      <c r="CS85" t="n">
+        <v>504.6</v>
+      </c>
+      <c r="CT85" t="n">
+        <v>509.3</v>
+      </c>
+      <c r="CU85" t="n">
+        <v>530</v>
+      </c>
+      <c r="CV85" t="n">
+        <v>562.2</v>
+      </c>
+      <c r="CW85" t="n">
+        <v>585.8</v>
+      </c>
+      <c r="CX85" t="n">
+        <v>579</v>
+      </c>
+      <c r="CY85" t="n">
+        <v>595.7</v>
+      </c>
+      <c r="CZ85" t="n">
+        <v>639.4</v>
+      </c>
+      <c r="DA85" t="n">
+        <v>639</v>
+      </c>
+      <c r="DB85" t="n">
+        <v>671.6</v>
+      </c>
+      <c r="DC85" t="n">
+        <v>686.9</v>
+      </c>
+      <c r="DD85" t="n">
+        <v>691.4</v>
+      </c>
+      <c r="DE85" t="n">
+        <v>700.2</v>
+      </c>
+      <c r="DF85" t="n">
+        <v>735.7</v>
+      </c>
+      <c r="DG85" t="n">
+        <v>748.6</v>
+      </c>
+      <c r="DH85" t="n">
+        <v>787.1</v>
+      </c>
+      <c r="DI85" t="n">
+        <v>777.2</v>
+      </c>
+      <c r="DJ85" t="n">
+        <v>704</v>
+      </c>
+      <c r="DK85" t="n">
+        <v>703.4</v>
+      </c>
+      <c r="DL85" t="n">
+        <v>721.5</v>
+      </c>
+      <c r="DM85" t="n">
+        <v>693.8</v>
+      </c>
+      <c r="DN85" t="n">
+        <v>732.4</v>
+      </c>
+      <c r="DO85" t="n">
+        <v>723.4</v>
+      </c>
+      <c r="DP85" t="n">
+        <v>705.2</v>
+      </c>
+      <c r="DQ85" t="n">
+        <v>691.7</v>
+      </c>
+      <c r="DR85" t="n">
+        <v>677.3</v>
+      </c>
+      <c r="DS85" t="n">
+        <v>659.6</v>
+      </c>
+      <c r="DT85" t="n">
+        <v>636.7</v>
+      </c>
+      <c r="DU85" t="n">
+        <v>589.9</v>
+      </c>
+      <c r="DV85" t="n">
+        <v>588.6</v>
+      </c>
+      <c r="DW85" t="n">
+        <v>607.9</v>
+      </c>
+      <c r="DX85" t="n">
+        <v>601.2</v>
+      </c>
+      <c r="DY85" t="n">
+        <v>561.9</v>
+      </c>
+      <c r="DZ85" t="n">
+        <v>694.1</v>
+      </c>
+      <c r="EA85" t="n">
+        <v>737.7</v>
+      </c>
+      <c r="EB85" t="n">
+        <v>759.1</v>
+      </c>
+      <c r="EC85" t="n">
+        <v>828.9</v>
+      </c>
+      <c r="ED85" t="n">
+        <v>844.2</v>
+      </c>
+      <c r="EE85" t="n">
+        <v>872.2</v>
+      </c>
+      <c r="EF85" t="n">
+        <v>919.9</v>
+      </c>
+      <c r="EG85" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="EH85" t="n">
+        <v>1038.4</v>
+      </c>
+      <c r="EI85" t="n">
+        <v>1083.9</v>
+      </c>
+      <c r="EJ85" t="n">
+        <v>1125.2</v>
+      </c>
+      <c r="EK85" t="n">
+        <v>1129.3</v>
+      </c>
+      <c r="EL85" t="n">
+        <v>1219.8</v>
+      </c>
+      <c r="EM85" t="n">
+        <v>1236.8</v>
+      </c>
+      <c r="EN85" t="n">
+        <v>1244.4</v>
+      </c>
+      <c r="EO85" t="n">
+        <v>1350.6</v>
+      </c>
+      <c r="EP85" t="n">
+        <v>1399.2</v>
+      </c>
+      <c r="EQ85" t="n">
+        <v>1404.9</v>
+      </c>
+      <c r="ER85" t="n">
+        <v>1455.1</v>
+      </c>
+      <c r="ES85" t="n">
+        <v>1366.9</v>
+      </c>
+      <c r="ET85" t="n">
+        <v>1257.7</v>
+      </c>
+      <c r="EU85" t="n">
+        <v>1285.5</v>
+      </c>
+      <c r="EV85" t="n">
+        <v>1165.3</v>
+      </c>
+      <c r="EW85" t="n">
+        <v>1073.1</v>
+      </c>
+      <c r="EX85" t="n">
+        <v>988</v>
+      </c>
+      <c r="EY85" t="n">
+        <v>963.5</v>
+      </c>
+      <c r="EZ85" t="n">
+        <v>949.5</v>
+      </c>
+      <c r="FA85" t="n">
+        <v>681.6</v>
+      </c>
+      <c r="FB85" t="n">
+        <v>911.1</v>
+      </c>
+      <c r="FC85" t="n">
+        <v>965.2</v>
+      </c>
+      <c r="FD85" t="n">
+        <v>1087.1</v>
+      </c>
+      <c r="FE85" t="n">
+        <v>1188.7</v>
+      </c>
+      <c r="FF85" t="n">
+        <v>1253.4</v>
+      </c>
+      <c r="FG85" t="n">
+        <v>1255.5</v>
+      </c>
+      <c r="FH85" t="n">
+        <v>1428</v>
+      </c>
+      <c r="FI85" t="n">
+        <v>1434.9</v>
+      </c>
+      <c r="FJ85" t="n">
+        <v>1273.6</v>
+      </c>
+      <c r="FK85" t="n">
+        <v>1392.8</v>
+      </c>
+      <c r="FL85" t="n">
+        <v>1393.4</v>
+      </c>
+      <c r="FM85" t="n">
+        <v>1529</v>
+      </c>
+      <c r="FN85" t="n">
+        <v>1606.9</v>
+      </c>
+      <c r="FO85" t="n">
+        <v>1605.9</v>
+      </c>
+      <c r="FP85" t="n">
+        <v>1583</v>
+      </c>
+      <c r="FQ85" t="n">
+        <v>1572.4</v>
+      </c>
+      <c r="FR85" t="n">
+        <v>1596.1</v>
+      </c>
+      <c r="FS85" t="n">
+        <v>1605.3</v>
+      </c>
+      <c r="FT85" t="n">
+        <v>1602.5</v>
+      </c>
+      <c r="FU85" t="n">
+        <v>1643.5</v>
+      </c>
+      <c r="FV85" t="n">
+        <v>1561.5</v>
+      </c>
+      <c r="FW85" t="n">
+        <v>1743.6</v>
+      </c>
+      <c r="FX85" t="n">
+        <v>1769.4</v>
+      </c>
+      <c r="FY85" t="n">
+        <v>1786.9</v>
+      </c>
+      <c r="FZ85" t="n">
+        <v>1728.9</v>
+      </c>
+      <c r="GA85" t="n">
+        <v>1721.5</v>
+      </c>
+      <c r="GB85" t="n">
+        <v>1673.6</v>
+      </c>
+      <c r="GC85" t="n">
+        <v>1537.1</v>
+      </c>
+      <c r="GD85" t="n">
+        <v>1645.7</v>
+      </c>
+      <c r="GE85" t="n">
+        <v>1600.3</v>
+      </c>
+      <c r="GF85" t="n">
+        <v>1625.4</v>
+      </c>
+      <c r="GG85" t="n">
+        <v>1599.7</v>
+      </c>
+      <c r="GH85" t="n">
+        <v>1604.1</v>
+      </c>
+      <c r="GI85" t="n">
+        <v>1634.8</v>
+      </c>
+      <c r="GJ85" t="n">
+        <v>1639</v>
+      </c>
+      <c r="GK85" t="n">
+        <v>1641.9</v>
+      </c>
+      <c r="GL85" t="n">
+        <v>1701.8</v>
+      </c>
+      <c r="GM85" t="n">
+        <v>1742.3</v>
+      </c>
+      <c r="GN85" t="n">
+        <v>1816.9</v>
+      </c>
+      <c r="GO85" t="n">
+        <v>1872</v>
+      </c>
+      <c r="GP85" t="n">
+        <v>1799.2</v>
+      </c>
+      <c r="GQ85" t="n">
+        <v>1858.1</v>
+      </c>
+      <c r="GR85" t="n">
+        <v>1859.3</v>
+      </c>
+      <c r="GS85" t="n">
+        <v>1901</v>
+      </c>
+      <c r="GT85" t="n">
+        <v>1690.4</v>
+      </c>
+      <c r="GU85" t="n">
+        <v>1534.3</v>
+      </c>
+      <c r="GV85" t="n">
+        <v>1981</v>
+      </c>
+      <c r="GW85" t="n">
+        <v>1950.5</v>
+      </c>
+      <c r="GX85" t="n">
+        <v>2085</v>
+      </c>
+      <c r="GY85" t="n">
+        <v>2359</v>
+      </c>
+      <c r="GZ85" t="n">
+        <v>2131.5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>292</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+      <c r="AE86"/>
+      <c r="AF86"/>
+      <c r="AG86"/>
+      <c r="AH86"/>
+      <c r="AI86"/>
+      <c r="AJ86"/>
+      <c r="AK86"/>
+      <c r="AL86"/>
+      <c r="AM86"/>
+      <c r="AN86"/>
+      <c r="AO86"/>
+      <c r="AP86"/>
+      <c r="AQ86"/>
+      <c r="AR86"/>
+      <c r="AS86"/>
+      <c r="AT86"/>
+      <c r="AU86"/>
+      <c r="AV86"/>
+      <c r="AW86"/>
+      <c r="AX86"/>
+      <c r="AY86"/>
+      <c r="AZ86"/>
+      <c r="BA86"/>
+      <c r="BB86"/>
+      <c r="BC86"/>
+      <c r="BD86"/>
+      <c r="BE86"/>
+      <c r="BF86"/>
+      <c r="BG86"/>
+      <c r="BH86"/>
+      <c r="BI86"/>
+      <c r="BJ86"/>
+      <c r="BK86"/>
+      <c r="BL86"/>
+      <c r="BM86"/>
+      <c r="BN86"/>
+      <c r="BO86"/>
+      <c r="BP86"/>
+      <c r="BQ86"/>
+      <c r="BR86"/>
+      <c r="BS86"/>
+      <c r="BT86"/>
+      <c r="BU86"/>
+      <c r="BV86"/>
+      <c r="BW86"/>
+      <c r="BX86"/>
+      <c r="BY86"/>
+      <c r="BZ86"/>
+      <c r="CA86"/>
+      <c r="CB86"/>
+      <c r="CC86"/>
+      <c r="CD86"/>
+      <c r="CE86"/>
+      <c r="CF86"/>
+      <c r="CG86"/>
+      <c r="CH86"/>
+      <c r="CI86"/>
+      <c r="CJ86"/>
+      <c r="CK86"/>
+      <c r="CL86"/>
+      <c r="CM86"/>
+      <c r="CN86"/>
+      <c r="CO86"/>
+      <c r="CP86"/>
+      <c r="CQ86"/>
+      <c r="CR86"/>
+      <c r="CS86"/>
+      <c r="CT86"/>
+      <c r="CU86"/>
+      <c r="CV86"/>
+      <c r="CW86"/>
+      <c r="CX86"/>
+      <c r="CY86"/>
+      <c r="CZ86"/>
+      <c r="DA86"/>
+      <c r="DB86"/>
+      <c r="DC86"/>
+      <c r="DD86"/>
+      <c r="DE86"/>
+      <c r="DF86"/>
+      <c r="DG86"/>
+      <c r="DH86"/>
+      <c r="DI86"/>
+      <c r="DJ86"/>
+      <c r="DK86"/>
+      <c r="DL86"/>
+      <c r="DM86"/>
+      <c r="DN86"/>
+      <c r="DO86"/>
+      <c r="DP86"/>
+      <c r="DQ86"/>
+      <c r="DR86"/>
+      <c r="DS86"/>
+      <c r="DT86"/>
+      <c r="DU86"/>
+      <c r="DV86"/>
+      <c r="DW86"/>
+      <c r="DX86"/>
+      <c r="DY86"/>
+      <c r="DZ86"/>
+      <c r="EA86"/>
+      <c r="EB86"/>
+      <c r="EC86"/>
+      <c r="ED86"/>
+      <c r="EE86"/>
+      <c r="EF86"/>
+      <c r="EG86"/>
+      <c r="EH86"/>
+      <c r="EI86"/>
+      <c r="EJ86"/>
+      <c r="EK86"/>
+      <c r="EL86"/>
+      <c r="EM86"/>
+      <c r="EN86"/>
+      <c r="EO86"/>
+      <c r="EP86"/>
+      <c r="EQ86"/>
+      <c r="ER86"/>
+      <c r="ES86"/>
+      <c r="ET86"/>
+      <c r="EU86"/>
+      <c r="EV86"/>
+      <c r="EW86"/>
+      <c r="EX86"/>
+      <c r="EY86"/>
+      <c r="EZ86"/>
+      <c r="FA86"/>
+      <c r="FB86"/>
+      <c r="FC86"/>
+      <c r="FD86"/>
+      <c r="FE86"/>
+      <c r="FF86"/>
+      <c r="FG86"/>
+      <c r="FH86"/>
+      <c r="FI86"/>
+      <c r="FJ86"/>
+      <c r="FK86"/>
+      <c r="FL86"/>
+      <c r="FM86"/>
+      <c r="FN86"/>
+      <c r="FO86"/>
+      <c r="FP86"/>
+      <c r="FQ86"/>
+      <c r="FR86"/>
+      <c r="FS86"/>
+      <c r="FT86"/>
+      <c r="FU86"/>
+      <c r="FV86"/>
+      <c r="FW86"/>
+      <c r="FX86"/>
+      <c r="FY86"/>
+      <c r="FZ86"/>
+      <c r="GA86"/>
+      <c r="GB86"/>
+      <c r="GC86"/>
+      <c r="GD86"/>
+      <c r="GE86"/>
+      <c r="GF86"/>
+      <c r="GG86"/>
+      <c r="GH86"/>
+      <c r="GI86"/>
+      <c r="GJ86"/>
+      <c r="GK86"/>
+      <c r="GL86"/>
+      <c r="GM86"/>
+      <c r="GN86"/>
+      <c r="GO86"/>
+      <c r="GP86"/>
+      <c r="GQ86"/>
+      <c r="GR86"/>
+      <c r="GS86"/>
+      <c r="GT86"/>
+      <c r="GU86"/>
+      <c r="GV86"/>
+      <c r="GW86"/>
+      <c r="GX86"/>
+      <c r="GY86" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="GZ86" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>293</v>
+      </c>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+      <c r="AE87"/>
+      <c r="AF87"/>
+      <c r="AG87"/>
+      <c r="AH87"/>
+      <c r="AI87"/>
+      <c r="AJ87"/>
+      <c r="AK87"/>
+      <c r="AL87"/>
+      <c r="AM87"/>
+      <c r="AN87"/>
+      <c r="AO87"/>
+      <c r="AP87"/>
+      <c r="AQ87"/>
+      <c r="AR87"/>
+      <c r="AS87"/>
+      <c r="AT87"/>
+      <c r="AU87"/>
+      <c r="AV87"/>
+      <c r="AW87"/>
+      <c r="AX87"/>
+      <c r="AY87"/>
+      <c r="AZ87"/>
+      <c r="BA87"/>
+      <c r="BB87"/>
+      <c r="BC87"/>
+      <c r="BD87"/>
+      <c r="BE87"/>
+      <c r="BF87"/>
+      <c r="BG87"/>
+      <c r="BH87"/>
+      <c r="BI87"/>
+      <c r="BJ87"/>
+      <c r="BK87"/>
+      <c r="BL87"/>
+      <c r="BM87"/>
+      <c r="BN87"/>
+      <c r="BO87"/>
+      <c r="BP87"/>
+      <c r="BQ87"/>
+      <c r="BR87"/>
+      <c r="BS87"/>
+      <c r="BT87"/>
+      <c r="BU87"/>
+      <c r="BV87"/>
+      <c r="BW87"/>
+      <c r="BX87"/>
+      <c r="BY87"/>
+      <c r="BZ87"/>
+      <c r="CA87"/>
+      <c r="CB87"/>
+      <c r="CC87"/>
+      <c r="CD87"/>
+      <c r="CE87"/>
+      <c r="CF87"/>
+      <c r="CG87"/>
+      <c r="CH87"/>
+      <c r="CI87"/>
+      <c r="CJ87"/>
+      <c r="CK87"/>
+      <c r="CL87"/>
+      <c r="CM87"/>
+      <c r="CN87"/>
+      <c r="CO87"/>
+      <c r="CP87"/>
+      <c r="CQ87"/>
+      <c r="CR87"/>
+      <c r="CS87"/>
+      <c r="CT87"/>
+      <c r="CU87"/>
+      <c r="CV87"/>
+      <c r="CW87"/>
+      <c r="CX87"/>
+      <c r="CY87"/>
+      <c r="CZ87"/>
+      <c r="DA87"/>
+      <c r="DB87"/>
+      <c r="DC87"/>
+      <c r="DD87"/>
+      <c r="DE87"/>
+      <c r="DF87"/>
+      <c r="DG87"/>
+      <c r="DH87"/>
+      <c r="DI87"/>
+      <c r="DJ87"/>
+      <c r="DK87"/>
+      <c r="DL87"/>
+      <c r="DM87"/>
+      <c r="DN87"/>
+      <c r="DO87"/>
+      <c r="DP87"/>
+      <c r="DQ87"/>
+      <c r="DR87"/>
+      <c r="DS87"/>
+      <c r="DT87"/>
+      <c r="DU87"/>
+      <c r="DV87"/>
+      <c r="DW87"/>
+      <c r="DX87"/>
+      <c r="DY87"/>
+      <c r="DZ87"/>
+      <c r="EA87"/>
+      <c r="EB87"/>
+      <c r="EC87"/>
+      <c r="ED87"/>
+      <c r="EE87"/>
+      <c r="EF87"/>
+      <c r="EG87"/>
+      <c r="EH87"/>
+      <c r="EI87"/>
+      <c r="EJ87"/>
+      <c r="EK87"/>
+      <c r="EL87"/>
+      <c r="EM87"/>
+      <c r="EN87"/>
+      <c r="EO87"/>
+      <c r="EP87"/>
+      <c r="EQ87"/>
+      <c r="ER87"/>
+      <c r="ES87"/>
+      <c r="ET87"/>
+      <c r="EU87"/>
+      <c r="EV87"/>
+      <c r="EW87"/>
+      <c r="EX87"/>
+      <c r="EY87"/>
+      <c r="EZ87"/>
+      <c r="FA87"/>
+      <c r="FB87"/>
+      <c r="FC87"/>
+      <c r="FD87"/>
+      <c r="FE87"/>
+      <c r="FF87"/>
+      <c r="FG87"/>
+      <c r="FH87"/>
+      <c r="FI87"/>
+      <c r="FJ87"/>
+      <c r="FK87"/>
+      <c r="FL87"/>
+      <c r="FM87"/>
+      <c r="FN87"/>
+      <c r="FO87"/>
+      <c r="FP87"/>
+      <c r="FQ87"/>
+      <c r="FR87"/>
+      <c r="FS87"/>
+      <c r="FT87"/>
+      <c r="FU87"/>
+      <c r="FV87"/>
+      <c r="FW87"/>
+      <c r="FX87"/>
+      <c r="FY87"/>
+      <c r="FZ87"/>
+      <c r="GA87"/>
+      <c r="GB87"/>
+      <c r="GC87"/>
+      <c r="GD87"/>
+      <c r="GE87"/>
+      <c r="GF87"/>
+      <c r="GG87"/>
+      <c r="GH87"/>
+      <c r="GI87"/>
+      <c r="GJ87"/>
+      <c r="GK87"/>
+      <c r="GL87"/>
+      <c r="GM87"/>
+      <c r="GN87"/>
+      <c r="GO87"/>
+      <c r="GP87"/>
+      <c r="GQ87"/>
+      <c r="GR87"/>
+      <c r="GS87"/>
+      <c r="GT87"/>
+      <c r="GU87" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="GV87" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="GW87" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX87" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="GY87" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="GZ87" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/haver_pivoted.xlsx
+++ b/data/haver_pivoted.xlsx
@@ -2474,7 +2474,7 @@
         <v>22741</v>
       </c>
       <c r="GZ2" t="n">
-        <v>23173.5</v>
+        <v>23187</v>
       </c>
     </row>
     <row r="3">
@@ -3100,7 +3100,7 @@
         <v>19368.3</v>
       </c>
       <c r="GZ3" t="n">
-        <v>19465.2</v>
+        <v>19469.4</v>
       </c>
     </row>
     <row r="4">
@@ -3726,7 +3726,7 @@
         <v>117.546</v>
       </c>
       <c r="GZ4" t="n">
-        <v>119.19</v>
+        <v>119.237</v>
       </c>
     </row>
     <row r="5">
@@ -4352,7 +4352,7 @@
         <v>15681.7</v>
       </c>
       <c r="GZ5" t="n">
-        <v>15946.2</v>
+        <v>15952.4</v>
       </c>
     </row>
     <row r="6">
@@ -4978,7 +4978,7 @@
         <v>13665.6</v>
       </c>
       <c r="GZ6" t="n">
-        <v>13719.3</v>
+        <v>13723.7</v>
       </c>
     </row>
     <row r="7">
@@ -5604,7 +5604,7 @@
         <v>114.772</v>
       </c>
       <c r="GZ7" t="n">
-        <v>116.252</v>
+        <v>116.259</v>
       </c>
     </row>
     <row r="8">
@@ -6230,7 +6230,7 @@
         <v>115.228</v>
       </c>
       <c r="GZ8" t="n">
-        <v>116.539</v>
+        <v>116.58</v>
       </c>
     </row>
     <row r="9">
@@ -6856,7 +6856,7 @@
         <v>121.544</v>
       </c>
       <c r="GZ9" t="n">
-        <v>123.305</v>
+        <v>123.542</v>
       </c>
     </row>
     <row r="10">
@@ -7482,7 +7482,7 @@
         <v>121.425</v>
       </c>
       <c r="GZ10" t="n">
-        <v>122.996</v>
+        <v>123.296</v>
       </c>
     </row>
     <row r="11">
@@ -8108,7 +8108,7 @@
         <v>122.101</v>
       </c>
       <c r="GZ11" t="n">
-        <v>124.76</v>
+        <v>124.693</v>
       </c>
     </row>
     <row r="12">
@@ -9360,7 +9360,7 @@
         <v>730.5</v>
       </c>
       <c r="GZ13" t="n">
-        <v>740</v>
+        <v>786.3</v>
       </c>
     </row>
     <row r="14">
@@ -9986,7 +9986,7 @@
         <v>480.4</v>
       </c>
       <c r="GZ14" t="n">
-        <v>272.6</v>
+        <v>272.3</v>
       </c>
     </row>
     <row r="15">
@@ -10612,7 +10612,7 @@
         <v>4257.8</v>
       </c>
       <c r="GZ15" t="n">
-        <v>4038.8</v>
+        <v>4080.8</v>
       </c>
     </row>
     <row r="16">
@@ -11861,10 +11861,10 @@
         <v>2412.1</v>
       </c>
       <c r="GY17" t="n">
-        <v>2514.8</v>
+        <v>2532.5</v>
       </c>
       <c r="GZ17" t="n">
-        <v>2592.1</v>
+        <v>2619.2</v>
       </c>
     </row>
     <row r="18">
@@ -12490,7 +12490,7 @@
         <v>1636.3</v>
       </c>
       <c r="GZ18" t="n">
-        <v>1658.9</v>
+        <v>1661.6</v>
       </c>
     </row>
     <row r="19">
@@ -13116,7 +13116,7 @@
         <v>366.9</v>
       </c>
       <c r="GZ19" t="n">
-        <v>334.266666666667</v>
+        <v>384.5</v>
       </c>
     </row>
     <row r="20">
@@ -13742,7 +13742,7 @@
         <v>4015.9</v>
       </c>
       <c r="GZ20" t="n">
-        <v>4077</v>
+        <v>4083.7</v>
       </c>
     </row>
     <row r="21">
@@ -14365,10 +14365,10 @@
         <v>1539.2</v>
       </c>
       <c r="GY21" t="n">
-        <v>1564.2</v>
+        <v>1577.7</v>
       </c>
       <c r="GZ21" t="n">
-        <v>1594.5</v>
+        <v>1613.5</v>
       </c>
     </row>
     <row r="22">
@@ -14994,7 +14994,7 @@
         <v>114.753</v>
       </c>
       <c r="GZ22" t="n">
-        <v>116.232</v>
+        <v>116.239</v>
       </c>
     </row>
     <row r="23">
@@ -15620,7 +15620,7 @@
         <v>1563.3</v>
       </c>
       <c r="GZ23" t="n">
-        <v>1562.1</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="24">
@@ -16246,7 +16246,7 @@
         <v>2452.6</v>
       </c>
       <c r="GZ24" t="n">
-        <v>2514.9</v>
+        <v>2521.7</v>
       </c>
     </row>
     <row r="25">
@@ -16872,7 +16872,7 @@
         <v>1356.7</v>
       </c>
       <c r="GZ25" t="n">
-        <v>1340.4</v>
+        <v>1339.9</v>
       </c>
     </row>
     <row r="26">
@@ -17498,7 +17498,7 @@
         <v>2017.9</v>
       </c>
       <c r="GZ26" t="n">
-        <v>2039.6</v>
+        <v>2041.1</v>
       </c>
     </row>
     <row r="27">
@@ -18121,10 +18121,10 @@
         <v>1851.9</v>
       </c>
       <c r="GY27" t="n">
-        <v>1928.3</v>
+        <v>1946.1</v>
       </c>
       <c r="GZ27" t="n">
-        <v>1994.3</v>
+        <v>2019.3</v>
       </c>
     </row>
     <row r="28">
@@ -18750,7 +18750,7 @@
         <v>177.8</v>
       </c>
       <c r="GZ28" t="n">
-        <v>173.1</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
@@ -19376,7 +19376,7 @@
         <v>275.1</v>
       </c>
       <c r="GZ29" t="n">
-        <v>248.866666666667</v>
+        <v>293.1</v>
       </c>
     </row>
     <row r="30">
@@ -19999,10 +19999,10 @@
         <v>1517.9</v>
       </c>
       <c r="GY30" t="n">
-        <v>1542.2</v>
+        <v>1555.7</v>
       </c>
       <c r="GZ30" t="n">
-        <v>1572.1</v>
+        <v>1591.1</v>
       </c>
     </row>
     <row r="31">
@@ -20628,7 +20628,7 @@
         <v>3372.3</v>
       </c>
       <c r="GZ31" t="n">
-        <v>3141.4</v>
+        <v>3136.6</v>
       </c>
     </row>
     <row r="32">
@@ -21880,7 +21880,7 @@
         <v>586.4</v>
       </c>
       <c r="GZ33" t="n">
-        <v>597.7</v>
+        <v>599.9</v>
       </c>
     </row>
     <row r="34">
@@ -22506,7 +22506,7 @@
         <v>1458.5</v>
       </c>
       <c r="GZ34" t="n">
-        <v>1485.8</v>
+        <v>1488.6</v>
       </c>
     </row>
     <row r="35">
@@ -23132,7 +23132,7 @@
         <v>91.9</v>
       </c>
       <c r="GZ35" t="n">
-        <v>85.4</v>
+        <v>91.4</v>
       </c>
     </row>
     <row r="36">
@@ -23758,7 +23758,7 @@
         <v>21.9</v>
       </c>
       <c r="GZ36" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="37">
@@ -24384,7 +24384,7 @@
         <v>885.5</v>
       </c>
       <c r="GZ37" t="n">
-        <v>897.4</v>
+        <v>944.3</v>
       </c>
     </row>
     <row r="38">
@@ -25010,7 +25010,7 @@
         <v>3337.6</v>
       </c>
       <c r="GZ38" t="n">
-        <v>3394.2</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="39">
@@ -27146,7 +27146,7 @@
         <v>697</v>
       </c>
       <c r="GZ42" t="n">
-        <v>554.5</v>
+        <v>554.4</v>
       </c>
     </row>
     <row r="43">
@@ -28846,7 +28846,7 @@
         <v>14.1</v>
       </c>
       <c r="GZ46" t="n">
-        <v>15</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="47">
@@ -31760,7 +31760,7 @@
         <v>104.5</v>
       </c>
       <c r="GZ59" t="n">
-        <v>61.6</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="60">
@@ -31984,7 +31984,7 @@
         <v>82.1</v>
       </c>
       <c r="GZ60" t="n">
-        <v>50.1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61">
@@ -32432,7 +32432,7 @@
         <v>429.7</v>
       </c>
       <c r="GZ62" t="n">
-        <v>230.6</v>
+        <v>230.4</v>
       </c>
     </row>
     <row r="63">
@@ -32656,7 +32656,7 @@
         <v>5.8</v>
       </c>
       <c r="GZ63" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="64">
@@ -33504,7 +33504,7 @@
         <v>89.9</v>
       </c>
       <c r="GZ65" t="n">
-        <v>100.9</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="66">
@@ -34130,7 +34130,7 @@
         <v>128.939</v>
       </c>
       <c r="GZ66" t="n">
-        <v>140.094</v>
+        <v>135.881</v>
       </c>
     </row>
     <row r="67">
@@ -37886,7 +37886,7 @@
         <v>5023</v>
       </c>
       <c r="GZ72" t="n">
-        <v>5062.66666666667</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="73">
@@ -38512,7 +38512,7 @@
         <v>13769.3333333333</v>
       </c>
       <c r="GZ73" t="n">
-        <v>14107</v>
+        <v>14088.3333333333</v>
       </c>
     </row>
     <row r="74">
@@ -39138,7 +39138,7 @@
         <v>318491.333333333</v>
       </c>
       <c r="GZ74" t="n">
-        <v>323230.555555556</v>
+        <v>321326.333333333</v>
       </c>
     </row>
     <row r="75">
@@ -39764,7 +39764,7 @@
         <v>0.0148498609983942</v>
       </c>
       <c r="GZ75" t="n">
-        <v>0.013986013986014</v>
+        <v>0.0143858574515507</v>
       </c>
     </row>
     <row r="76">
@@ -40390,7 +40390,7 @@
         <v>0.0157802971970722</v>
       </c>
       <c r="GZ76" t="n">
-        <v>0.012895131216673</v>
+        <v>0.0129561217021572</v>
       </c>
     </row>
     <row r="77">
@@ -41016,7 +41016,7 @@
         <v>0.010195940910884</v>
       </c>
       <c r="GZ77" t="n">
-        <v>0.0113774429826086</v>
+        <v>0.011733259277259</v>
       </c>
     </row>
     <row r="78">
@@ -41642,7 +41642,7 @@
         <v>0.0178200576137202</v>
       </c>
       <c r="GZ78" t="n">
-        <v>0.0144885802672283</v>
+        <v>0.016438491410518</v>
       </c>
     </row>
     <row r="79">
@@ -42268,7 +42268,7 @@
         <v>0.0167979969686567</v>
       </c>
       <c r="GZ79" t="n">
-        <v>0.0129380275890467</v>
+        <v>0.015408688490838</v>
       </c>
     </row>
     <row r="80">
@@ -42894,7 +42894,7 @@
         <v>0.0224844241977624</v>
       </c>
       <c r="GZ80" t="n">
-        <v>0.021777053422986</v>
+        <v>0.0212283273683262</v>
       </c>
     </row>
     <row r="81">
@@ -43517,10 +43517,10 @@
         <v>9888.1</v>
       </c>
       <c r="GY81" t="n">
-        <v>10087.8</v>
+        <v>10189.1</v>
       </c>
       <c r="GZ81" t="n">
-        <v>10327.7</v>
+        <v>10472.4</v>
       </c>
     </row>
     <row r="82">
@@ -44146,7 +44146,7 @@
         <v>1848.2</v>
       </c>
       <c r="GZ82" t="n">
-        <v>1850.6</v>
+        <v>1854.2</v>
       </c>
     </row>
     <row r="83">
@@ -44772,7 +44772,7 @@
         <v>716.3</v>
       </c>
       <c r="GZ83" t="n">
-        <v>729.3</v>
+        <v>728</v>
       </c>
     </row>
     <row r="84">
@@ -45398,7 +45398,7 @@
         <v>2932.1</v>
       </c>
       <c r="GZ84" t="n">
-        <v>2949.6</v>
+        <v>2949.8</v>
       </c>
     </row>
     <row r="85">
@@ -46024,7 +46024,7 @@
         <v>2359</v>
       </c>
       <c r="GZ85" t="n">
-        <v>2131.5</v>
+        <v>2440.4</v>
       </c>
     </row>
     <row r="86">

--- a/data/haver_pivoted.xlsx
+++ b/data/haver_pivoted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -638,6 +638,9 @@
     <t xml:space="preserve">2021 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">2021 Q4</t>
+  </si>
+  <si>
     <t xml:space="preserve">gdp</t>
   </si>
   <si>
@@ -897,6 +900,9 @@
   </si>
   <si>
     <t xml:space="preserve">gftfbdx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yptocm</t>
   </si>
 </sst>
 </file>
@@ -1853,10 +1859,13 @@
       <c r="GZ1" t="s">
         <v>207</v>
       </c>
+      <c r="HA1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B2" t="n">
         <v>1051.2</v>
@@ -2477,12 +2486,15 @@
         <v>22741</v>
       </c>
       <c r="GZ2" t="n">
-        <v>23187</v>
+        <v>23202.3</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>23992.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B3" t="n">
         <v>4939.8</v>
@@ -3103,12 +3115,15 @@
         <v>19368.3</v>
       </c>
       <c r="GZ3" t="n">
-        <v>19469.4</v>
+        <v>19478.9</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>19806</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B4" t="n">
         <v>21.272</v>
@@ -3729,12 +3744,15 @@
         <v>117.546</v>
       </c>
       <c r="GZ4" t="n">
-        <v>119.237</v>
+        <v>119.259</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>121.277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B5" t="n">
         <v>631.7</v>
@@ -4355,12 +4373,15 @@
         <v>15681.7</v>
       </c>
       <c r="GZ5" t="n">
-        <v>15952.4</v>
+        <v>15964.9</v>
+      </c>
+      <c r="HA5" t="n">
+        <v>16347.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B6" t="n">
         <v>3071.1</v>
@@ -4981,12 +5002,15 @@
         <v>13665.6</v>
       </c>
       <c r="GZ6" t="n">
-        <v>13723.7</v>
+        <v>13732.4</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>13842.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B7" t="n">
         <v>20.57</v>
@@ -5607,12 +5631,15 @@
         <v>114.772</v>
       </c>
       <c r="GZ7" t="n">
-        <v>116.259</v>
+        <v>116.277</v>
+      </c>
+      <c r="HA7" t="n">
+        <v>118.117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B8" t="n">
         <v>18.704</v>
@@ -6233,12 +6260,15 @@
         <v>115.228</v>
       </c>
       <c r="GZ8" t="n">
-        <v>116.58</v>
+        <v>116.643</v>
+      </c>
+      <c r="HA8" t="n">
+        <v>118.151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B9" t="n">
         <v>13.706</v>
@@ -6859,12 +6889,15 @@
         <v>121.544</v>
       </c>
       <c r="GZ9" t="n">
-        <v>123.542</v>
+        <v>123.541</v>
+      </c>
+      <c r="HA9" t="n">
+        <v>126.175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B10" t="n">
         <v>13.107</v>
@@ -7485,12 +7518,15 @@
         <v>121.425</v>
       </c>
       <c r="GZ10" t="n">
-        <v>123.296</v>
+        <v>123.291</v>
+      </c>
+      <c r="HA10" t="n">
+        <v>125.721</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B11" t="n">
         <v>16.825</v>
@@ -8111,12 +8147,15 @@
         <v>122.101</v>
       </c>
       <c r="GZ11" t="n">
-        <v>124.693</v>
+        <v>124.71</v>
+      </c>
+      <c r="HA11" t="n">
+        <v>128.322</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B12" t="n">
         <v>7</v>
@@ -8738,11 +8777,14 @@
       </c>
       <c r="GZ12" t="n">
         <v>826.5</v>
+      </c>
+      <c r="HA12" t="n">
+        <v>847.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B13" t="n">
         <v>5</v>
@@ -9363,12 +9405,15 @@
         <v>730.5</v>
       </c>
       <c r="GZ13" t="n">
-        <v>786.3</v>
+        <v>775</v>
+      </c>
+      <c r="HA13" t="n">
+        <v>792.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B14" t="n">
         <v>2.9</v>
@@ -9990,11 +10035,14 @@
       </c>
       <c r="GZ14" t="n">
         <v>272.3</v>
+      </c>
+      <c r="HA14" t="n">
+        <v>37.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B15" t="n">
         <v>63</v>
@@ -10615,12 +10663,15 @@
         <v>4257.8</v>
       </c>
       <c r="GZ15" t="n">
-        <v>4080.8</v>
+        <v>4069.6</v>
+      </c>
+      <c r="HA15" t="n">
+        <v>3888.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B16" t="n">
         <v>1.2</v>
@@ -11242,11 +11293,14 @@
       </c>
       <c r="GZ16" t="n">
         <v>116.8</v>
+      </c>
+      <c r="HA16" t="n">
+        <v>117.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B17" t="n">
         <v>104.6</v>
@@ -11867,12 +11921,15 @@
         <v>2532.5</v>
       </c>
       <c r="GZ17" t="n">
-        <v>2619.2</v>
+        <v>2623.7</v>
+      </c>
+      <c r="HA17" t="n">
+        <v>2715.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B18" t="n">
         <v>88.5</v>
@@ -12493,12 +12550,15 @@
         <v>1636.3</v>
       </c>
       <c r="GZ18" t="n">
-        <v>1661.6</v>
+        <v>1654.7</v>
+      </c>
+      <c r="HA18" t="n">
+        <v>1696.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B19" t="n">
         <v>30.7</v>
@@ -13119,12 +13179,15 @@
         <v>366.9</v>
       </c>
       <c r="GZ19" t="n">
-        <v>384.5</v>
+        <v>381.2</v>
+      </c>
+      <c r="HA19" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B20" t="n">
         <v>247.9</v>
@@ -13745,12 +13808,15 @@
         <v>4015.9</v>
       </c>
       <c r="GZ20" t="n">
-        <v>4083.7</v>
+        <v>4084.9</v>
+      </c>
+      <c r="HA20" t="n">
+        <v>4128.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B21" t="n">
         <v>46.2</v>
@@ -14371,12 +14437,15 @@
         <v>1577.7</v>
       </c>
       <c r="GZ21" t="n">
-        <v>1613.5</v>
+        <v>1613.2</v>
+      </c>
+      <c r="HA21" t="n">
+        <v>1645.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" t="n">
         <v>20.569</v>
@@ -14997,12 +15066,15 @@
         <v>114.753</v>
       </c>
       <c r="GZ22" t="n">
-        <v>116.239</v>
+        <v>116.257</v>
+      </c>
+      <c r="HA22" t="n">
+        <v>118.097</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B23" t="n">
         <v>133.6</v>
@@ -15624,11 +15696,14 @@
       </c>
       <c r="GZ23" t="n">
         <v>1562</v>
+      </c>
+      <c r="HA23" t="n">
+        <v>1566.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B24" t="n">
         <v>114.3</v>
@@ -16249,12 +16324,15 @@
         <v>2452.6</v>
       </c>
       <c r="GZ24" t="n">
-        <v>2521.7</v>
+        <v>2522.9</v>
+      </c>
+      <c r="HA24" t="n">
+        <v>2562.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B25" t="n">
         <v>714</v>
@@ -16875,12 +16953,15 @@
         <v>1356.7</v>
       </c>
       <c r="GZ25" t="n">
-        <v>1339.9</v>
+        <v>1339.1</v>
+      </c>
+      <c r="HA25" t="n">
+        <v>1325.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B26" t="n">
         <v>834.4</v>
@@ -17501,12 +17582,15 @@
         <v>2017.9</v>
       </c>
       <c r="GZ26" t="n">
-        <v>2041.1</v>
+        <v>2042.1</v>
+      </c>
+      <c r="HA26" t="n">
+        <v>2030.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B27" t="n">
         <v>90.6</v>
@@ -18127,12 +18211,15 @@
         <v>1946.1</v>
       </c>
       <c r="GZ27" t="n">
-        <v>2019.3</v>
+        <v>2018.5</v>
+      </c>
+      <c r="HA27" t="n">
+        <v>2088.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B28" t="n">
         <v>17.9</v>
@@ -18753,12 +18840,15 @@
         <v>177.8</v>
       </c>
       <c r="GZ28" t="n">
-        <v>173</v>
+        <v>172.9</v>
+      </c>
+      <c r="HA28" t="n">
+        <v>178.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B29" t="n">
         <v>27</v>
@@ -19379,12 +19469,15 @@
         <v>275.1</v>
       </c>
       <c r="GZ29" t="n">
-        <v>293.1</v>
+        <v>285.9</v>
+      </c>
+      <c r="HA29" t="n">
+        <v>269.133333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B30" t="n">
         <v>45.1</v>
@@ -20005,12 +20098,15 @@
         <v>1555.7</v>
       </c>
       <c r="GZ30" t="n">
-        <v>1591.1</v>
+        <v>1590.7</v>
+      </c>
+      <c r="HA30" t="n">
+        <v>1623</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B31" t="n">
         <v>48.3</v>
@@ -20631,12 +20727,15 @@
         <v>3372.3</v>
       </c>
       <c r="GZ31" t="n">
-        <v>3136.6</v>
+        <v>3136.3</v>
+      </c>
+      <c r="HA31" t="n">
+        <v>2939.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B32" t="n">
         <v>16.6</v>
@@ -21258,11 +21357,14 @@
       </c>
       <c r="GZ32" t="n">
         <v>1057.1</v>
+      </c>
+      <c r="HA32" t="n">
+        <v>892</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B33" t="n">
         <v>14</v>
@@ -21883,12 +21985,15 @@
         <v>586.4</v>
       </c>
       <c r="GZ33" t="n">
-        <v>599.9</v>
+        <v>605.1</v>
+      </c>
+      <c r="HA33" t="n">
+        <v>627.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B34" t="n">
         <v>70.6</v>
@@ -22509,12 +22614,15 @@
         <v>1458.5</v>
       </c>
       <c r="GZ34" t="n">
-        <v>1488.6</v>
+        <v>1481.8</v>
+      </c>
+      <c r="HA34" t="n">
+        <v>1517.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B35" t="n">
         <v>3.8</v>
@@ -23135,12 +23243,15 @@
         <v>91.9</v>
       </c>
       <c r="GZ35" t="n">
-        <v>91.4</v>
+        <v>95.3</v>
+      </c>
+      <c r="HA35" t="n">
+        <v>90.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B36" t="n">
         <v>1.1</v>
@@ -23762,11 +23873,14 @@
       </c>
       <c r="GZ36" t="n">
         <v>22.5</v>
+      </c>
+      <c r="HA36" t="n">
+        <v>22.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B37" t="n">
         <v>14.7</v>
@@ -24387,12 +24501,15 @@
         <v>885.5</v>
       </c>
       <c r="GZ37" t="n">
-        <v>944.3</v>
+        <v>933.2</v>
+      </c>
+      <c r="HA37" t="n">
+        <v>948.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B38" t="n">
         <v>129.9</v>
@@ -25013,12 +25130,15 @@
         <v>3337.6</v>
       </c>
       <c r="GZ38" t="n">
-        <v>3448</v>
+        <v>3438</v>
+      </c>
+      <c r="HA38" t="n">
+        <v>3480.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
@@ -25457,10 +25577,13 @@
       <c r="GZ39" t="n">
         <v>569.606</v>
       </c>
+      <c r="HA39" t="n">
+        <v>590.802</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B40"/>
       <c r="C40"/>
@@ -25899,10 +26022,13 @@
       <c r="GZ40" t="n">
         <v>530.821</v>
       </c>
+      <c r="HA40" t="n">
+        <v>541.835</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B41" t="n">
         <v>5.576</v>
@@ -26524,11 +26650,14 @@
       </c>
       <c r="GZ41" t="n">
         <v>72.767</v>
+      </c>
+      <c r="HA41" t="n">
+        <v>74.371</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B42" t="n">
         <v>4.7</v>
@@ -27149,12 +27278,15 @@
         <v>697</v>
       </c>
       <c r="GZ42" t="n">
-        <v>554.4</v>
+        <v>554.5</v>
+      </c>
+      <c r="HA42" t="n">
+        <v>305.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -27775,12 +27907,15 @@
         <v>8.6</v>
       </c>
       <c r="GZ43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="HA43" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B44" t="n">
         <v>4.7</v>
@@ -28402,11 +28537,14 @@
       </c>
       <c r="GZ44" t="n">
         <v>555.1</v>
+      </c>
+      <c r="HA44" t="n">
+        <v>305.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
@@ -28627,10 +28765,13 @@
       <c r="GZ45" t="n">
         <v>38.9</v>
       </c>
+      <c r="HA45" t="n">
+        <v>754.233333333333</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B46"/>
       <c r="C46"/>
@@ -28851,10 +28992,13 @@
       <c r="GZ46" t="n">
         <v>14.3</v>
       </c>
+      <c r="HA46" t="n">
+        <v>14.2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -29075,10 +29219,13 @@
       <c r="GZ47" t="n">
         <v>14</v>
       </c>
+      <c r="HA47" t="n">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
@@ -29301,10 +29448,13 @@
       <c r="GZ48" t="n">
         <v>37.4</v>
       </c>
+      <c r="HA48" t="n">
+        <v>35.6</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B49"/>
       <c r="C49"/>
@@ -29525,10 +29675,13 @@
       <c r="GZ49" t="n">
         <v>265</v>
       </c>
+      <c r="HA49" t="n">
+        <v>292.266666666667</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B50"/>
       <c r="C50"/>
@@ -29749,10 +29902,13 @@
       <c r="GZ50" t="n">
         <v>0.7</v>
       </c>
+      <c r="HA50" t="n">
+        <v>28.6666666666667</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
@@ -29973,10 +30129,13 @@
       <c r="GZ51" t="n">
         <v>62.9</v>
       </c>
+      <c r="HA51" t="n">
+        <v>62.9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B52"/>
       <c r="C52"/>
@@ -30197,10 +30356,13 @@
       <c r="GZ52" t="n">
         <v>18.5</v>
       </c>
+      <c r="HA52" t="n">
+        <v>13.5333333333333</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B53"/>
       <c r="C53"/>
@@ -30421,10 +30583,13 @@
       <c r="GZ53" t="n">
         <v>8.7</v>
       </c>
+      <c r="HA53" t="n">
+        <v>7.96666666666667</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B54"/>
       <c r="C54"/>
@@ -30645,10 +30810,13 @@
       <c r="GZ54" t="n">
         <v>22.4</v>
       </c>
+      <c r="HA54" t="n">
+        <v>21.3666666666667</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
@@ -30869,10 +31037,13 @@
       <c r="GZ55" t="n">
         <v>8</v>
       </c>
+      <c r="HA55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B56"/>
       <c r="C56"/>
@@ -31093,10 +31264,13 @@
       <c r="GZ56" t="n">
         <v>187.9</v>
       </c>
+      <c r="HA56" t="n">
+        <v>324.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B57"/>
       <c r="C57"/>
@@ -31317,10 +31491,13 @@
       <c r="GZ57" t="n">
         <v>80.7</v>
       </c>
+      <c r="HA57" t="n">
+        <v>59.0666666666667</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B58"/>
       <c r="C58"/>
@@ -31541,10 +31718,13 @@
       <c r="GZ58" t="n">
         <v>15</v>
       </c>
+      <c r="HA58" t="n">
+        <v>14.2333333333333</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
@@ -31765,10 +31945,13 @@
       <c r="GZ59" t="n">
         <v>61.5</v>
       </c>
+      <c r="HA59" t="n">
+        <v>87.9333333333333</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B60"/>
       <c r="C60"/>
@@ -31989,10 +32172,13 @@
       <c r="GZ60" t="n">
         <v>50</v>
       </c>
+      <c r="HA60" t="n">
+        <v>75.8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
@@ -32213,10 +32399,13 @@
       <c r="GZ61" t="n">
         <v>113.2</v>
       </c>
+      <c r="HA61" t="n">
+        <v>212.433333333333</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
@@ -32437,10 +32626,13 @@
       <c r="GZ62" t="n">
         <v>230.4</v>
       </c>
+      <c r="HA62" t="n">
+        <v>388.366666666667</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
@@ -32661,10 +32853,13 @@
       <c r="GZ63" t="n">
         <v>5.7</v>
       </c>
+      <c r="HA63" t="n">
+        <v>12.1666666666667</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
@@ -32883,10 +33078,13 @@
       <c r="GZ64" t="n">
         <v>0.1</v>
       </c>
+      <c r="HA64" t="n">
+        <v>0.766666666666667</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B65" t="n">
         <v>5.7</v>
@@ -33508,11 +33706,14 @@
       </c>
       <c r="GZ65" t="n">
         <v>100.6</v>
+      </c>
+      <c r="HA65" t="n">
+        <v>90.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B66" t="n">
         <v>0.584</v>
@@ -34133,12 +34334,15 @@
         <v>128.939</v>
       </c>
       <c r="GZ66" t="n">
-        <v>135.881</v>
+        <v>135.661</v>
+      </c>
+      <c r="HA66" t="n">
+        <v>143.268</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B67" t="n">
         <v>38.1</v>
@@ -34760,11 +34964,14 @@
       </c>
       <c r="GZ67" t="n">
         <v>273.138333333333</v>
+      </c>
+      <c r="HA67" t="n">
+        <v>278.598666666667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B68" t="n">
         <v>38.3</v>
@@ -35386,11 +35593,14 @@
       </c>
       <c r="GZ68" t="n">
         <v>267.855333333333</v>
+      </c>
+      <c r="HA68" t="n">
+        <v>273.757666666667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B69" t="n">
         <v>4942.2</v>
@@ -36012,11 +36222,14 @@
       </c>
       <c r="GZ69" t="n">
         <v>19795.8</v>
+      </c>
+      <c r="HA69" t="n">
+        <v>19898.3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B70" t="n">
         <v>1052.4</v>
@@ -36638,11 +36851,14 @@
       </c>
       <c r="GZ70" t="n">
         <v>23233.1</v>
+      </c>
+      <c r="HA70" t="n">
+        <v>23461.3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -37263,12 +37479,15 @@
         <v>-1</v>
       </c>
       <c r="GZ71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA71" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B72" t="n">
         <v>2613.33333333333</v>
@@ -37889,12 +38108,15 @@
         <v>5023</v>
       </c>
       <c r="GZ72" t="n">
-        <v>5069</v>
+        <v>5072.66666666667</v>
+      </c>
+      <c r="HA72" t="n">
+        <v>5035.33333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B73" t="n">
         <v>7048.66666666667</v>
@@ -38516,11 +38738,14 @@
       </c>
       <c r="GZ73" t="n">
         <v>14088.3333333333</v>
+      </c>
+      <c r="HA73" t="n">
+        <v>14007.6666666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B74" t="n">
         <v>23545.6666666667</v>
@@ -39141,12 +39366,15 @@
         <v>318491.333333333</v>
       </c>
       <c r="GZ74" t="n">
-        <v>321326.333333333</v>
+        <v>321889.666666667</v>
+      </c>
+      <c r="HA74" t="n">
+        <v>321085.444444444</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B75" t="n">
         <v>0.014432117337345</v>
@@ -39767,12 +39995,15 @@
         <v>0.0148498609983942</v>
       </c>
       <c r="GZ75" t="n">
-        <v>0.0143858574515507</v>
+        <v>0.0145730182226531</v>
+      </c>
+      <c r="HA75" t="n">
+        <v>0.0169211547975414</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B76" t="n">
         <v>0.0110841030627127</v>
@@ -40393,12 +40624,15 @@
         <v>0.0157802971970722</v>
       </c>
       <c r="GZ76" t="n">
-        <v>0.0129561217021572</v>
+        <v>0.0131129543791169</v>
+      </c>
+      <c r="HA76" t="n">
+        <v>0.0158242816722138</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B77" t="n">
         <v>0.0132057313943541</v>
@@ -41019,12 +41253,15 @@
         <v>0.010195940910884</v>
       </c>
       <c r="GZ77" t="n">
-        <v>0.011733259277259</v>
+        <v>0.0122800013885513</v>
+      </c>
+      <c r="HA77" t="n">
+        <v>0.0129283368911979</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B78" t="n">
         <v>0.0212315774113527</v>
@@ -41645,12 +41882,15 @@
         <v>0.0178200576137202</v>
       </c>
       <c r="GZ78" t="n">
-        <v>0.016438491410518</v>
+        <v>0.0164302639373395</v>
+      </c>
+      <c r="HA78" t="n">
+        <v>0.0213208570434107</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B79" t="n">
         <v>0.019913023575189</v>
@@ -42271,12 +42511,15 @@
         <v>0.0167979969686567</v>
       </c>
       <c r="GZ79" t="n">
-        <v>0.015408688490838</v>
+        <v>0.0153675108091413</v>
+      </c>
+      <c r="HA79" t="n">
+        <v>0.0197094678443683</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B80" t="n">
         <v>0.0251411589895989</v>
@@ -42897,12 +43140,15 @@
         <v>0.0224844241977624</v>
       </c>
       <c r="GZ80" t="n">
-        <v>0.0212283273683262</v>
+        <v>0.0213675563672697</v>
+      </c>
+      <c r="HA80" t="n">
+        <v>0.0289631946114988</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B81" t="n">
         <v>545.1</v>
@@ -43523,12 +43769,15 @@
         <v>10189.1</v>
       </c>
       <c r="GZ81" t="n">
-        <v>10472.4</v>
+        <v>10469.5</v>
+      </c>
+      <c r="HA81" t="n">
+        <v>10716.8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B82" t="n">
         <v>77.1</v>
@@ -44149,12 +44398,15 @@
         <v>1848.2</v>
       </c>
       <c r="GZ82" t="n">
-        <v>1854.2</v>
+        <v>1867</v>
+      </c>
+      <c r="HA82" t="n">
+        <v>1850.7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B83" t="n">
         <v>20.4</v>
@@ -44775,12 +45027,15 @@
         <v>716.3</v>
       </c>
       <c r="GZ83" t="n">
-        <v>728</v>
+        <v>729</v>
+      </c>
+      <c r="HA83" t="n">
+        <v>749.9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B84" t="n">
         <v>109.2</v>
@@ -45401,12 +45656,15 @@
         <v>2932.1</v>
       </c>
       <c r="GZ84" t="n">
-        <v>2949.8</v>
+        <v>2945.2</v>
+      </c>
+      <c r="HA84" t="n">
+        <v>2986.9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B85" t="n">
         <v>77.5</v>
@@ -46027,12 +46285,15 @@
         <v>2359</v>
       </c>
       <c r="GZ85" t="n">
-        <v>2440.4</v>
+        <v>2404.8</v>
+      </c>
+      <c r="HA85" t="n">
+        <v>2282.93333333333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B86"/>
       <c r="C86"/>
@@ -46245,10 +46506,11 @@
       <c r="GZ86" t="n">
         <v>57</v>
       </c>
+      <c r="HA86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B87"/>
       <c r="C87"/>
@@ -46469,10 +46731,13 @@
       <c r="GZ87" t="n">
         <v>10.4</v>
       </c>
+      <c r="HA87" t="n">
+        <v>7.33333333333333</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B88" t="n">
         <v>27088</v>
@@ -47093,8 +47358,230 @@
         <v>1109664</v>
       </c>
       <c r="GZ88" t="n">
-        <v>1117221</v>
-      </c>
+        <v>1117202</v>
+      </c>
+      <c r="HA88" t="n">
+        <v>1126929</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>296</v>
+      </c>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+      <c r="AB89"/>
+      <c r="AC89"/>
+      <c r="AD89"/>
+      <c r="AE89"/>
+      <c r="AF89"/>
+      <c r="AG89"/>
+      <c r="AH89"/>
+      <c r="AI89"/>
+      <c r="AJ89"/>
+      <c r="AK89"/>
+      <c r="AL89"/>
+      <c r="AM89"/>
+      <c r="AN89"/>
+      <c r="AO89"/>
+      <c r="AP89"/>
+      <c r="AQ89"/>
+      <c r="AR89"/>
+      <c r="AS89"/>
+      <c r="AT89"/>
+      <c r="AU89"/>
+      <c r="AV89"/>
+      <c r="AW89"/>
+      <c r="AX89"/>
+      <c r="AY89"/>
+      <c r="AZ89"/>
+      <c r="BA89"/>
+      <c r="BB89"/>
+      <c r="BC89"/>
+      <c r="BD89"/>
+      <c r="BE89"/>
+      <c r="BF89"/>
+      <c r="BG89"/>
+      <c r="BH89"/>
+      <c r="BI89"/>
+      <c r="BJ89"/>
+      <c r="BK89"/>
+      <c r="BL89"/>
+      <c r="BM89"/>
+      <c r="BN89"/>
+      <c r="BO89"/>
+      <c r="BP89"/>
+      <c r="BQ89"/>
+      <c r="BR89"/>
+      <c r="BS89"/>
+      <c r="BT89"/>
+      <c r="BU89"/>
+      <c r="BV89"/>
+      <c r="BW89"/>
+      <c r="BX89"/>
+      <c r="BY89"/>
+      <c r="BZ89"/>
+      <c r="CA89"/>
+      <c r="CB89"/>
+      <c r="CC89"/>
+      <c r="CD89"/>
+      <c r="CE89"/>
+      <c r="CF89"/>
+      <c r="CG89"/>
+      <c r="CH89"/>
+      <c r="CI89"/>
+      <c r="CJ89"/>
+      <c r="CK89"/>
+      <c r="CL89"/>
+      <c r="CM89"/>
+      <c r="CN89"/>
+      <c r="CO89"/>
+      <c r="CP89"/>
+      <c r="CQ89"/>
+      <c r="CR89"/>
+      <c r="CS89"/>
+      <c r="CT89"/>
+      <c r="CU89"/>
+      <c r="CV89"/>
+      <c r="CW89"/>
+      <c r="CX89"/>
+      <c r="CY89"/>
+      <c r="CZ89"/>
+      <c r="DA89"/>
+      <c r="DB89"/>
+      <c r="DC89"/>
+      <c r="DD89"/>
+      <c r="DE89"/>
+      <c r="DF89"/>
+      <c r="DG89"/>
+      <c r="DH89"/>
+      <c r="DI89"/>
+      <c r="DJ89"/>
+      <c r="DK89"/>
+      <c r="DL89"/>
+      <c r="DM89"/>
+      <c r="DN89"/>
+      <c r="DO89"/>
+      <c r="DP89"/>
+      <c r="DQ89"/>
+      <c r="DR89"/>
+      <c r="DS89"/>
+      <c r="DT89"/>
+      <c r="DU89"/>
+      <c r="DV89"/>
+      <c r="DW89"/>
+      <c r="DX89"/>
+      <c r="DY89"/>
+      <c r="DZ89"/>
+      <c r="EA89"/>
+      <c r="EB89"/>
+      <c r="EC89"/>
+      <c r="ED89"/>
+      <c r="EE89"/>
+      <c r="EF89"/>
+      <c r="EG89"/>
+      <c r="EH89"/>
+      <c r="EI89"/>
+      <c r="EJ89"/>
+      <c r="EK89"/>
+      <c r="EL89"/>
+      <c r="EM89"/>
+      <c r="EN89"/>
+      <c r="EO89"/>
+      <c r="EP89"/>
+      <c r="EQ89"/>
+      <c r="ER89"/>
+      <c r="ES89"/>
+      <c r="ET89"/>
+      <c r="EU89"/>
+      <c r="EV89"/>
+      <c r="EW89"/>
+      <c r="EX89"/>
+      <c r="EY89"/>
+      <c r="EZ89"/>
+      <c r="FA89"/>
+      <c r="FB89"/>
+      <c r="FC89"/>
+      <c r="FD89"/>
+      <c r="FE89"/>
+      <c r="FF89"/>
+      <c r="FG89"/>
+      <c r="FH89"/>
+      <c r="FI89"/>
+      <c r="FJ89"/>
+      <c r="FK89"/>
+      <c r="FL89"/>
+      <c r="FM89"/>
+      <c r="FN89"/>
+      <c r="FO89"/>
+      <c r="FP89"/>
+      <c r="FQ89"/>
+      <c r="FR89"/>
+      <c r="FS89"/>
+      <c r="FT89"/>
+      <c r="FU89"/>
+      <c r="FV89"/>
+      <c r="FW89"/>
+      <c r="FX89"/>
+      <c r="FY89"/>
+      <c r="FZ89"/>
+      <c r="GA89"/>
+      <c r="GB89"/>
+      <c r="GC89"/>
+      <c r="GD89"/>
+      <c r="GE89"/>
+      <c r="GF89"/>
+      <c r="GG89"/>
+      <c r="GH89"/>
+      <c r="GI89"/>
+      <c r="GJ89"/>
+      <c r="GK89"/>
+      <c r="GL89"/>
+      <c r="GM89"/>
+      <c r="GN89"/>
+      <c r="GO89"/>
+      <c r="GP89"/>
+      <c r="GQ89"/>
+      <c r="GR89"/>
+      <c r="GS89"/>
+      <c r="GT89"/>
+      <c r="GU89"/>
+      <c r="GV89"/>
+      <c r="GW89"/>
+      <c r="GX89" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="GY89" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="GZ89" t="n">
+        <v>218.933333333333</v>
+      </c>
+      <c r="HA89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/haver_pivoted.xlsx
+++ b/data/haver_pivoted.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -1227,10 +1227,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2489,7 +2489,7 @@
         <v>23202.3</v>
       </c>
       <c r="HA2" t="n">
-        <v>23992.4</v>
+        <v>24008.5</v>
       </c>
     </row>
     <row r="3">
@@ -3118,7 +3118,7 @@
         <v>19478.9</v>
       </c>
       <c r="HA3" t="n">
-        <v>19806</v>
+        <v>19810.6</v>
       </c>
     </row>
     <row r="4">
@@ -3747,7 +3747,7 @@
         <v>119.259</v>
       </c>
       <c r="HA4" t="n">
-        <v>121.277</v>
+        <v>121.329</v>
       </c>
     </row>
     <row r="5">
@@ -4376,7 +4376,7 @@
         <v>15964.9</v>
       </c>
       <c r="HA5" t="n">
-        <v>16347.8</v>
+        <v>16335.5</v>
       </c>
     </row>
     <row r="6">
@@ -5005,7 +5005,7 @@
         <v>13732.4</v>
       </c>
       <c r="HA6" t="n">
-        <v>13842.7</v>
+        <v>13836.7</v>
       </c>
     </row>
     <row r="7">
@@ -5634,7 +5634,7 @@
         <v>116.277</v>
       </c>
       <c r="HA7" t="n">
-        <v>118.117</v>
+        <v>118.078</v>
       </c>
     </row>
     <row r="8">
@@ -6263,7 +6263,7 @@
         <v>116.643</v>
       </c>
       <c r="HA8" t="n">
-        <v>118.151</v>
+        <v>118.294</v>
       </c>
     </row>
     <row r="9">
@@ -6892,7 +6892,7 @@
         <v>123.541</v>
       </c>
       <c r="HA9" t="n">
-        <v>126.175</v>
+        <v>126.182</v>
       </c>
     </row>
     <row r="10">
@@ -7521,7 +7521,7 @@
         <v>123.291</v>
       </c>
       <c r="HA10" t="n">
-        <v>125.721</v>
+        <v>125.692</v>
       </c>
     </row>
     <row r="11">
@@ -8150,7 +8150,7 @@
         <v>124.71</v>
       </c>
       <c r="HA11" t="n">
-        <v>128.322</v>
+        <v>128.503</v>
       </c>
     </row>
     <row r="12">
@@ -9408,7 +9408,7 @@
         <v>775</v>
       </c>
       <c r="HA13" t="n">
-        <v>792.2</v>
+        <v>781.6</v>
       </c>
     </row>
     <row r="14">
@@ -10666,7 +10666,7 @@
         <v>4069.6</v>
       </c>
       <c r="HA15" t="n">
-        <v>3888.3</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="16">
@@ -11921,10 +11921,10 @@
         <v>2532.5</v>
       </c>
       <c r="GZ17" t="n">
-        <v>2623.7</v>
+        <v>2641.1</v>
       </c>
       <c r="HA17" t="n">
-        <v>2715.9</v>
+        <v>2744.4</v>
       </c>
     </row>
     <row r="18">
@@ -12553,7 +12553,7 @@
         <v>1654.7</v>
       </c>
       <c r="HA18" t="n">
-        <v>1696.3</v>
+        <v>1694.7</v>
       </c>
     </row>
     <row r="19">
@@ -13811,7 +13811,7 @@
         <v>4084.9</v>
       </c>
       <c r="HA20" t="n">
-        <v>4128.4</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="21">
@@ -14437,10 +14437,10 @@
         <v>1577.7</v>
       </c>
       <c r="GZ21" t="n">
-        <v>1613.2</v>
+        <v>1616.9</v>
       </c>
       <c r="HA21" t="n">
-        <v>1645.8</v>
+        <v>1652.8</v>
       </c>
     </row>
     <row r="22">
@@ -15069,7 +15069,7 @@
         <v>116.257</v>
       </c>
       <c r="HA22" t="n">
-        <v>118.097</v>
+        <v>118.059</v>
       </c>
     </row>
     <row r="23">
@@ -16327,7 +16327,7 @@
         <v>2522.9</v>
       </c>
       <c r="HA24" t="n">
-        <v>2562.3</v>
+        <v>2567.9</v>
       </c>
     </row>
     <row r="25">
@@ -16956,7 +16956,7 @@
         <v>1339.1</v>
       </c>
       <c r="HA25" t="n">
-        <v>1325.6</v>
+        <v>1323.9</v>
       </c>
     </row>
     <row r="26">
@@ -17585,7 +17585,7 @@
         <v>2042.1</v>
       </c>
       <c r="HA26" t="n">
-        <v>2030.7</v>
+        <v>2035.1</v>
       </c>
     </row>
     <row r="27">
@@ -18211,10 +18211,10 @@
         <v>1946.1</v>
       </c>
       <c r="GZ27" t="n">
-        <v>2018.5</v>
+        <v>2036</v>
       </c>
       <c r="HA27" t="n">
-        <v>2088.2</v>
+        <v>2115.4</v>
       </c>
     </row>
     <row r="28">
@@ -18843,7 +18843,7 @@
         <v>172.9</v>
       </c>
       <c r="HA28" t="n">
-        <v>178.7</v>
+        <v>178.4</v>
       </c>
     </row>
     <row r="29">
@@ -20098,10 +20098,10 @@
         <v>1555.7</v>
       </c>
       <c r="GZ30" t="n">
-        <v>1590.7</v>
+        <v>1594.4</v>
       </c>
       <c r="HA30" t="n">
-        <v>1623</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="31">
@@ -20730,7 +20730,7 @@
         <v>3136.3</v>
       </c>
       <c r="HA31" t="n">
-        <v>2939.7</v>
+        <v>2939.1</v>
       </c>
     </row>
     <row r="32">
@@ -21359,7 +21359,7 @@
         <v>1057.1</v>
       </c>
       <c r="HA32" t="n">
-        <v>892</v>
+        <v>897.9</v>
       </c>
     </row>
     <row r="33">
@@ -21988,7 +21988,7 @@
         <v>605.1</v>
       </c>
       <c r="HA33" t="n">
-        <v>627.7</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34">
@@ -22617,7 +22617,7 @@
         <v>1481.8</v>
       </c>
       <c r="HA34" t="n">
-        <v>1517.6</v>
+        <v>1516.3</v>
       </c>
     </row>
     <row r="35">
@@ -24504,7 +24504,7 @@
         <v>933.2</v>
       </c>
       <c r="HA37" t="n">
-        <v>948.5</v>
+        <v>937.9</v>
       </c>
     </row>
     <row r="38">
@@ -25133,7 +25133,7 @@
         <v>3438</v>
       </c>
       <c r="HA38" t="n">
-        <v>3480.1</v>
+        <v>3474.5</v>
       </c>
     </row>
     <row r="39">
@@ -25578,7 +25578,7 @@
         <v>569.606</v>
       </c>
       <c r="HA39" t="n">
-        <v>590.802</v>
+        <v>592.498</v>
       </c>
     </row>
     <row r="40">
@@ -26023,7 +26023,7 @@
         <v>530.821</v>
       </c>
       <c r="HA40" t="n">
-        <v>541.835</v>
+        <v>541.892</v>
       </c>
     </row>
     <row r="41">
@@ -26652,7 +26652,7 @@
         <v>72.767</v>
       </c>
       <c r="HA41" t="n">
-        <v>74.371</v>
+        <v>73.727</v>
       </c>
     </row>
     <row r="42">
@@ -27281,7 +27281,7 @@
         <v>554.5</v>
       </c>
       <c r="HA42" t="n">
-        <v>305.2</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="43">
@@ -28539,7 +28539,7 @@
         <v>555.1</v>
       </c>
       <c r="HA44" t="n">
-        <v>305.8</v>
+        <v>305.2</v>
       </c>
     </row>
     <row r="45">
@@ -28766,7 +28766,7 @@
         <v>38.9</v>
       </c>
       <c r="HA45" t="n">
-        <v>754.233333333333</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="46">
@@ -28993,7 +28993,7 @@
         <v>14.3</v>
       </c>
       <c r="HA46" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="47">
@@ -29220,7 +29220,7 @@
         <v>14</v>
       </c>
       <c r="HA47" t="n">
-        <v>16.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -29449,7 +29449,7 @@
         <v>37.4</v>
       </c>
       <c r="HA48" t="n">
-        <v>35.6</v>
+        <v>64.4</v>
       </c>
     </row>
     <row r="49">
@@ -29676,7 +29676,7 @@
         <v>265</v>
       </c>
       <c r="HA49" t="n">
-        <v>292.266666666667</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="50">
@@ -29903,7 +29903,7 @@
         <v>0.7</v>
       </c>
       <c r="HA50" t="n">
-        <v>28.6666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -30357,7 +30357,7 @@
         <v>18.5</v>
       </c>
       <c r="HA52" t="n">
-        <v>13.5333333333333</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="53">
@@ -30584,7 +30584,7 @@
         <v>8.7</v>
       </c>
       <c r="HA53" t="n">
-        <v>7.96666666666667</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="54">
@@ -30811,7 +30811,7 @@
         <v>22.4</v>
       </c>
       <c r="HA54" t="n">
-        <v>21.3666666666667</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="55">
@@ -31265,7 +31265,7 @@
         <v>187.9</v>
       </c>
       <c r="HA56" t="n">
-        <v>324.6</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="57">
@@ -31492,7 +31492,7 @@
         <v>80.7</v>
       </c>
       <c r="HA57" t="n">
-        <v>59.0666666666667</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="58">
@@ -31719,7 +31719,7 @@
         <v>15</v>
       </c>
       <c r="HA58" t="n">
-        <v>14.2333333333333</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="59">
@@ -31946,7 +31946,7 @@
         <v>61.5</v>
       </c>
       <c r="HA59" t="n">
-        <v>87.9333333333333</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="60">
@@ -32173,7 +32173,7 @@
         <v>50</v>
       </c>
       <c r="HA60" t="n">
-        <v>75.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="61">
@@ -32400,7 +32400,7 @@
         <v>113.2</v>
       </c>
       <c r="HA61" t="n">
-        <v>212.433333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -32627,7 +32627,7 @@
         <v>230.4</v>
       </c>
       <c r="HA62" t="n">
-        <v>388.366666666667</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="63">
@@ -32854,7 +32854,7 @@
         <v>5.7</v>
       </c>
       <c r="HA63" t="n">
-        <v>12.1666666666667</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="64">
@@ -33079,7 +33079,7 @@
         <v>0.1</v>
       </c>
       <c r="HA64" t="n">
-        <v>0.766666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -33708,7 +33708,7 @@
         <v>100.6</v>
       </c>
       <c r="HA65" t="n">
-        <v>90.9</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="66">
@@ -34337,7 +34337,7 @@
         <v>135.661</v>
       </c>
       <c r="HA66" t="n">
-        <v>143.268</v>
+        <v>142.573</v>
       </c>
     </row>
     <row r="67">
@@ -34909,64 +34909,64 @@
         <v>242.134666666667</v>
       </c>
       <c r="GH67" t="n">
-        <v>243.752666666667</v>
+        <v>243.838666666667</v>
       </c>
       <c r="GI67" t="n">
-        <v>244.187</v>
+        <v>244.12</v>
       </c>
       <c r="GJ67" t="n">
-        <v>245.345333333333</v>
+        <v>245.287</v>
       </c>
       <c r="GK67" t="n">
-        <v>247.257</v>
+        <v>247.238333333333</v>
       </c>
       <c r="GL67" t="n">
-        <v>249.179333333333</v>
+        <v>249.254333333333</v>
       </c>
       <c r="GM67" t="n">
-        <v>250.737666666667</v>
+        <v>250.681</v>
       </c>
       <c r="GN67" t="n">
-        <v>251.754333333333</v>
+        <v>251.770333333333</v>
       </c>
       <c r="GO67" t="n">
-        <v>252.738</v>
+        <v>252.69</v>
       </c>
       <c r="GP67" t="n">
-        <v>253.185666666667</v>
+        <v>253.292666666667</v>
       </c>
       <c r="GQ67" t="n">
-        <v>255.373333333333</v>
+        <v>255.283</v>
       </c>
       <c r="GR67" t="n">
-        <v>256.191666666667</v>
+        <v>256.225</v>
       </c>
       <c r="GS67" t="n">
-        <v>257.859666666667</v>
+        <v>257.785333333333</v>
       </c>
       <c r="GT67" t="n">
-        <v>258.5</v>
+        <v>258.618</v>
       </c>
       <c r="GU67" t="n">
-        <v>256.472</v>
+        <v>256.418333333333</v>
       </c>
       <c r="GV67" t="n">
-        <v>259.421333333333</v>
+        <v>259.437666666667</v>
       </c>
       <c r="GW67" t="n">
-        <v>260.983</v>
+        <v>260.879</v>
       </c>
       <c r="GX67" t="n">
-        <v>263.395</v>
+        <v>263.524666666667</v>
       </c>
       <c r="GY67" t="n">
-        <v>268.788</v>
+        <v>268.760333333333</v>
       </c>
       <c r="GZ67" t="n">
-        <v>273.138333333333</v>
+        <v>273.163333333333</v>
       </c>
       <c r="HA67" t="n">
-        <v>278.598666666667</v>
+        <v>278.413333333333</v>
       </c>
     </row>
     <row r="68">
@@ -35538,64 +35538,64 @@
         <v>236.140666666667</v>
       </c>
       <c r="GH68" t="n">
-        <v>237.75</v>
+        <v>237.859</v>
       </c>
       <c r="GI68" t="n">
-        <v>238.030666666667</v>
+        <v>237.925333333333</v>
       </c>
       <c r="GJ68" t="n">
-        <v>239.2</v>
+        <v>239.136666666667</v>
       </c>
       <c r="GK68" t="n">
-        <v>241.303666666667</v>
+        <v>241.276333333333</v>
       </c>
       <c r="GL68" t="n">
-        <v>243.274333333333</v>
+        <v>243.360333333333</v>
       </c>
       <c r="GM68" t="n">
-        <v>244.813</v>
+        <v>244.732</v>
       </c>
       <c r="GN68" t="n">
-        <v>245.793</v>
+        <v>245.840333333333</v>
       </c>
       <c r="GO68" t="n">
-        <v>246.681</v>
+        <v>246.613333333333</v>
       </c>
       <c r="GP68" t="n">
-        <v>246.765</v>
+        <v>246.874</v>
       </c>
       <c r="GQ68" t="n">
-        <v>249.007666666667</v>
+        <v>248.912</v>
       </c>
       <c r="GR68" t="n">
-        <v>249.665</v>
+        <v>249.725</v>
       </c>
       <c r="GS68" t="n">
-        <v>251.425333333333</v>
+        <v>251.325666666667</v>
       </c>
       <c r="GT68" t="n">
-        <v>251.885333333333</v>
+        <v>251.990333333333</v>
       </c>
       <c r="GU68" t="n">
-        <v>249.576</v>
+        <v>249.543</v>
       </c>
       <c r="GV68" t="n">
-        <v>253.013666666667</v>
+        <v>253.039666666667</v>
       </c>
       <c r="GW68" t="n">
-        <v>254.680333333333</v>
+        <v>254.556</v>
       </c>
       <c r="GX68" t="n">
-        <v>257.350666666667</v>
+        <v>257.472</v>
       </c>
       <c r="GY68" t="n">
-        <v>263.125333333333</v>
+        <v>263.117</v>
       </c>
       <c r="GZ68" t="n">
-        <v>267.855333333333</v>
+        <v>267.898666666667</v>
       </c>
       <c r="HA68" t="n">
-        <v>273.757666666667</v>
+        <v>273.536666666667</v>
       </c>
     </row>
     <row r="69">
@@ -38054,64 +38054,64 @@
         <v>5135.33333333333</v>
       </c>
       <c r="GH72" t="n">
-        <v>5158</v>
+        <v>5159.66666666667</v>
       </c>
       <c r="GI72" t="n">
-        <v>5170.33333333333</v>
+        <v>5174.66666666667</v>
       </c>
       <c r="GJ72" t="n">
-        <v>5168.33333333333</v>
+        <v>5163.66666666667</v>
       </c>
       <c r="GK72" t="n">
+        <v>5157.33333333333</v>
+      </c>
+      <c r="GL72" t="n">
+        <v>5152</v>
+      </c>
+      <c r="GM72" t="n">
+        <v>5177.66666666667</v>
+      </c>
+      <c r="GN72" t="n">
+        <v>5182.66666666667</v>
+      </c>
+      <c r="GO72" t="n">
+        <v>5174</v>
+      </c>
+      <c r="GP72" t="n">
+        <v>5175</v>
+      </c>
+      <c r="GQ72" t="n">
+        <v>5182</v>
+      </c>
+      <c r="GR72" t="n">
+        <v>5214.66666666667</v>
+      </c>
+      <c r="GS72" t="n">
+        <v>5244</v>
+      </c>
+      <c r="GT72" t="n">
+        <v>5273.66666666667</v>
+      </c>
+      <c r="GU72" t="n">
+        <v>5082.33333333333</v>
+      </c>
+      <c r="GV72" t="n">
+        <v>5100</v>
+      </c>
+      <c r="GW72" t="n">
+        <v>5078</v>
+      </c>
+      <c r="GX72" t="n">
         <v>5160.33333333333</v>
       </c>
-      <c r="GL72" t="n">
-        <v>5150.33333333333</v>
-      </c>
-      <c r="GM72" t="n">
-        <v>5173</v>
-      </c>
-      <c r="GN72" t="n">
-        <v>5185.33333333333</v>
-      </c>
-      <c r="GO72" t="n">
-        <v>5177</v>
-      </c>
-      <c r="GP72" t="n">
-        <v>5171.33333333333</v>
-      </c>
-      <c r="GQ72" t="n">
-        <v>5177.33333333333</v>
-      </c>
-      <c r="GR72" t="n">
+      <c r="GY72" t="n">
         <v>5218.33333333333</v>
       </c>
-      <c r="GS72" t="n">
-        <v>5250.33333333333</v>
-      </c>
-      <c r="GT72" t="n">
-        <v>5276.33333333333</v>
-      </c>
-      <c r="GU72" t="n">
-        <v>5049.33333333333</v>
-      </c>
-      <c r="GV72" t="n">
-        <v>5036.33333333333</v>
-      </c>
-      <c r="GW72" t="n">
-        <v>4935.33333333333</v>
-      </c>
-      <c r="GX72" t="n">
-        <v>4976.66666666667</v>
-      </c>
-      <c r="GY72" t="n">
-        <v>5023</v>
-      </c>
       <c r="GZ72" t="n">
-        <v>5072.66666666667</v>
+        <v>5230.33333333333</v>
       </c>
       <c r="HA72" t="n">
-        <v>5035.33333333333</v>
+        <v>5220.66666666667</v>
       </c>
     </row>
     <row r="73">
@@ -38683,64 +38683,64 @@
         <v>14351</v>
       </c>
       <c r="GH73" t="n">
-        <v>14347</v>
+        <v>14352.3333333333</v>
       </c>
       <c r="GI73" t="n">
-        <v>14363</v>
+        <v>14369</v>
       </c>
       <c r="GJ73" t="n">
-        <v>14401.6666666667</v>
+        <v>14373</v>
       </c>
       <c r="GK73" t="n">
-        <v>14428.6666666667</v>
+        <v>14421.6666666667</v>
       </c>
       <c r="GL73" t="n">
-        <v>14442.3333333333</v>
+        <v>14453.6666666667</v>
       </c>
       <c r="GM73" t="n">
-        <v>14468.6666666667</v>
+        <v>14486</v>
       </c>
       <c r="GN73" t="n">
-        <v>14494.3333333333</v>
+        <v>14482</v>
       </c>
       <c r="GO73" t="n">
-        <v>14510</v>
+        <v>14507</v>
       </c>
       <c r="GP73" t="n">
-        <v>14527.6666666667</v>
+        <v>14550</v>
       </c>
       <c r="GQ73" t="n">
-        <v>14558.3333333333</v>
+        <v>14587.6666666667</v>
       </c>
       <c r="GR73" t="n">
-        <v>14590</v>
+        <v>14542.6666666667</v>
       </c>
       <c r="GS73" t="n">
-        <v>14620.3333333333</v>
+        <v>14625.6666666667</v>
       </c>
       <c r="GT73" t="n">
-        <v>14658.3333333333</v>
+        <v>14691.3333333333</v>
       </c>
       <c r="GU73" t="n">
-        <v>13569.6666666667</v>
+        <v>13620</v>
       </c>
       <c r="GV73" t="n">
-        <v>13736.6666666667</v>
+        <v>13637.3333333333</v>
       </c>
       <c r="GW73" t="n">
-        <v>13655.3333333333</v>
+        <v>13719</v>
       </c>
       <c r="GX73" t="n">
-        <v>13671.3333333333</v>
+        <v>13769.6666666667</v>
       </c>
       <c r="GY73" t="n">
-        <v>13769.3333333333</v>
+        <v>13862.3333333333</v>
       </c>
       <c r="GZ73" t="n">
-        <v>14088.3333333333</v>
+        <v>13978</v>
       </c>
       <c r="HA73" t="n">
-        <v>14007.6666666667</v>
+        <v>14009.3333333333</v>
       </c>
     </row>
     <row r="74">
@@ -39369,7 +39369,7 @@
         <v>321889.666666667</v>
       </c>
       <c r="HA74" t="n">
-        <v>321085.444444444</v>
+        <v>324549.666666667</v>
       </c>
     </row>
     <row r="75">
@@ -39998,7 +39998,7 @@
         <v>0.0145730182226531</v>
       </c>
       <c r="HA75" t="n">
-        <v>0.0169211547975414</v>
+        <v>0.017357180590144</v>
       </c>
     </row>
     <row r="76">
@@ -40627,7 +40627,7 @@
         <v>0.0131129543791169</v>
       </c>
       <c r="HA76" t="n">
-        <v>0.0158242816722138</v>
+        <v>0.0154888757019875</v>
       </c>
     </row>
     <row r="77">
@@ -41256,7 +41256,7 @@
         <v>0.0122800013885513</v>
       </c>
       <c r="HA77" t="n">
-        <v>0.0129283368911979</v>
+        <v>0.0141542998722597</v>
       </c>
     </row>
     <row r="78">
@@ -41885,7 +41885,7 @@
         <v>0.0164302639373395</v>
       </c>
       <c r="HA78" t="n">
-        <v>0.0213208570434107</v>
+        <v>0.0213775183947029</v>
       </c>
     </row>
     <row r="79">
@@ -42514,7 +42514,7 @@
         <v>0.0153675108091413</v>
       </c>
       <c r="HA79" t="n">
-        <v>0.0197094678443683</v>
+        <v>0.0194742519729745</v>
       </c>
     </row>
     <row r="80">
@@ -43143,7 +43143,7 @@
         <v>0.0213675563672697</v>
       </c>
       <c r="HA80" t="n">
-        <v>0.0289631946114988</v>
+        <v>0.0304145617833373</v>
       </c>
     </row>
     <row r="81">
@@ -43769,10 +43769,10 @@
         <v>10189.1</v>
       </c>
       <c r="GZ81" t="n">
-        <v>10469.5</v>
+        <v>10497.2</v>
       </c>
       <c r="HA81" t="n">
-        <v>10716.8</v>
+        <v>10770.5</v>
       </c>
     </row>
     <row r="82">
@@ -44401,7 +44401,7 @@
         <v>1867</v>
       </c>
       <c r="HA82" t="n">
-        <v>1850.7</v>
+        <v>1854.8</v>
       </c>
     </row>
     <row r="83">
@@ -45030,7 +45030,7 @@
         <v>729</v>
       </c>
       <c r="HA83" t="n">
-        <v>749.9</v>
+        <v>747.7</v>
       </c>
     </row>
     <row r="84">
@@ -45659,7 +45659,7 @@
         <v>2945.2</v>
       </c>
       <c r="HA84" t="n">
-        <v>2986.9</v>
+        <v>2986.7</v>
       </c>
     </row>
     <row r="85">
@@ -46506,7 +46506,9 @@
       <c r="GZ86" t="n">
         <v>57</v>
       </c>
-      <c r="HA86"/>
+      <c r="HA86" t="n">
+        <v>35.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -46732,7 +46734,7 @@
         <v>10.4</v>
       </c>
       <c r="HA87" t="n">
-        <v>7.33333333333333</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="88">
@@ -47361,7 +47363,7 @@
         <v>1117202</v>
       </c>
       <c r="HA88" t="n">
-        <v>1126929</v>
+        <v>1126974</v>
       </c>
     </row>
     <row r="89">
@@ -47581,7 +47583,9 @@
       <c r="GZ89" t="n">
         <v>218.933333333333</v>
       </c>
-      <c r="HA89"/>
+      <c r="HA89" t="n">
+        <v>223.133333333333</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/haver_pivoted.xlsx
+++ b/data/haver_pivoted.xlsx
@@ -2489,7 +2489,7 @@
         <v>23202.3</v>
       </c>
       <c r="HA2" t="n">
-        <v>24008.5</v>
+        <v>24002.8</v>
       </c>
     </row>
     <row r="3">
@@ -3118,7 +3118,7 @@
         <v>19478.9</v>
       </c>
       <c r="HA3" t="n">
-        <v>19810.6</v>
+        <v>19806.3</v>
       </c>
     </row>
     <row r="4">
@@ -3747,7 +3747,7 @@
         <v>119.259</v>
       </c>
       <c r="HA4" t="n">
-        <v>121.329</v>
+        <v>121.331</v>
       </c>
     </row>
     <row r="5">
@@ -4376,7 +4376,7 @@
         <v>15964.9</v>
       </c>
       <c r="HA5" t="n">
-        <v>16335.5</v>
+        <v>16314.2</v>
       </c>
     </row>
     <row r="6">
@@ -5005,7 +5005,7 @@
         <v>13732.4</v>
       </c>
       <c r="HA6" t="n">
-        <v>13836.7</v>
+        <v>13818.4</v>
       </c>
     </row>
     <row r="7">
@@ -5634,7 +5634,7 @@
         <v>116.277</v>
       </c>
       <c r="HA7" t="n">
-        <v>118.078</v>
+        <v>118.081</v>
       </c>
     </row>
     <row r="8">
@@ -6263,7 +6263,7 @@
         <v>116.643</v>
       </c>
       <c r="HA8" t="n">
-        <v>118.294</v>
+        <v>118.261</v>
       </c>
     </row>
     <row r="9">
@@ -6892,7 +6892,7 @@
         <v>123.541</v>
       </c>
       <c r="HA9" t="n">
-        <v>126.182</v>
+        <v>126.189</v>
       </c>
     </row>
     <row r="10">
@@ -7521,7 +7521,7 @@
         <v>123.291</v>
       </c>
       <c r="HA10" t="n">
-        <v>125.692</v>
+        <v>125.712</v>
       </c>
     </row>
     <row r="11">
@@ -8150,7 +8150,7 @@
         <v>124.71</v>
       </c>
       <c r="HA11" t="n">
-        <v>128.503</v>
+        <v>128.449</v>
       </c>
     </row>
     <row r="12">
@@ -9408,7 +9408,7 @@
         <v>775</v>
       </c>
       <c r="HA13" t="n">
-        <v>781.6</v>
+        <v>782.9</v>
       </c>
     </row>
     <row r="14">
@@ -10037,7 +10037,7 @@
         <v>272.3</v>
       </c>
       <c r="HA14" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="15">
@@ -10666,7 +10666,7 @@
         <v>4069.6</v>
       </c>
       <c r="HA15" t="n">
-        <v>3877</v>
+        <v>3875.5</v>
       </c>
     </row>
     <row r="16">
@@ -11924,7 +11924,7 @@
         <v>2641.1</v>
       </c>
       <c r="HA17" t="n">
-        <v>2744.4</v>
+        <v>2744.9</v>
       </c>
     </row>
     <row r="18">
@@ -12553,7 +12553,7 @@
         <v>1654.7</v>
       </c>
       <c r="HA18" t="n">
-        <v>1694.7</v>
+        <v>1693.4</v>
       </c>
     </row>
     <row r="19">
@@ -13182,7 +13182,7 @@
         <v>381.2</v>
       </c>
       <c r="HA19" t="n">
-        <v>360</v>
+        <v>396.6</v>
       </c>
     </row>
     <row r="20">
@@ -13811,7 +13811,7 @@
         <v>4084.9</v>
       </c>
       <c r="HA20" t="n">
-        <v>4134</v>
+        <v>4132.9</v>
       </c>
     </row>
     <row r="21">
@@ -14440,7 +14440,7 @@
         <v>1616.9</v>
       </c>
       <c r="HA21" t="n">
-        <v>1652.8</v>
+        <v>1652.9</v>
       </c>
     </row>
     <row r="22">
@@ -15069,7 +15069,7 @@
         <v>116.257</v>
       </c>
       <c r="HA22" t="n">
-        <v>118.059</v>
+        <v>118.062</v>
       </c>
     </row>
     <row r="23">
@@ -15698,7 +15698,7 @@
         <v>1562</v>
       </c>
       <c r="HA23" t="n">
-        <v>1566.1</v>
+        <v>1566.2</v>
       </c>
     </row>
     <row r="24">
@@ -16327,7 +16327,7 @@
         <v>2522.9</v>
       </c>
       <c r="HA24" t="n">
-        <v>2567.9</v>
+        <v>2566.7</v>
       </c>
     </row>
     <row r="25">
@@ -16956,7 +16956,7 @@
         <v>1339.1</v>
       </c>
       <c r="HA25" t="n">
-        <v>1323.9</v>
+        <v>1324.3</v>
       </c>
     </row>
     <row r="26">
@@ -17585,7 +17585,7 @@
         <v>2042.1</v>
       </c>
       <c r="HA26" t="n">
-        <v>2035.1</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="27">
@@ -18214,7 +18214,7 @@
         <v>2036</v>
       </c>
       <c r="HA27" t="n">
-        <v>2115.4</v>
+        <v>2115.8</v>
       </c>
     </row>
     <row r="28">
@@ -18843,7 +18843,7 @@
         <v>172.9</v>
       </c>
       <c r="HA28" t="n">
-        <v>178.4</v>
+        <v>178.3</v>
       </c>
     </row>
     <row r="29">
@@ -19472,7 +19472,7 @@
         <v>285.9</v>
       </c>
       <c r="HA29" t="n">
-        <v>269.133333333333</v>
+        <v>281.2</v>
       </c>
     </row>
     <row r="30">
@@ -20101,7 +20101,7 @@
         <v>1594.4</v>
       </c>
       <c r="HA30" t="n">
-        <v>1630</v>
+        <v>1630.1</v>
       </c>
     </row>
     <row r="31">
@@ -20730,7 +20730,7 @@
         <v>3136.3</v>
       </c>
       <c r="HA31" t="n">
-        <v>2939.1</v>
+        <v>2936.3</v>
       </c>
     </row>
     <row r="32">
@@ -21359,7 +21359,7 @@
         <v>1057.1</v>
       </c>
       <c r="HA32" t="n">
-        <v>897.9</v>
+        <v>904.2</v>
       </c>
     </row>
     <row r="33">
@@ -21988,7 +21988,7 @@
         <v>605.1</v>
       </c>
       <c r="HA33" t="n">
-        <v>629</v>
+        <v>629.1</v>
       </c>
     </row>
     <row r="34">
@@ -22617,7 +22617,7 @@
         <v>1481.8</v>
       </c>
       <c r="HA34" t="n">
-        <v>1516.3</v>
+        <v>1515.2</v>
       </c>
     </row>
     <row r="35">
@@ -23246,7 +23246,7 @@
         <v>95.3</v>
       </c>
       <c r="HA35" t="n">
-        <v>90.9</v>
+        <v>115.4</v>
       </c>
     </row>
     <row r="36">
@@ -24504,7 +24504,7 @@
         <v>933.2</v>
       </c>
       <c r="HA37" t="n">
-        <v>937.9</v>
+        <v>939.2</v>
       </c>
     </row>
     <row r="38">
@@ -25133,7 +25133,7 @@
         <v>3438</v>
       </c>
       <c r="HA38" t="n">
-        <v>3474.5</v>
+        <v>3474.7</v>
       </c>
     </row>
     <row r="39">
@@ -25578,7 +25578,7 @@
         <v>569.606</v>
       </c>
       <c r="HA39" t="n">
-        <v>592.498</v>
+        <v>592.42</v>
       </c>
     </row>
     <row r="40">
@@ -26023,7 +26023,7 @@
         <v>530.821</v>
       </c>
       <c r="HA40" t="n">
-        <v>541.892</v>
+        <v>541.833</v>
       </c>
     </row>
     <row r="41">
@@ -26652,7 +26652,7 @@
         <v>72.767</v>
       </c>
       <c r="HA41" t="n">
-        <v>73.727</v>
+        <v>74.768</v>
       </c>
     </row>
     <row r="42">
@@ -27281,7 +27281,7 @@
         <v>554.5</v>
       </c>
       <c r="HA42" t="n">
-        <v>304.5</v>
+        <v>304.7</v>
       </c>
     </row>
     <row r="43">
@@ -28539,7 +28539,7 @@
         <v>555.1</v>
       </c>
       <c r="HA44" t="n">
-        <v>305.2</v>
+        <v>305.3</v>
       </c>
     </row>
     <row r="45">
@@ -31946,7 +31946,7 @@
         <v>61.5</v>
       </c>
       <c r="HA59" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="60">
@@ -32627,7 +32627,7 @@
         <v>230.4</v>
       </c>
       <c r="HA62" t="n">
-        <v>8.2</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="63">
@@ -33708,7 +33708,7 @@
         <v>100.6</v>
       </c>
       <c r="HA65" t="n">
-        <v>90.5</v>
+        <v>91.4</v>
       </c>
     </row>
     <row r="66">
@@ -34337,7 +34337,7 @@
         <v>135.661</v>
       </c>
       <c r="HA66" t="n">
-        <v>142.573</v>
+        <v>139.85</v>
       </c>
     </row>
     <row r="67">
@@ -38111,7 +38111,7 @@
         <v>5230.33333333333</v>
       </c>
       <c r="HA72" t="n">
-        <v>5220.66666666667</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="73">
@@ -39369,7 +39369,7 @@
         <v>321889.666666667</v>
       </c>
       <c r="HA74" t="n">
-        <v>324549.666666667</v>
+        <v>325065.666666667</v>
       </c>
     </row>
     <row r="75">
@@ -39998,7 +39998,7 @@
         <v>0.0145730182226531</v>
       </c>
       <c r="HA75" t="n">
-        <v>0.017357180590144</v>
+        <v>0.0173739508129365</v>
       </c>
     </row>
     <row r="76">
@@ -40627,7 +40627,7 @@
         <v>0.0131129543791169</v>
       </c>
       <c r="HA76" t="n">
-        <v>0.0154888757019875</v>
+        <v>0.0155146761612357</v>
       </c>
     </row>
     <row r="77">
@@ -41256,7 +41256,7 @@
         <v>0.0122800013885513</v>
       </c>
       <c r="HA77" t="n">
-        <v>0.0141542998722597</v>
+        <v>0.0138713853381685</v>
       </c>
     </row>
     <row r="78">
@@ -41885,7 +41885,7 @@
         <v>0.0164302639373395</v>
       </c>
       <c r="HA78" t="n">
-        <v>0.0213775183947029</v>
+        <v>0.0214341797459952</v>
       </c>
     </row>
     <row r="79">
@@ -42514,7 +42514,7 @@
         <v>0.0153675108091413</v>
       </c>
       <c r="HA79" t="n">
-        <v>0.0194742519729745</v>
+        <v>0.0196364698153151</v>
       </c>
     </row>
     <row r="80">
@@ -43143,7 +43143,7 @@
         <v>0.0213675563672697</v>
       </c>
       <c r="HA80" t="n">
-        <v>0.0304145617833373</v>
+        <v>0.0299815572127338</v>
       </c>
     </row>
     <row r="81">
@@ -43772,7 +43772,7 @@
         <v>10497.2</v>
       </c>
       <c r="HA81" t="n">
-        <v>10770.5</v>
+        <v>10771.2</v>
       </c>
     </row>
     <row r="82">
@@ -44401,7 +44401,7 @@
         <v>1867</v>
       </c>
       <c r="HA82" t="n">
-        <v>1854.8</v>
+        <v>1858.5</v>
       </c>
     </row>
     <row r="83">
@@ -45030,7 +45030,7 @@
         <v>729</v>
       </c>
       <c r="HA83" t="n">
-        <v>747.7</v>
+        <v>743.6</v>
       </c>
     </row>
     <row r="84">
@@ -45659,7 +45659,7 @@
         <v>2945.2</v>
       </c>
       <c r="HA84" t="n">
-        <v>2986.7</v>
+        <v>2989.2</v>
       </c>
     </row>
     <row r="85">
@@ -46288,7 +46288,7 @@
         <v>2404.8</v>
       </c>
       <c r="HA85" t="n">
-        <v>2282.93333333333</v>
+        <v>2408.5</v>
       </c>
     </row>
     <row r="86">
@@ -47363,7 +47363,7 @@
         <v>1117202</v>
       </c>
       <c r="HA88" t="n">
-        <v>1126974</v>
+        <v>1126867</v>
       </c>
     </row>
     <row r="89">
